--- a/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C014A51-D99D-4415-BB88-D1B2C44C41F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0FDC4-AA22-4EE7-B5C2-382B52E2B554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4483,6 +4483,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4510,90 +4595,17 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4617,18 +4629,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5771,7 +5771,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3481"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3483"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7120,1770 +7120,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="222"/>
-      <c r="AN1" s="222"/>
-      <c r="AO1" s="222"/>
-      <c r="AP1" s="222"/>
-      <c r="AQ1" s="222"/>
-      <c r="AR1" s="222"/>
-      <c r="AS1" s="222"/>
-      <c r="AT1" s="222"/>
-      <c r="AU1" s="222"/>
-      <c r="AV1" s="222"/>
-      <c r="AW1" s="222"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="253"/>
+      <c r="T1" s="253"/>
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
+      <c r="Y1" s="253"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="253"/>
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="253"/>
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="253"/>
+      <c r="AG1" s="253"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="253"/>
+      <c r="AJ1" s="253"/>
+      <c r="AK1" s="253"/>
+      <c r="AL1" s="253"/>
+      <c r="AM1" s="253"/>
+      <c r="AN1" s="253"/>
+      <c r="AO1" s="253"/>
+      <c r="AP1" s="253"/>
+      <c r="AQ1" s="253"/>
+      <c r="AR1" s="253"/>
+      <c r="AS1" s="253"/>
+      <c r="AT1" s="253"/>
+      <c r="AU1" s="253"/>
+      <c r="AV1" s="253"/>
+      <c r="AW1" s="253"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="223"/>
-      <c r="AJ2" s="223"/>
-      <c r="AK2" s="223"/>
-      <c r="AL2" s="223"/>
-      <c r="AM2" s="223"/>
-      <c r="AN2" s="223"/>
-      <c r="AO2" s="223"/>
-      <c r="AP2" s="223"/>
-      <c r="AQ2" s="223"/>
-      <c r="AR2" s="223"/>
-      <c r="AS2" s="223"/>
-      <c r="AT2" s="223"/>
-      <c r="AU2" s="223"/>
-      <c r="AV2" s="223"/>
-      <c r="AW2" s="223"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="254"/>
+      <c r="AD2" s="254"/>
+      <c r="AE2" s="254"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="254"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="254"/>
+      <c r="AJ2" s="254"/>
+      <c r="AK2" s="254"/>
+      <c r="AL2" s="254"/>
+      <c r="AM2" s="254"/>
+      <c r="AN2" s="254"/>
+      <c r="AO2" s="254"/>
+      <c r="AP2" s="254"/>
+      <c r="AQ2" s="254"/>
+      <c r="AR2" s="254"/>
+      <c r="AS2" s="254"/>
+      <c r="AT2" s="254"/>
+      <c r="AU2" s="254"/>
+      <c r="AV2" s="254"/>
+      <c r="AW2" s="254"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="225" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="226"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="225" t="s">
+      <c r="K3" s="257"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="224" t="s">
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224" t="s">
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="224"/>
-      <c r="AC3" s="224"/>
-      <c r="AD3" s="224"/>
-      <c r="AE3" s="224"/>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="224"/>
-      <c r="AH3" s="224"/>
-      <c r="AI3" s="224"/>
-      <c r="AJ3" s="224"/>
-      <c r="AK3" s="224"/>
-      <c r="AL3" s="224"/>
-      <c r="AM3" s="224"/>
-      <c r="AN3" s="224" t="s">
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="255"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="255"/>
+      <c r="AE3" s="255"/>
+      <c r="AF3" s="255"/>
+      <c r="AG3" s="255"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="255"/>
+      <c r="AJ3" s="255"/>
+      <c r="AK3" s="255"/>
+      <c r="AL3" s="255"/>
+      <c r="AM3" s="255"/>
+      <c r="AN3" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="224"/>
-      <c r="AP3" s="224"/>
-      <c r="AQ3" s="224"/>
-      <c r="AR3" s="224"/>
-      <c r="AS3" s="224" t="s">
+      <c r="AO3" s="255"/>
+      <c r="AP3" s="255"/>
+      <c r="AQ3" s="255"/>
+      <c r="AR3" s="255"/>
+      <c r="AS3" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="224"/>
-      <c r="AU3" s="224"/>
-      <c r="AV3" s="224"/>
-      <c r="AW3" s="224"/>
+      <c r="AT3" s="255"/>
+      <c r="AU3" s="255"/>
+      <c r="AV3" s="255"/>
+      <c r="AW3" s="255"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="229"/>
-      <c r="O4" s="229"/>
-      <c r="P4" s="229"/>
-      <c r="Q4" s="229"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="224"/>
-      <c r="AD4" s="224"/>
-      <c r="AE4" s="224"/>
-      <c r="AF4" s="224"/>
-      <c r="AG4" s="224"/>
-      <c r="AH4" s="224"/>
-      <c r="AI4" s="224"/>
-      <c r="AJ4" s="224"/>
-      <c r="AK4" s="224"/>
-      <c r="AL4" s="224"/>
-      <c r="AM4" s="224"/>
-      <c r="AN4" s="224"/>
-      <c r="AO4" s="224"/>
-      <c r="AP4" s="224"/>
-      <c r="AQ4" s="224"/>
-      <c r="AR4" s="224"/>
-      <c r="AS4" s="224"/>
-      <c r="AT4" s="224"/>
-      <c r="AU4" s="224"/>
-      <c r="AV4" s="224"/>
-      <c r="AW4" s="224"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="255"/>
+      <c r="T4" s="255"/>
+      <c r="U4" s="255"/>
+      <c r="V4" s="255"/>
+      <c r="W4" s="255"/>
+      <c r="X4" s="255"/>
+      <c r="Y4" s="255"/>
+      <c r="Z4" s="255"/>
+      <c r="AA4" s="255"/>
+      <c r="AB4" s="255"/>
+      <c r="AC4" s="255"/>
+      <c r="AD4" s="255"/>
+      <c r="AE4" s="255"/>
+      <c r="AF4" s="255"/>
+      <c r="AG4" s="255"/>
+      <c r="AH4" s="255"/>
+      <c r="AI4" s="255"/>
+      <c r="AJ4" s="255"/>
+      <c r="AK4" s="255"/>
+      <c r="AL4" s="255"/>
+      <c r="AM4" s="255"/>
+      <c r="AN4" s="255"/>
+      <c r="AO4" s="255"/>
+      <c r="AP4" s="255"/>
+      <c r="AQ4" s="255"/>
+      <c r="AR4" s="255"/>
+      <c r="AS4" s="255"/>
+      <c r="AT4" s="255"/>
+      <c r="AU4" s="255"/>
+      <c r="AV4" s="255"/>
+      <c r="AW4" s="255"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="232">
+      <c r="B5" s="247">
         <v>1</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="233">
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="228">
         <v>43725</v>
       </c>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="234" t="s">
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="235"/>
-      <c r="L5" s="236"/>
-      <c r="M5" s="234" t="s">
+      <c r="K5" s="230"/>
+      <c r="L5" s="231"/>
+      <c r="M5" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="235"/>
-      <c r="O5" s="235"/>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="235"/>
-      <c r="R5" s="236"/>
-      <c r="S5" s="231" t="s">
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="231"/>
-      <c r="U5" s="231"/>
-      <c r="V5" s="240" t="s">
+      <c r="T5" s="235"/>
+      <c r="U5" s="235"/>
+      <c r="V5" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="240"/>
-      <c r="X5" s="240"/>
-      <c r="Y5" s="240"/>
-      <c r="Z5" s="240"/>
-      <c r="AA5" s="240"/>
-      <c r="AB5" s="240"/>
-      <c r="AC5" s="240"/>
-      <c r="AD5" s="240"/>
-      <c r="AE5" s="240"/>
-      <c r="AF5" s="240"/>
-      <c r="AG5" s="240"/>
-      <c r="AH5" s="240"/>
-      <c r="AI5" s="240"/>
-      <c r="AJ5" s="240"/>
-      <c r="AK5" s="240"/>
-      <c r="AL5" s="240"/>
-      <c r="AM5" s="240"/>
-      <c r="AN5" s="231" t="s">
+      <c r="W5" s="246"/>
+      <c r="X5" s="246"/>
+      <c r="Y5" s="246"/>
+      <c r="Z5" s="246"/>
+      <c r="AA5" s="246"/>
+      <c r="AB5" s="246"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="246"/>
+      <c r="AE5" s="246"/>
+      <c r="AF5" s="246"/>
+      <c r="AG5" s="246"/>
+      <c r="AH5" s="246"/>
+      <c r="AI5" s="246"/>
+      <c r="AJ5" s="246"/>
+      <c r="AK5" s="246"/>
+      <c r="AL5" s="246"/>
+      <c r="AM5" s="246"/>
+      <c r="AN5" s="235" t="s">
         <v>149</v>
       </c>
-      <c r="AO5" s="231"/>
-      <c r="AP5" s="231"/>
-      <c r="AQ5" s="231"/>
-      <c r="AR5" s="231"/>
-      <c r="AS5" s="231"/>
-      <c r="AT5" s="231"/>
-      <c r="AU5" s="231"/>
-      <c r="AV5" s="231"/>
-      <c r="AW5" s="231"/>
+      <c r="AO5" s="235"/>
+      <c r="AP5" s="235"/>
+      <c r="AQ5" s="235"/>
+      <c r="AR5" s="235"/>
+      <c r="AS5" s="235"/>
+      <c r="AT5" s="235"/>
+      <c r="AU5" s="235"/>
+      <c r="AV5" s="235"/>
+      <c r="AW5" s="235"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="231"/>
-      <c r="U6" s="231"/>
-      <c r="V6" s="240"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="240"/>
-      <c r="AG6" s="240"/>
-      <c r="AH6" s="240"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="240"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="240"/>
-      <c r="AM6" s="240"/>
-      <c r="AN6" s="231"/>
-      <c r="AO6" s="231"/>
-      <c r="AP6" s="231"/>
-      <c r="AQ6" s="231"/>
-      <c r="AR6" s="231"/>
-      <c r="AS6" s="231"/>
-      <c r="AT6" s="231"/>
-      <c r="AU6" s="231"/>
-      <c r="AV6" s="231"/>
-      <c r="AW6" s="231"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="250"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="251"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="246"/>
+      <c r="W6" s="246"/>
+      <c r="X6" s="246"/>
+      <c r="Y6" s="246"/>
+      <c r="Z6" s="246"/>
+      <c r="AA6" s="246"/>
+      <c r="AB6" s="246"/>
+      <c r="AC6" s="246"/>
+      <c r="AD6" s="246"/>
+      <c r="AE6" s="246"/>
+      <c r="AF6" s="246"/>
+      <c r="AG6" s="246"/>
+      <c r="AH6" s="246"/>
+      <c r="AI6" s="246"/>
+      <c r="AJ6" s="246"/>
+      <c r="AK6" s="246"/>
+      <c r="AL6" s="246"/>
+      <c r="AM6" s="246"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="235"/>
+      <c r="AP6" s="235"/>
+      <c r="AQ6" s="235"/>
+      <c r="AR6" s="235"/>
+      <c r="AS6" s="235"/>
+      <c r="AT6" s="235"/>
+      <c r="AU6" s="235"/>
+      <c r="AV6" s="235"/>
+      <c r="AW6" s="235"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="238"/>
-      <c r="O7" s="238"/>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
-      <c r="U7" s="231"/>
-      <c r="V7" s="240"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="240"/>
-      <c r="Y7" s="240"/>
-      <c r="Z7" s="240"/>
-      <c r="AA7" s="240"/>
-      <c r="AB7" s="240"/>
-      <c r="AC7" s="240"/>
-      <c r="AD7" s="240"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="240"/>
-      <c r="AG7" s="240"/>
-      <c r="AH7" s="240"/>
-      <c r="AI7" s="240"/>
-      <c r="AJ7" s="240"/>
-      <c r="AK7" s="240"/>
-      <c r="AL7" s="240"/>
-      <c r="AM7" s="240"/>
-      <c r="AN7" s="231"/>
-      <c r="AO7" s="231"/>
-      <c r="AP7" s="231"/>
-      <c r="AQ7" s="231"/>
-      <c r="AR7" s="231"/>
-      <c r="AS7" s="231"/>
-      <c r="AT7" s="231"/>
-      <c r="AU7" s="231"/>
-      <c r="AV7" s="231"/>
-      <c r="AW7" s="231"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="250"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="251"/>
+      <c r="R7" s="252"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="246"/>
+      <c r="W7" s="246"/>
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="246"/>
+      <c r="AA7" s="246"/>
+      <c r="AB7" s="246"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="246"/>
+      <c r="AE7" s="246"/>
+      <c r="AF7" s="246"/>
+      <c r="AG7" s="246"/>
+      <c r="AH7" s="246"/>
+      <c r="AI7" s="246"/>
+      <c r="AJ7" s="246"/>
+      <c r="AK7" s="246"/>
+      <c r="AL7" s="246"/>
+      <c r="AM7" s="246"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235"/>
+      <c r="AP7" s="235"/>
+      <c r="AQ7" s="235"/>
+      <c r="AR7" s="235"/>
+      <c r="AS7" s="235"/>
+      <c r="AT7" s="235"/>
+      <c r="AU7" s="235"/>
+      <c r="AV7" s="235"/>
+      <c r="AW7" s="235"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="238"/>
-      <c r="O8" s="238"/>
-      <c r="P8" s="238"/>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="239"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="240"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240"/>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
-      <c r="AD8" s="240"/>
-      <c r="AE8" s="240"/>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="240"/>
-      <c r="AH8" s="240"/>
-      <c r="AI8" s="240"/>
-      <c r="AJ8" s="240"/>
-      <c r="AK8" s="240"/>
-      <c r="AL8" s="240"/>
-      <c r="AM8" s="240"/>
-      <c r="AN8" s="231"/>
-      <c r="AO8" s="231"/>
-      <c r="AP8" s="231"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="231"/>
-      <c r="AS8" s="231"/>
-      <c r="AT8" s="231"/>
-      <c r="AU8" s="231"/>
-      <c r="AV8" s="231"/>
-      <c r="AW8" s="231"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="252"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="235"/>
+      <c r="AO8" s="235"/>
+      <c r="AP8" s="235"/>
+      <c r="AQ8" s="235"/>
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="235"/>
+      <c r="AT8" s="235"/>
+      <c r="AU8" s="235"/>
+      <c r="AV8" s="235"/>
+      <c r="AW8" s="235"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="237"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="238"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="231"/>
-      <c r="T9" s="231"/>
-      <c r="U9" s="231"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="240"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="240"/>
-      <c r="AA9" s="240"/>
-      <c r="AB9" s="240"/>
-      <c r="AC9" s="240"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="240"/>
-      <c r="AF9" s="240"/>
-      <c r="AG9" s="240"/>
-      <c r="AH9" s="240"/>
-      <c r="AI9" s="240"/>
-      <c r="AJ9" s="240"/>
-      <c r="AK9" s="240"/>
-      <c r="AL9" s="240"/>
-      <c r="AM9" s="240"/>
-      <c r="AN9" s="231"/>
-      <c r="AO9" s="231"/>
-      <c r="AP9" s="231"/>
-      <c r="AQ9" s="231"/>
-      <c r="AR9" s="231"/>
-      <c r="AS9" s="231"/>
-      <c r="AT9" s="231"/>
-      <c r="AU9" s="231"/>
-      <c r="AV9" s="231"/>
-      <c r="AW9" s="231"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="250"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="251"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
+      <c r="AI9" s="246"/>
+      <c r="AJ9" s="246"/>
+      <c r="AK9" s="246"/>
+      <c r="AL9" s="246"/>
+      <c r="AM9" s="246"/>
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="235"/>
+      <c r="AP9" s="235"/>
+      <c r="AQ9" s="235"/>
+      <c r="AR9" s="235"/>
+      <c r="AS9" s="235"/>
+      <c r="AT9" s="235"/>
+      <c r="AU9" s="235"/>
+      <c r="AV9" s="235"/>
+      <c r="AW9" s="235"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="238"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="231"/>
-      <c r="T10" s="231"/>
-      <c r="U10" s="231"/>
-      <c r="V10" s="240"/>
-      <c r="W10" s="240"/>
-      <c r="X10" s="240"/>
-      <c r="Y10" s="240"/>
-      <c r="Z10" s="240"/>
-      <c r="AA10" s="240"/>
-      <c r="AB10" s="240"/>
-      <c r="AC10" s="240"/>
-      <c r="AD10" s="240"/>
-      <c r="AE10" s="240"/>
-      <c r="AF10" s="240"/>
-      <c r="AG10" s="240"/>
-      <c r="AH10" s="240"/>
-      <c r="AI10" s="240"/>
-      <c r="AJ10" s="240"/>
-      <c r="AK10" s="240"/>
-      <c r="AL10" s="240"/>
-      <c r="AM10" s="240"/>
-      <c r="AN10" s="231"/>
-      <c r="AO10" s="231"/>
-      <c r="AP10" s="231"/>
-      <c r="AQ10" s="231"/>
-      <c r="AR10" s="231"/>
-      <c r="AS10" s="231"/>
-      <c r="AT10" s="231"/>
-      <c r="AU10" s="231"/>
-      <c r="AV10" s="231"/>
-      <c r="AW10" s="231"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="250"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="235"/>
+      <c r="V10" s="246"/>
+      <c r="W10" s="246"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="246"/>
+      <c r="AE10" s="246"/>
+      <c r="AF10" s="246"/>
+      <c r="AG10" s="246"/>
+      <c r="AH10" s="246"/>
+      <c r="AI10" s="246"/>
+      <c r="AJ10" s="246"/>
+      <c r="AK10" s="246"/>
+      <c r="AL10" s="246"/>
+      <c r="AM10" s="246"/>
+      <c r="AN10" s="235"/>
+      <c r="AO10" s="235"/>
+      <c r="AP10" s="235"/>
+      <c r="AQ10" s="235"/>
+      <c r="AR10" s="235"/>
+      <c r="AS10" s="235"/>
+      <c r="AT10" s="235"/>
+      <c r="AU10" s="235"/>
+      <c r="AV10" s="235"/>
+      <c r="AW10" s="235"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="245"/>
-      <c r="O11" s="245"/>
-      <c r="P11" s="245"/>
-      <c r="Q11" s="245"/>
-      <c r="R11" s="246"/>
-      <c r="S11" s="231"/>
-      <c r="T11" s="231"/>
-      <c r="U11" s="231"/>
-      <c r="V11" s="247"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
-      <c r="AA11" s="253"/>
-      <c r="AB11" s="253"/>
-      <c r="AC11" s="253"/>
-      <c r="AD11" s="253"/>
-      <c r="AE11" s="253"/>
-      <c r="AF11" s="253"/>
-      <c r="AG11" s="253"/>
-      <c r="AH11" s="253"/>
-      <c r="AI11" s="253"/>
-      <c r="AJ11" s="253"/>
-      <c r="AK11" s="253"/>
-      <c r="AL11" s="253"/>
-      <c r="AM11" s="254"/>
-      <c r="AN11" s="231"/>
-      <c r="AO11" s="231"/>
-      <c r="AP11" s="231"/>
-      <c r="AQ11" s="231"/>
-      <c r="AR11" s="231"/>
-      <c r="AS11" s="231"/>
-      <c r="AT11" s="231"/>
-      <c r="AU11" s="231"/>
-      <c r="AV11" s="231"/>
-      <c r="AW11" s="231"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="231"/>
+      <c r="M11" s="242"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="240"/>
+      <c r="P11" s="240"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="236"/>
+      <c r="W11" s="248"/>
+      <c r="X11" s="248"/>
+      <c r="Y11" s="248"/>
+      <c r="Z11" s="248"/>
+      <c r="AA11" s="248"/>
+      <c r="AB11" s="248"/>
+      <c r="AC11" s="248"/>
+      <c r="AD11" s="248"/>
+      <c r="AE11" s="248"/>
+      <c r="AF11" s="248"/>
+      <c r="AG11" s="248"/>
+      <c r="AH11" s="248"/>
+      <c r="AI11" s="248"/>
+      <c r="AJ11" s="248"/>
+      <c r="AK11" s="248"/>
+      <c r="AL11" s="248"/>
+      <c r="AM11" s="249"/>
+      <c r="AN11" s="235"/>
+      <c r="AO11" s="235"/>
+      <c r="AP11" s="235"/>
+      <c r="AQ11" s="235"/>
+      <c r="AR11" s="235"/>
+      <c r="AS11" s="235"/>
+      <c r="AT11" s="235"/>
+      <c r="AU11" s="235"/>
+      <c r="AV11" s="235"/>
+      <c r="AW11" s="235"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="245"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="231"/>
-      <c r="T12" s="231"/>
-      <c r="U12" s="231"/>
-      <c r="V12" s="247"/>
-      <c r="W12" s="248"/>
-      <c r="X12" s="248"/>
-      <c r="Y12" s="248"/>
-      <c r="Z12" s="248"/>
-      <c r="AA12" s="248"/>
-      <c r="AB12" s="248"/>
-      <c r="AC12" s="248"/>
-      <c r="AD12" s="248"/>
-      <c r="AE12" s="248"/>
-      <c r="AF12" s="248"/>
-      <c r="AG12" s="248"/>
-      <c r="AH12" s="248"/>
-      <c r="AI12" s="248"/>
-      <c r="AJ12" s="248"/>
-      <c r="AK12" s="248"/>
-      <c r="AL12" s="248"/>
-      <c r="AM12" s="249"/>
-      <c r="AN12" s="250"/>
-      <c r="AO12" s="251"/>
-      <c r="AP12" s="251"/>
-      <c r="AQ12" s="251"/>
-      <c r="AR12" s="252"/>
-      <c r="AS12" s="250"/>
-      <c r="AT12" s="251"/>
-      <c r="AU12" s="251"/>
-      <c r="AV12" s="251"/>
-      <c r="AW12" s="252"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="231"/>
+      <c r="M12" s="242"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="236"/>
+      <c r="W12" s="237"/>
+      <c r="X12" s="237"/>
+      <c r="Y12" s="237"/>
+      <c r="Z12" s="237"/>
+      <c r="AA12" s="237"/>
+      <c r="AB12" s="237"/>
+      <c r="AC12" s="237"/>
+      <c r="AD12" s="237"/>
+      <c r="AE12" s="237"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="237"/>
+      <c r="AH12" s="237"/>
+      <c r="AI12" s="237"/>
+      <c r="AJ12" s="237"/>
+      <c r="AK12" s="237"/>
+      <c r="AL12" s="237"/>
+      <c r="AM12" s="238"/>
+      <c r="AN12" s="222"/>
+      <c r="AO12" s="223"/>
+      <c r="AP12" s="223"/>
+      <c r="AQ12" s="223"/>
+      <c r="AR12" s="224"/>
+      <c r="AS12" s="222"/>
+      <c r="AT12" s="223"/>
+      <c r="AU12" s="223"/>
+      <c r="AV12" s="223"/>
+      <c r="AW12" s="224"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="231"/>
-      <c r="T13" s="231"/>
-      <c r="U13" s="231"/>
-      <c r="V13" s="247"/>
-      <c r="W13" s="248"/>
-      <c r="X13" s="248"/>
-      <c r="Y13" s="248"/>
-      <c r="Z13" s="248"/>
-      <c r="AA13" s="248"/>
-      <c r="AB13" s="248"/>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="248"/>
-      <c r="AE13" s="248"/>
-      <c r="AF13" s="248"/>
-      <c r="AG13" s="248"/>
-      <c r="AH13" s="248"/>
-      <c r="AI13" s="248"/>
-      <c r="AJ13" s="248"/>
-      <c r="AK13" s="248"/>
-      <c r="AL13" s="248"/>
-      <c r="AM13" s="249"/>
-      <c r="AN13" s="250"/>
-      <c r="AO13" s="251"/>
-      <c r="AP13" s="251"/>
-      <c r="AQ13" s="251"/>
-      <c r="AR13" s="252"/>
-      <c r="AS13" s="250"/>
-      <c r="AT13" s="251"/>
-      <c r="AU13" s="251"/>
-      <c r="AV13" s="251"/>
-      <c r="AW13" s="252"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="229"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="240"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="235"/>
+      <c r="U13" s="235"/>
+      <c r="V13" s="236"/>
+      <c r="W13" s="237"/>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="237"/>
+      <c r="Z13" s="237"/>
+      <c r="AA13" s="237"/>
+      <c r="AB13" s="237"/>
+      <c r="AC13" s="237"/>
+      <c r="AD13" s="237"/>
+      <c r="AE13" s="237"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="237"/>
+      <c r="AH13" s="237"/>
+      <c r="AI13" s="237"/>
+      <c r="AJ13" s="237"/>
+      <c r="AK13" s="237"/>
+      <c r="AL13" s="237"/>
+      <c r="AM13" s="238"/>
+      <c r="AN13" s="222"/>
+      <c r="AO13" s="223"/>
+      <c r="AP13" s="223"/>
+      <c r="AQ13" s="223"/>
+      <c r="AR13" s="224"/>
+      <c r="AS13" s="222"/>
+      <c r="AT13" s="223"/>
+      <c r="AU13" s="223"/>
+      <c r="AV13" s="223"/>
+      <c r="AW13" s="224"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="241"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="233"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="235"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="245"/>
-      <c r="Q14" s="245"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="231"/>
-      <c r="T14" s="231"/>
-      <c r="U14" s="231"/>
-      <c r="V14" s="256"/>
-      <c r="W14" s="240"/>
-      <c r="X14" s="240"/>
-      <c r="Y14" s="240"/>
-      <c r="Z14" s="240"/>
-      <c r="AA14" s="240"/>
-      <c r="AB14" s="240"/>
-      <c r="AC14" s="240"/>
-      <c r="AD14" s="240"/>
-      <c r="AE14" s="240"/>
-      <c r="AF14" s="240"/>
-      <c r="AG14" s="240"/>
-      <c r="AH14" s="240"/>
-      <c r="AI14" s="240"/>
-      <c r="AJ14" s="240"/>
-      <c r="AK14" s="240"/>
-      <c r="AL14" s="240"/>
-      <c r="AM14" s="240"/>
-      <c r="AN14" s="231"/>
-      <c r="AO14" s="231"/>
-      <c r="AP14" s="231"/>
-      <c r="AQ14" s="231"/>
-      <c r="AR14" s="231"/>
-      <c r="AS14" s="250"/>
-      <c r="AT14" s="251"/>
-      <c r="AU14" s="251"/>
-      <c r="AV14" s="251"/>
-      <c r="AW14" s="252"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="229"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="240"/>
+      <c r="O14" s="240"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="235"/>
+      <c r="U14" s="235"/>
+      <c r="V14" s="245"/>
+      <c r="W14" s="246"/>
+      <c r="X14" s="246"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="246"/>
+      <c r="AH14" s="246"/>
+      <c r="AI14" s="246"/>
+      <c r="AJ14" s="246"/>
+      <c r="AK14" s="246"/>
+      <c r="AL14" s="246"/>
+      <c r="AM14" s="246"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235"/>
+      <c r="AP14" s="235"/>
+      <c r="AQ14" s="235"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="222"/>
+      <c r="AT14" s="223"/>
+      <c r="AU14" s="223"/>
+      <c r="AV14" s="223"/>
+      <c r="AW14" s="224"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="235"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="245"/>
-      <c r="R15" s="246"/>
-      <c r="S15" s="231"/>
-      <c r="T15" s="231"/>
-      <c r="U15" s="231"/>
-      <c r="V15" s="247"/>
-      <c r="W15" s="248"/>
-      <c r="X15" s="248"/>
-      <c r="Y15" s="248"/>
-      <c r="Z15" s="248"/>
-      <c r="AA15" s="248"/>
-      <c r="AB15" s="248"/>
-      <c r="AC15" s="248"/>
-      <c r="AD15" s="248"/>
-      <c r="AE15" s="248"/>
-      <c r="AF15" s="248"/>
-      <c r="AG15" s="248"/>
-      <c r="AH15" s="248"/>
-      <c r="AI15" s="248"/>
-      <c r="AJ15" s="248"/>
-      <c r="AK15" s="248"/>
-      <c r="AL15" s="248"/>
-      <c r="AM15" s="249"/>
-      <c r="AN15" s="250"/>
-      <c r="AO15" s="251"/>
-      <c r="AP15" s="251"/>
-      <c r="AQ15" s="251"/>
-      <c r="AR15" s="252"/>
-      <c r="AS15" s="250"/>
-      <c r="AT15" s="251"/>
-      <c r="AU15" s="251"/>
-      <c r="AV15" s="251"/>
-      <c r="AW15" s="252"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="242"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="240"/>
+      <c r="P15" s="240"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="235"/>
+      <c r="U15" s="235"/>
+      <c r="V15" s="236"/>
+      <c r="W15" s="237"/>
+      <c r="X15" s="237"/>
+      <c r="Y15" s="237"/>
+      <c r="Z15" s="237"/>
+      <c r="AA15" s="237"/>
+      <c r="AB15" s="237"/>
+      <c r="AC15" s="237"/>
+      <c r="AD15" s="237"/>
+      <c r="AE15" s="237"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="237"/>
+      <c r="AH15" s="237"/>
+      <c r="AI15" s="237"/>
+      <c r="AJ15" s="237"/>
+      <c r="AK15" s="237"/>
+      <c r="AL15" s="237"/>
+      <c r="AM15" s="238"/>
+      <c r="AN15" s="222"/>
+      <c r="AO15" s="223"/>
+      <c r="AP15" s="223"/>
+      <c r="AQ15" s="223"/>
+      <c r="AR15" s="224"/>
+      <c r="AS15" s="222"/>
+      <c r="AT15" s="223"/>
+      <c r="AU15" s="223"/>
+      <c r="AV15" s="223"/>
+      <c r="AW15" s="224"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="235"/>
-      <c r="L16" s="236"/>
-      <c r="M16" s="244"/>
-      <c r="N16" s="245"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="246"/>
-      <c r="S16" s="231"/>
-      <c r="T16" s="231"/>
-      <c r="U16" s="231"/>
-      <c r="V16" s="247"/>
-      <c r="W16" s="248"/>
-      <c r="X16" s="248"/>
-      <c r="Y16" s="248"/>
-      <c r="Z16" s="248"/>
-      <c r="AA16" s="248"/>
-      <c r="AB16" s="248"/>
-      <c r="AC16" s="248"/>
-      <c r="AD16" s="248"/>
-      <c r="AE16" s="248"/>
-      <c r="AF16" s="248"/>
-      <c r="AG16" s="248"/>
-      <c r="AH16" s="248"/>
-      <c r="AI16" s="248"/>
-      <c r="AJ16" s="248"/>
-      <c r="AK16" s="248"/>
-      <c r="AL16" s="248"/>
-      <c r="AM16" s="249"/>
-      <c r="AN16" s="250"/>
-      <c r="AO16" s="251"/>
-      <c r="AP16" s="251"/>
-      <c r="AQ16" s="251"/>
-      <c r="AR16" s="252"/>
-      <c r="AS16" s="250"/>
-      <c r="AT16" s="251"/>
-      <c r="AU16" s="251"/>
-      <c r="AV16" s="251"/>
-      <c r="AW16" s="252"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="231"/>
+      <c r="M16" s="242"/>
+      <c r="N16" s="240"/>
+      <c r="O16" s="240"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="235"/>
+      <c r="T16" s="235"/>
+      <c r="U16" s="235"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="237"/>
+      <c r="X16" s="237"/>
+      <c r="Y16" s="237"/>
+      <c r="Z16" s="237"/>
+      <c r="AA16" s="237"/>
+      <c r="AB16" s="237"/>
+      <c r="AC16" s="237"/>
+      <c r="AD16" s="237"/>
+      <c r="AE16" s="237"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="237"/>
+      <c r="AH16" s="237"/>
+      <c r="AI16" s="237"/>
+      <c r="AJ16" s="237"/>
+      <c r="AK16" s="237"/>
+      <c r="AL16" s="237"/>
+      <c r="AM16" s="238"/>
+      <c r="AN16" s="222"/>
+      <c r="AO16" s="223"/>
+      <c r="AP16" s="223"/>
+      <c r="AQ16" s="223"/>
+      <c r="AR16" s="224"/>
+      <c r="AS16" s="222"/>
+      <c r="AT16" s="223"/>
+      <c r="AU16" s="223"/>
+      <c r="AV16" s="223"/>
+      <c r="AW16" s="224"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="236"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="245"/>
-      <c r="O17" s="245"/>
-      <c r="P17" s="245"/>
-      <c r="Q17" s="245"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="258"/>
-      <c r="T17" s="258"/>
-      <c r="U17" s="258"/>
-      <c r="V17" s="247"/>
-      <c r="W17" s="248"/>
-      <c r="X17" s="248"/>
-      <c r="Y17" s="248"/>
-      <c r="Z17" s="248"/>
-      <c r="AA17" s="248"/>
-      <c r="AB17" s="248"/>
-      <c r="AC17" s="248"/>
-      <c r="AD17" s="248"/>
-      <c r="AE17" s="248"/>
-      <c r="AF17" s="248"/>
-      <c r="AG17" s="248"/>
-      <c r="AH17" s="248"/>
-      <c r="AI17" s="248"/>
-      <c r="AJ17" s="248"/>
-      <c r="AK17" s="248"/>
-      <c r="AL17" s="248"/>
-      <c r="AM17" s="249"/>
-      <c r="AN17" s="250"/>
-      <c r="AO17" s="251"/>
-      <c r="AP17" s="251"/>
-      <c r="AQ17" s="251"/>
-      <c r="AR17" s="252"/>
-      <c r="AS17" s="250"/>
-      <c r="AT17" s="251"/>
-      <c r="AU17" s="251"/>
-      <c r="AV17" s="251"/>
-      <c r="AW17" s="252"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="243"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="244"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="237"/>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="237"/>
+      <c r="Z17" s="237"/>
+      <c r="AA17" s="237"/>
+      <c r="AB17" s="237"/>
+      <c r="AC17" s="237"/>
+      <c r="AD17" s="237"/>
+      <c r="AE17" s="237"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="237"/>
+      <c r="AH17" s="237"/>
+      <c r="AI17" s="237"/>
+      <c r="AJ17" s="237"/>
+      <c r="AK17" s="237"/>
+      <c r="AL17" s="237"/>
+      <c r="AM17" s="238"/>
+      <c r="AN17" s="222"/>
+      <c r="AO17" s="223"/>
+      <c r="AP17" s="223"/>
+      <c r="AQ17" s="223"/>
+      <c r="AR17" s="224"/>
+      <c r="AS17" s="222"/>
+      <c r="AT17" s="223"/>
+      <c r="AU17" s="223"/>
+      <c r="AV17" s="223"/>
+      <c r="AW17" s="224"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="245"/>
-      <c r="Q18" s="245"/>
-      <c r="R18" s="246"/>
-      <c r="S18" s="231"/>
-      <c r="T18" s="231"/>
-      <c r="U18" s="231"/>
-      <c r="V18" s="247"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="248"/>
-      <c r="Y18" s="248"/>
-      <c r="Z18" s="248"/>
-      <c r="AA18" s="248"/>
-      <c r="AB18" s="248"/>
-      <c r="AC18" s="248"/>
-      <c r="AD18" s="248"/>
-      <c r="AE18" s="248"/>
-      <c r="AF18" s="248"/>
-      <c r="AG18" s="248"/>
-      <c r="AH18" s="248"/>
-      <c r="AI18" s="248"/>
-      <c r="AJ18" s="248"/>
-      <c r="AK18" s="248"/>
-      <c r="AL18" s="248"/>
-      <c r="AM18" s="249"/>
-      <c r="AN18" s="250"/>
-      <c r="AO18" s="251"/>
-      <c r="AP18" s="251"/>
-      <c r="AQ18" s="251"/>
-      <c r="AR18" s="252"/>
-      <c r="AS18" s="250"/>
-      <c r="AT18" s="251"/>
-      <c r="AU18" s="251"/>
-      <c r="AV18" s="251"/>
-      <c r="AW18" s="252"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="240"/>
+      <c r="O18" s="240"/>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="235"/>
+      <c r="U18" s="235"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="237"/>
+      <c r="X18" s="237"/>
+      <c r="Y18" s="237"/>
+      <c r="Z18" s="237"/>
+      <c r="AA18" s="237"/>
+      <c r="AB18" s="237"/>
+      <c r="AC18" s="237"/>
+      <c r="AD18" s="237"/>
+      <c r="AE18" s="237"/>
+      <c r="AF18" s="237"/>
+      <c r="AG18" s="237"/>
+      <c r="AH18" s="237"/>
+      <c r="AI18" s="237"/>
+      <c r="AJ18" s="237"/>
+      <c r="AK18" s="237"/>
+      <c r="AL18" s="237"/>
+      <c r="AM18" s="238"/>
+      <c r="AN18" s="222"/>
+      <c r="AO18" s="223"/>
+      <c r="AP18" s="223"/>
+      <c r="AQ18" s="223"/>
+      <c r="AR18" s="224"/>
+      <c r="AS18" s="222"/>
+      <c r="AT18" s="223"/>
+      <c r="AU18" s="223"/>
+      <c r="AV18" s="223"/>
+      <c r="AW18" s="224"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="235"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="245"/>
-      <c r="O19" s="245"/>
-      <c r="P19" s="245"/>
-      <c r="Q19" s="245"/>
-      <c r="R19" s="246"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="247"/>
-      <c r="W19" s="248"/>
-      <c r="X19" s="248"/>
-      <c r="Y19" s="248"/>
-      <c r="Z19" s="248"/>
-      <c r="AA19" s="248"/>
-      <c r="AB19" s="248"/>
-      <c r="AC19" s="248"/>
-      <c r="AD19" s="248"/>
-      <c r="AE19" s="248"/>
-      <c r="AF19" s="248"/>
-      <c r="AG19" s="248"/>
-      <c r="AH19" s="248"/>
-      <c r="AI19" s="248"/>
-      <c r="AJ19" s="248"/>
-      <c r="AK19" s="248"/>
-      <c r="AL19" s="248"/>
-      <c r="AM19" s="249"/>
-      <c r="AN19" s="231"/>
-      <c r="AO19" s="231"/>
-      <c r="AP19" s="231"/>
-      <c r="AQ19" s="231"/>
-      <c r="AR19" s="231"/>
-      <c r="AS19" s="250"/>
-      <c r="AT19" s="251"/>
-      <c r="AU19" s="251"/>
-      <c r="AV19" s="251"/>
-      <c r="AW19" s="252"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="240"/>
+      <c r="O19" s="240"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="241"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="235"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="237"/>
+      <c r="X19" s="237"/>
+      <c r="Y19" s="237"/>
+      <c r="Z19" s="237"/>
+      <c r="AA19" s="237"/>
+      <c r="AB19" s="237"/>
+      <c r="AC19" s="237"/>
+      <c r="AD19" s="237"/>
+      <c r="AE19" s="237"/>
+      <c r="AF19" s="237"/>
+      <c r="AG19" s="237"/>
+      <c r="AH19" s="237"/>
+      <c r="AI19" s="237"/>
+      <c r="AJ19" s="237"/>
+      <c r="AK19" s="237"/>
+      <c r="AL19" s="237"/>
+      <c r="AM19" s="238"/>
+      <c r="AN19" s="235"/>
+      <c r="AO19" s="235"/>
+      <c r="AP19" s="235"/>
+      <c r="AQ19" s="235"/>
+      <c r="AR19" s="235"/>
+      <c r="AS19" s="222"/>
+      <c r="AT19" s="223"/>
+      <c r="AU19" s="223"/>
+      <c r="AV19" s="223"/>
+      <c r="AW19" s="224"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="241"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="244"/>
-      <c r="N20" s="245"/>
-      <c r="O20" s="245"/>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="250"/>
-      <c r="T20" s="251"/>
-      <c r="U20" s="252"/>
-      <c r="V20" s="247"/>
-      <c r="W20" s="248"/>
-      <c r="X20" s="248"/>
-      <c r="Y20" s="248"/>
-      <c r="Z20" s="248"/>
-      <c r="AA20" s="248"/>
-      <c r="AB20" s="248"/>
-      <c r="AC20" s="248"/>
-      <c r="AD20" s="248"/>
-      <c r="AE20" s="248"/>
-      <c r="AF20" s="248"/>
-      <c r="AG20" s="248"/>
-      <c r="AH20" s="248"/>
-      <c r="AI20" s="248"/>
-      <c r="AJ20" s="248"/>
-      <c r="AK20" s="248"/>
-      <c r="AL20" s="248"/>
-      <c r="AM20" s="249"/>
-      <c r="AN20" s="250"/>
-      <c r="AO20" s="251"/>
-      <c r="AP20" s="251"/>
-      <c r="AQ20" s="251"/>
-      <c r="AR20" s="252"/>
-      <c r="AS20" s="250"/>
-      <c r="AT20" s="251"/>
-      <c r="AU20" s="251"/>
-      <c r="AV20" s="251"/>
-      <c r="AW20" s="252"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="242"/>
+      <c r="N20" s="240"/>
+      <c r="O20" s="240"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="223"/>
+      <c r="U20" s="224"/>
+      <c r="V20" s="236"/>
+      <c r="W20" s="237"/>
+      <c r="X20" s="237"/>
+      <c r="Y20" s="237"/>
+      <c r="Z20" s="237"/>
+      <c r="AA20" s="237"/>
+      <c r="AB20" s="237"/>
+      <c r="AC20" s="237"/>
+      <c r="AD20" s="237"/>
+      <c r="AE20" s="237"/>
+      <c r="AF20" s="237"/>
+      <c r="AG20" s="237"/>
+      <c r="AH20" s="237"/>
+      <c r="AI20" s="237"/>
+      <c r="AJ20" s="237"/>
+      <c r="AK20" s="237"/>
+      <c r="AL20" s="237"/>
+      <c r="AM20" s="238"/>
+      <c r="AN20" s="222"/>
+      <c r="AO20" s="223"/>
+      <c r="AP20" s="223"/>
+      <c r="AQ20" s="223"/>
+      <c r="AR20" s="224"/>
+      <c r="AS20" s="222"/>
+      <c r="AT20" s="223"/>
+      <c r="AU20" s="223"/>
+      <c r="AV20" s="223"/>
+      <c r="AW20" s="224"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="241"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="235"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="245"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="245"/>
-      <c r="Q21" s="245"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="231"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="247"/>
-      <c r="W21" s="248"/>
-      <c r="X21" s="248"/>
-      <c r="Y21" s="248"/>
-      <c r="Z21" s="248"/>
-      <c r="AA21" s="248"/>
-      <c r="AB21" s="248"/>
-      <c r="AC21" s="248"/>
-      <c r="AD21" s="248"/>
-      <c r="AE21" s="248"/>
-      <c r="AF21" s="248"/>
-      <c r="AG21" s="248"/>
-      <c r="AH21" s="248"/>
-      <c r="AI21" s="248"/>
-      <c r="AJ21" s="248"/>
-      <c r="AK21" s="248"/>
-      <c r="AL21" s="248"/>
-      <c r="AM21" s="249"/>
-      <c r="AN21" s="250"/>
-      <c r="AO21" s="251"/>
-      <c r="AP21" s="251"/>
-      <c r="AQ21" s="251"/>
-      <c r="AR21" s="252"/>
-      <c r="AS21" s="250"/>
-      <c r="AT21" s="251"/>
-      <c r="AU21" s="251"/>
-      <c r="AV21" s="251"/>
-      <c r="AW21" s="252"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="242"/>
+      <c r="N21" s="240"/>
+      <c r="O21" s="240"/>
+      <c r="P21" s="240"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="237"/>
+      <c r="X21" s="237"/>
+      <c r="Y21" s="237"/>
+      <c r="Z21" s="237"/>
+      <c r="AA21" s="237"/>
+      <c r="AB21" s="237"/>
+      <c r="AC21" s="237"/>
+      <c r="AD21" s="237"/>
+      <c r="AE21" s="237"/>
+      <c r="AF21" s="237"/>
+      <c r="AG21" s="237"/>
+      <c r="AH21" s="237"/>
+      <c r="AI21" s="237"/>
+      <c r="AJ21" s="237"/>
+      <c r="AK21" s="237"/>
+      <c r="AL21" s="237"/>
+      <c r="AM21" s="238"/>
+      <c r="AN21" s="222"/>
+      <c r="AO21" s="223"/>
+      <c r="AP21" s="223"/>
+      <c r="AQ21" s="223"/>
+      <c r="AR21" s="224"/>
+      <c r="AS21" s="222"/>
+      <c r="AT21" s="223"/>
+      <c r="AU21" s="223"/>
+      <c r="AV21" s="223"/>
+      <c r="AW21" s="224"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="241"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="235"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="244"/>
-      <c r="N22" s="245"/>
-      <c r="O22" s="245"/>
-      <c r="P22" s="245"/>
-      <c r="Q22" s="245"/>
-      <c r="R22" s="246"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="247"/>
-      <c r="W22" s="248"/>
-      <c r="X22" s="248"/>
-      <c r="Y22" s="248"/>
-      <c r="Z22" s="248"/>
-      <c r="AA22" s="248"/>
-      <c r="AB22" s="248"/>
-      <c r="AC22" s="248"/>
-      <c r="AD22" s="248"/>
-      <c r="AE22" s="248"/>
-      <c r="AF22" s="248"/>
-      <c r="AG22" s="248"/>
-      <c r="AH22" s="248"/>
-      <c r="AI22" s="248"/>
-      <c r="AJ22" s="248"/>
-      <c r="AK22" s="248"/>
-      <c r="AL22" s="248"/>
-      <c r="AM22" s="249"/>
-      <c r="AN22" s="250"/>
-      <c r="AO22" s="251"/>
-      <c r="AP22" s="251"/>
-      <c r="AQ22" s="251"/>
-      <c r="AR22" s="252"/>
-      <c r="AS22" s="250"/>
-      <c r="AT22" s="251"/>
-      <c r="AU22" s="251"/>
-      <c r="AV22" s="251"/>
-      <c r="AW22" s="252"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="240"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="236"/>
+      <c r="W22" s="237"/>
+      <c r="X22" s="237"/>
+      <c r="Y22" s="237"/>
+      <c r="Z22" s="237"/>
+      <c r="AA22" s="237"/>
+      <c r="AB22" s="237"/>
+      <c r="AC22" s="237"/>
+      <c r="AD22" s="237"/>
+      <c r="AE22" s="237"/>
+      <c r="AF22" s="237"/>
+      <c r="AG22" s="237"/>
+      <c r="AH22" s="237"/>
+      <c r="AI22" s="237"/>
+      <c r="AJ22" s="237"/>
+      <c r="AK22" s="237"/>
+      <c r="AL22" s="237"/>
+      <c r="AM22" s="238"/>
+      <c r="AN22" s="222"/>
+      <c r="AO22" s="223"/>
+      <c r="AP22" s="223"/>
+      <c r="AQ22" s="223"/>
+      <c r="AR22" s="224"/>
+      <c r="AS22" s="222"/>
+      <c r="AT22" s="223"/>
+      <c r="AU22" s="223"/>
+      <c r="AV22" s="223"/>
+      <c r="AW22" s="224"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="241"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="236"/>
-      <c r="M23" s="244"/>
-      <c r="N23" s="245"/>
-      <c r="O23" s="245"/>
-      <c r="P23" s="245"/>
-      <c r="Q23" s="245"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="231"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="231"/>
-      <c r="V23" s="247"/>
-      <c r="W23" s="248"/>
-      <c r="X23" s="248"/>
-      <c r="Y23" s="248"/>
-      <c r="Z23" s="248"/>
-      <c r="AA23" s="248"/>
-      <c r="AB23" s="248"/>
-      <c r="AC23" s="248"/>
-      <c r="AD23" s="248"/>
-      <c r="AE23" s="248"/>
-      <c r="AF23" s="248"/>
-      <c r="AG23" s="248"/>
-      <c r="AH23" s="248"/>
-      <c r="AI23" s="248"/>
-      <c r="AJ23" s="248"/>
-      <c r="AK23" s="248"/>
-      <c r="AL23" s="248"/>
-      <c r="AM23" s="249"/>
-      <c r="AN23" s="250"/>
-      <c r="AO23" s="251"/>
-      <c r="AP23" s="251"/>
-      <c r="AQ23" s="251"/>
-      <c r="AR23" s="252"/>
-      <c r="AS23" s="250"/>
-      <c r="AT23" s="251"/>
-      <c r="AU23" s="251"/>
-      <c r="AV23" s="251"/>
-      <c r="AW23" s="252"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="240"/>
+      <c r="O23" s="240"/>
+      <c r="P23" s="240"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="237"/>
+      <c r="X23" s="237"/>
+      <c r="Y23" s="237"/>
+      <c r="Z23" s="237"/>
+      <c r="AA23" s="237"/>
+      <c r="AB23" s="237"/>
+      <c r="AC23" s="237"/>
+      <c r="AD23" s="237"/>
+      <c r="AE23" s="237"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="237"/>
+      <c r="AH23" s="237"/>
+      <c r="AI23" s="237"/>
+      <c r="AJ23" s="237"/>
+      <c r="AK23" s="237"/>
+      <c r="AL23" s="237"/>
+      <c r="AM23" s="238"/>
+      <c r="AN23" s="222"/>
+      <c r="AO23" s="223"/>
+      <c r="AP23" s="223"/>
+      <c r="AQ23" s="223"/>
+      <c r="AR23" s="224"/>
+      <c r="AS23" s="222"/>
+      <c r="AT23" s="223"/>
+      <c r="AU23" s="223"/>
+      <c r="AV23" s="223"/>
+      <c r="AW23" s="224"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="235"/>
-      <c r="L24" s="236"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="245"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="231"/>
-      <c r="T24" s="231"/>
-      <c r="U24" s="231"/>
-      <c r="V24" s="247"/>
-      <c r="W24" s="248"/>
-      <c r="X24" s="248"/>
-      <c r="Y24" s="248"/>
-      <c r="Z24" s="248"/>
-      <c r="AA24" s="248"/>
-      <c r="AB24" s="248"/>
-      <c r="AC24" s="248"/>
-      <c r="AD24" s="248"/>
-      <c r="AE24" s="248"/>
-      <c r="AF24" s="248"/>
-      <c r="AG24" s="248"/>
-      <c r="AH24" s="248"/>
-      <c r="AI24" s="248"/>
-      <c r="AJ24" s="248"/>
-      <c r="AK24" s="248"/>
-      <c r="AL24" s="248"/>
-      <c r="AM24" s="249"/>
-      <c r="AN24" s="250"/>
-      <c r="AO24" s="251"/>
-      <c r="AP24" s="251"/>
-      <c r="AQ24" s="251"/>
-      <c r="AR24" s="252"/>
-      <c r="AS24" s="250"/>
-      <c r="AT24" s="251"/>
-      <c r="AU24" s="251"/>
-      <c r="AV24" s="251"/>
-      <c r="AW24" s="252"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="242"/>
+      <c r="N24" s="240"/>
+      <c r="O24" s="240"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="235"/>
+      <c r="V24" s="236"/>
+      <c r="W24" s="237"/>
+      <c r="X24" s="237"/>
+      <c r="Y24" s="237"/>
+      <c r="Z24" s="237"/>
+      <c r="AA24" s="237"/>
+      <c r="AB24" s="237"/>
+      <c r="AC24" s="237"/>
+      <c r="AD24" s="237"/>
+      <c r="AE24" s="237"/>
+      <c r="AF24" s="237"/>
+      <c r="AG24" s="237"/>
+      <c r="AH24" s="237"/>
+      <c r="AI24" s="237"/>
+      <c r="AJ24" s="237"/>
+      <c r="AK24" s="237"/>
+      <c r="AL24" s="237"/>
+      <c r="AM24" s="238"/>
+      <c r="AN24" s="222"/>
+      <c r="AO24" s="223"/>
+      <c r="AP24" s="223"/>
+      <c r="AQ24" s="223"/>
+      <c r="AR24" s="224"/>
+      <c r="AS24" s="222"/>
+      <c r="AT24" s="223"/>
+      <c r="AU24" s="223"/>
+      <c r="AV24" s="223"/>
+      <c r="AW24" s="224"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="234"/>
-      <c r="K25" s="235"/>
-      <c r="L25" s="236"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="245"/>
-      <c r="O25" s="245"/>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="245"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="247"/>
-      <c r="W25" s="248"/>
-      <c r="X25" s="248"/>
-      <c r="Y25" s="248"/>
-      <c r="Z25" s="248"/>
-      <c r="AA25" s="248"/>
-      <c r="AB25" s="248"/>
-      <c r="AC25" s="248"/>
-      <c r="AD25" s="248"/>
-      <c r="AE25" s="248"/>
-      <c r="AF25" s="248"/>
-      <c r="AG25" s="248"/>
-      <c r="AH25" s="248"/>
-      <c r="AI25" s="248"/>
-      <c r="AJ25" s="248"/>
-      <c r="AK25" s="248"/>
-      <c r="AL25" s="248"/>
-      <c r="AM25" s="249"/>
-      <c r="AN25" s="250"/>
-      <c r="AO25" s="251"/>
-      <c r="AP25" s="251"/>
-      <c r="AQ25" s="251"/>
-      <c r="AR25" s="252"/>
-      <c r="AS25" s="250"/>
-      <c r="AT25" s="251"/>
-      <c r="AU25" s="251"/>
-      <c r="AV25" s="251"/>
-      <c r="AW25" s="252"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="240"/>
+      <c r="O25" s="240"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="235"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="237"/>
+      <c r="X25" s="237"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="237"/>
+      <c r="AB25" s="237"/>
+      <c r="AC25" s="237"/>
+      <c r="AD25" s="237"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="237"/>
+      <c r="AH25" s="237"/>
+      <c r="AI25" s="237"/>
+      <c r="AJ25" s="237"/>
+      <c r="AK25" s="237"/>
+      <c r="AL25" s="237"/>
+      <c r="AM25" s="238"/>
+      <c r="AN25" s="222"/>
+      <c r="AO25" s="223"/>
+      <c r="AP25" s="223"/>
+      <c r="AQ25" s="223"/>
+      <c r="AR25" s="224"/>
+      <c r="AS25" s="222"/>
+      <c r="AT25" s="223"/>
+      <c r="AU25" s="223"/>
+      <c r="AV25" s="223"/>
+      <c r="AW25" s="224"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="236"/>
-      <c r="M26" s="255"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="231"/>
-      <c r="T26" s="231"/>
-      <c r="U26" s="231"/>
-      <c r="V26" s="247"/>
-      <c r="W26" s="248"/>
-      <c r="X26" s="248"/>
-      <c r="Y26" s="248"/>
-      <c r="Z26" s="248"/>
-      <c r="AA26" s="248"/>
-      <c r="AB26" s="248"/>
-      <c r="AC26" s="248"/>
-      <c r="AD26" s="248"/>
-      <c r="AE26" s="248"/>
-      <c r="AF26" s="248"/>
-      <c r="AG26" s="248"/>
-      <c r="AH26" s="248"/>
-      <c r="AI26" s="248"/>
-      <c r="AJ26" s="248"/>
-      <c r="AK26" s="248"/>
-      <c r="AL26" s="248"/>
-      <c r="AM26" s="249"/>
-      <c r="AN26" s="250"/>
-      <c r="AO26" s="251"/>
-      <c r="AP26" s="251"/>
-      <c r="AQ26" s="251"/>
-      <c r="AR26" s="252"/>
-      <c r="AS26" s="250"/>
-      <c r="AT26" s="251"/>
-      <c r="AU26" s="251"/>
-      <c r="AV26" s="251"/>
-      <c r="AW26" s="252"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="239"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="240"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="235"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="237"/>
+      <c r="X26" s="237"/>
+      <c r="Y26" s="237"/>
+      <c r="Z26" s="237"/>
+      <c r="AA26" s="237"/>
+      <c r="AB26" s="237"/>
+      <c r="AC26" s="237"/>
+      <c r="AD26" s="237"/>
+      <c r="AE26" s="237"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="237"/>
+      <c r="AH26" s="237"/>
+      <c r="AI26" s="237"/>
+      <c r="AJ26" s="237"/>
+      <c r="AK26" s="237"/>
+      <c r="AL26" s="237"/>
+      <c r="AM26" s="238"/>
+      <c r="AN26" s="222"/>
+      <c r="AO26" s="223"/>
+      <c r="AP26" s="223"/>
+      <c r="AQ26" s="223"/>
+      <c r="AR26" s="224"/>
+      <c r="AS26" s="222"/>
+      <c r="AT26" s="223"/>
+      <c r="AU26" s="223"/>
+      <c r="AV26" s="223"/>
+      <c r="AW26" s="224"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="234"/>
-      <c r="K27" s="235"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="255"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="245"/>
-      <c r="P27" s="245"/>
-      <c r="Q27" s="245"/>
-      <c r="R27" s="246"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
-      <c r="U27" s="231"/>
-      <c r="V27" s="247"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="248"/>
-      <c r="Z27" s="248"/>
-      <c r="AA27" s="248"/>
-      <c r="AB27" s="248"/>
-      <c r="AC27" s="248"/>
-      <c r="AD27" s="248"/>
-      <c r="AE27" s="248"/>
-      <c r="AF27" s="248"/>
-      <c r="AG27" s="248"/>
-      <c r="AH27" s="248"/>
-      <c r="AI27" s="248"/>
-      <c r="AJ27" s="248"/>
-      <c r="AK27" s="248"/>
-      <c r="AL27" s="248"/>
-      <c r="AM27" s="249"/>
-      <c r="AN27" s="250"/>
-      <c r="AO27" s="251"/>
-      <c r="AP27" s="251"/>
-      <c r="AQ27" s="251"/>
-      <c r="AR27" s="252"/>
-      <c r="AS27" s="250"/>
-      <c r="AT27" s="251"/>
-      <c r="AU27" s="251"/>
-      <c r="AV27" s="251"/>
-      <c r="AW27" s="252"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="239"/>
+      <c r="N27" s="240"/>
+      <c r="O27" s="240"/>
+      <c r="P27" s="240"/>
+      <c r="Q27" s="240"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="235"/>
+      <c r="V27" s="236"/>
+      <c r="W27" s="237"/>
+      <c r="X27" s="237"/>
+      <c r="Y27" s="237"/>
+      <c r="Z27" s="237"/>
+      <c r="AA27" s="237"/>
+      <c r="AB27" s="237"/>
+      <c r="AC27" s="237"/>
+      <c r="AD27" s="237"/>
+      <c r="AE27" s="237"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="237"/>
+      <c r="AH27" s="237"/>
+      <c r="AI27" s="237"/>
+      <c r="AJ27" s="237"/>
+      <c r="AK27" s="237"/>
+      <c r="AL27" s="237"/>
+      <c r="AM27" s="238"/>
+      <c r="AN27" s="222"/>
+      <c r="AO27" s="223"/>
+      <c r="AP27" s="223"/>
+      <c r="AQ27" s="223"/>
+      <c r="AR27" s="224"/>
+      <c r="AS27" s="222"/>
+      <c r="AT27" s="223"/>
+      <c r="AU27" s="223"/>
+      <c r="AV27" s="223"/>
+      <c r="AW27" s="224"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="233"/>
-      <c r="I28" s="233"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="235"/>
-      <c r="L28" s="236"/>
-      <c r="M28" s="244"/>
-      <c r="N28" s="245"/>
-      <c r="O28" s="245"/>
-      <c r="P28" s="245"/>
-      <c r="Q28" s="245"/>
-      <c r="R28" s="246"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="247"/>
-      <c r="W28" s="248"/>
-      <c r="X28" s="248"/>
-      <c r="Y28" s="248"/>
-      <c r="Z28" s="248"/>
-      <c r="AA28" s="248"/>
-      <c r="AB28" s="248"/>
-      <c r="AC28" s="248"/>
-      <c r="AD28" s="248"/>
-      <c r="AE28" s="248"/>
-      <c r="AF28" s="248"/>
-      <c r="AG28" s="248"/>
-      <c r="AH28" s="248"/>
-      <c r="AI28" s="248"/>
-      <c r="AJ28" s="248"/>
-      <c r="AK28" s="248"/>
-      <c r="AL28" s="248"/>
-      <c r="AM28" s="249"/>
-      <c r="AN28" s="250"/>
-      <c r="AO28" s="251"/>
-      <c r="AP28" s="251"/>
-      <c r="AQ28" s="251"/>
-      <c r="AR28" s="252"/>
-      <c r="AS28" s="250"/>
-      <c r="AT28" s="251"/>
-      <c r="AU28" s="251"/>
-      <c r="AV28" s="251"/>
-      <c r="AW28" s="252"/>
+      <c r="B28" s="225"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="240"/>
+      <c r="O28" s="240"/>
+      <c r="P28" s="240"/>
+      <c r="Q28" s="240"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="235"/>
+      <c r="T28" s="235"/>
+      <c r="U28" s="235"/>
+      <c r="V28" s="236"/>
+      <c r="W28" s="237"/>
+      <c r="X28" s="237"/>
+      <c r="Y28" s="237"/>
+      <c r="Z28" s="237"/>
+      <c r="AA28" s="237"/>
+      <c r="AB28" s="237"/>
+      <c r="AC28" s="237"/>
+      <c r="AD28" s="237"/>
+      <c r="AE28" s="237"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="237"/>
+      <c r="AH28" s="237"/>
+      <c r="AI28" s="237"/>
+      <c r="AJ28" s="237"/>
+      <c r="AK28" s="237"/>
+      <c r="AL28" s="237"/>
+      <c r="AM28" s="238"/>
+      <c r="AN28" s="222"/>
+      <c r="AO28" s="223"/>
+      <c r="AP28" s="223"/>
+      <c r="AQ28" s="223"/>
+      <c r="AR28" s="224"/>
+      <c r="AS28" s="222"/>
+      <c r="AT28" s="223"/>
+      <c r="AU28" s="223"/>
+      <c r="AV28" s="223"/>
+      <c r="AW28" s="224"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="233"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="235"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="244"/>
-      <c r="N29" s="245"/>
-      <c r="O29" s="245"/>
-      <c r="P29" s="245"/>
-      <c r="Q29" s="245"/>
-      <c r="R29" s="246"/>
-      <c r="S29" s="231"/>
-      <c r="T29" s="231"/>
-      <c r="U29" s="231"/>
-      <c r="V29" s="247"/>
-      <c r="W29" s="248"/>
-      <c r="X29" s="248"/>
-      <c r="Y29" s="248"/>
-      <c r="Z29" s="248"/>
-      <c r="AA29" s="248"/>
-      <c r="AB29" s="248"/>
-      <c r="AC29" s="248"/>
-      <c r="AD29" s="248"/>
-      <c r="AE29" s="248"/>
-      <c r="AF29" s="248"/>
-      <c r="AG29" s="248"/>
-      <c r="AH29" s="248"/>
-      <c r="AI29" s="248"/>
-      <c r="AJ29" s="248"/>
-      <c r="AK29" s="248"/>
-      <c r="AL29" s="248"/>
-      <c r="AM29" s="249"/>
-      <c r="AN29" s="250"/>
-      <c r="AO29" s="251"/>
-      <c r="AP29" s="251"/>
-      <c r="AQ29" s="251"/>
-      <c r="AR29" s="252"/>
-      <c r="AS29" s="250"/>
-      <c r="AT29" s="251"/>
-      <c r="AU29" s="251"/>
-      <c r="AV29" s="251"/>
-      <c r="AW29" s="252"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="242"/>
+      <c r="N29" s="240"/>
+      <c r="O29" s="240"/>
+      <c r="P29" s="240"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="235"/>
+      <c r="T29" s="235"/>
+      <c r="U29" s="235"/>
+      <c r="V29" s="236"/>
+      <c r="W29" s="237"/>
+      <c r="X29" s="237"/>
+      <c r="Y29" s="237"/>
+      <c r="Z29" s="237"/>
+      <c r="AA29" s="237"/>
+      <c r="AB29" s="237"/>
+      <c r="AC29" s="237"/>
+      <c r="AD29" s="237"/>
+      <c r="AE29" s="237"/>
+      <c r="AF29" s="237"/>
+      <c r="AG29" s="237"/>
+      <c r="AH29" s="237"/>
+      <c r="AI29" s="237"/>
+      <c r="AJ29" s="237"/>
+      <c r="AK29" s="237"/>
+      <c r="AL29" s="237"/>
+      <c r="AM29" s="238"/>
+      <c r="AN29" s="222"/>
+      <c r="AO29" s="223"/>
+      <c r="AP29" s="223"/>
+      <c r="AQ29" s="223"/>
+      <c r="AR29" s="224"/>
+      <c r="AS29" s="222"/>
+      <c r="AT29" s="223"/>
+      <c r="AU29" s="223"/>
+      <c r="AV29" s="223"/>
+      <c r="AW29" s="224"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="233"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="236"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="245"/>
-      <c r="O30" s="245"/>
-      <c r="P30" s="245"/>
-      <c r="Q30" s="245"/>
-      <c r="R30" s="246"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="247"/>
-      <c r="W30" s="248"/>
-      <c r="X30" s="248"/>
-      <c r="Y30" s="248"/>
-      <c r="Z30" s="248"/>
-      <c r="AA30" s="248"/>
-      <c r="AB30" s="248"/>
-      <c r="AC30" s="248"/>
-      <c r="AD30" s="248"/>
-      <c r="AE30" s="248"/>
-      <c r="AF30" s="248"/>
-      <c r="AG30" s="248"/>
-      <c r="AH30" s="248"/>
-      <c r="AI30" s="248"/>
-      <c r="AJ30" s="248"/>
-      <c r="AK30" s="248"/>
-      <c r="AL30" s="248"/>
-      <c r="AM30" s="249"/>
-      <c r="AN30" s="250"/>
-      <c r="AO30" s="251"/>
-      <c r="AP30" s="251"/>
-      <c r="AQ30" s="251"/>
-      <c r="AR30" s="252"/>
-      <c r="AS30" s="250"/>
-      <c r="AT30" s="251"/>
-      <c r="AU30" s="251"/>
-      <c r="AV30" s="251"/>
-      <c r="AW30" s="252"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="239"/>
+      <c r="N30" s="240"/>
+      <c r="O30" s="240"/>
+      <c r="P30" s="240"/>
+      <c r="Q30" s="240"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="236"/>
+      <c r="W30" s="237"/>
+      <c r="X30" s="237"/>
+      <c r="Y30" s="237"/>
+      <c r="Z30" s="237"/>
+      <c r="AA30" s="237"/>
+      <c r="AB30" s="237"/>
+      <c r="AC30" s="237"/>
+      <c r="AD30" s="237"/>
+      <c r="AE30" s="237"/>
+      <c r="AF30" s="237"/>
+      <c r="AG30" s="237"/>
+      <c r="AH30" s="237"/>
+      <c r="AI30" s="237"/>
+      <c r="AJ30" s="237"/>
+      <c r="AK30" s="237"/>
+      <c r="AL30" s="237"/>
+      <c r="AM30" s="238"/>
+      <c r="AN30" s="222"/>
+      <c r="AO30" s="223"/>
+      <c r="AP30" s="223"/>
+      <c r="AQ30" s="223"/>
+      <c r="AR30" s="224"/>
+      <c r="AS30" s="222"/>
+      <c r="AT30" s="223"/>
+      <c r="AU30" s="223"/>
+      <c r="AV30" s="223"/>
+      <c r="AW30" s="224"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="233"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="234"/>
-      <c r="K31" s="235"/>
-      <c r="L31" s="236"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="245"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="245"/>
-      <c r="Q31" s="245"/>
-      <c r="R31" s="246"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="247"/>
-      <c r="W31" s="248"/>
-      <c r="X31" s="248"/>
-      <c r="Y31" s="248"/>
-      <c r="Z31" s="248"/>
-      <c r="AA31" s="248"/>
-      <c r="AB31" s="248"/>
-      <c r="AC31" s="248"/>
-      <c r="AD31" s="248"/>
-      <c r="AE31" s="248"/>
-      <c r="AF31" s="248"/>
-      <c r="AG31" s="248"/>
-      <c r="AH31" s="248"/>
-      <c r="AI31" s="248"/>
-      <c r="AJ31" s="248"/>
-      <c r="AK31" s="248"/>
-      <c r="AL31" s="248"/>
-      <c r="AM31" s="249"/>
-      <c r="AN31" s="250"/>
-      <c r="AO31" s="251"/>
-      <c r="AP31" s="251"/>
-      <c r="AQ31" s="251"/>
-      <c r="AR31" s="252"/>
-      <c r="AS31" s="250"/>
-      <c r="AT31" s="251"/>
-      <c r="AU31" s="251"/>
-      <c r="AV31" s="251"/>
-      <c r="AW31" s="252"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="239"/>
+      <c r="N31" s="240"/>
+      <c r="O31" s="240"/>
+      <c r="P31" s="240"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="235"/>
+      <c r="V31" s="236"/>
+      <c r="W31" s="237"/>
+      <c r="X31" s="237"/>
+      <c r="Y31" s="237"/>
+      <c r="Z31" s="237"/>
+      <c r="AA31" s="237"/>
+      <c r="AB31" s="237"/>
+      <c r="AC31" s="237"/>
+      <c r="AD31" s="237"/>
+      <c r="AE31" s="237"/>
+      <c r="AF31" s="237"/>
+      <c r="AG31" s="237"/>
+      <c r="AH31" s="237"/>
+      <c r="AI31" s="237"/>
+      <c r="AJ31" s="237"/>
+      <c r="AK31" s="237"/>
+      <c r="AL31" s="237"/>
+      <c r="AM31" s="238"/>
+      <c r="AN31" s="222"/>
+      <c r="AO31" s="223"/>
+      <c r="AP31" s="223"/>
+      <c r="AQ31" s="223"/>
+      <c r="AR31" s="224"/>
+      <c r="AS31" s="222"/>
+      <c r="AT31" s="223"/>
+      <c r="AU31" s="223"/>
+      <c r="AV31" s="223"/>
+      <c r="AW31" s="224"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="234"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="255"/>
-      <c r="N32" s="245"/>
-      <c r="O32" s="245"/>
-      <c r="P32" s="245"/>
-      <c r="Q32" s="245"/>
-      <c r="R32" s="246"/>
-      <c r="S32" s="231"/>
-      <c r="T32" s="231"/>
-      <c r="U32" s="231"/>
-      <c r="V32" s="247"/>
-      <c r="W32" s="248"/>
-      <c r="X32" s="248"/>
-      <c r="Y32" s="248"/>
-      <c r="Z32" s="248"/>
-      <c r="AA32" s="248"/>
-      <c r="AB32" s="248"/>
-      <c r="AC32" s="248"/>
-      <c r="AD32" s="248"/>
-      <c r="AE32" s="248"/>
-      <c r="AF32" s="248"/>
-      <c r="AG32" s="248"/>
-      <c r="AH32" s="248"/>
-      <c r="AI32" s="248"/>
-      <c r="AJ32" s="248"/>
-      <c r="AK32" s="248"/>
-      <c r="AL32" s="248"/>
-      <c r="AM32" s="249"/>
-      <c r="AN32" s="250"/>
-      <c r="AO32" s="251"/>
-      <c r="AP32" s="251"/>
-      <c r="AQ32" s="251"/>
-      <c r="AR32" s="252"/>
-      <c r="AS32" s="250"/>
-      <c r="AT32" s="251"/>
-      <c r="AU32" s="251"/>
-      <c r="AV32" s="251"/>
-      <c r="AW32" s="252"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="240"/>
+      <c r="O32" s="240"/>
+      <c r="P32" s="240"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="236"/>
+      <c r="W32" s="237"/>
+      <c r="X32" s="237"/>
+      <c r="Y32" s="237"/>
+      <c r="Z32" s="237"/>
+      <c r="AA32" s="237"/>
+      <c r="AB32" s="237"/>
+      <c r="AC32" s="237"/>
+      <c r="AD32" s="237"/>
+      <c r="AE32" s="237"/>
+      <c r="AF32" s="237"/>
+      <c r="AG32" s="237"/>
+      <c r="AH32" s="237"/>
+      <c r="AI32" s="237"/>
+      <c r="AJ32" s="237"/>
+      <c r="AK32" s="237"/>
+      <c r="AL32" s="237"/>
+      <c r="AM32" s="238"/>
+      <c r="AN32" s="222"/>
+      <c r="AO32" s="223"/>
+      <c r="AP32" s="223"/>
+      <c r="AQ32" s="223"/>
+      <c r="AR32" s="224"/>
+      <c r="AS32" s="222"/>
+      <c r="AT32" s="223"/>
+      <c r="AU32" s="223"/>
+      <c r="AV32" s="223"/>
+      <c r="AW32" s="224"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="255"/>
-      <c r="N33" s="245"/>
-      <c r="O33" s="245"/>
-      <c r="P33" s="245"/>
-      <c r="Q33" s="245"/>
-      <c r="R33" s="246"/>
-      <c r="S33" s="231"/>
-      <c r="T33" s="231"/>
-      <c r="U33" s="231"/>
-      <c r="V33" s="247"/>
-      <c r="W33" s="248"/>
-      <c r="X33" s="248"/>
-      <c r="Y33" s="248"/>
-      <c r="Z33" s="248"/>
-      <c r="AA33" s="248"/>
-      <c r="AB33" s="248"/>
-      <c r="AC33" s="248"/>
-      <c r="AD33" s="248"/>
-      <c r="AE33" s="248"/>
-      <c r="AF33" s="248"/>
-      <c r="AG33" s="248"/>
-      <c r="AH33" s="248"/>
-      <c r="AI33" s="248"/>
-      <c r="AJ33" s="248"/>
-      <c r="AK33" s="248"/>
-      <c r="AL33" s="248"/>
-      <c r="AM33" s="249"/>
-      <c r="AN33" s="250"/>
-      <c r="AO33" s="251"/>
-      <c r="AP33" s="251"/>
-      <c r="AQ33" s="251"/>
-      <c r="AR33" s="252"/>
-      <c r="AS33" s="250"/>
-      <c r="AT33" s="251"/>
-      <c r="AU33" s="251"/>
-      <c r="AV33" s="251"/>
-      <c r="AW33" s="252"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="230"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="240"/>
+      <c r="O33" s="240"/>
+      <c r="P33" s="240"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="237"/>
+      <c r="Y33" s="237"/>
+      <c r="Z33" s="237"/>
+      <c r="AA33" s="237"/>
+      <c r="AB33" s="237"/>
+      <c r="AC33" s="237"/>
+      <c r="AD33" s="237"/>
+      <c r="AE33" s="237"/>
+      <c r="AF33" s="237"/>
+      <c r="AG33" s="237"/>
+      <c r="AH33" s="237"/>
+      <c r="AI33" s="237"/>
+      <c r="AJ33" s="237"/>
+      <c r="AK33" s="237"/>
+      <c r="AL33" s="237"/>
+      <c r="AM33" s="238"/>
+      <c r="AN33" s="222"/>
+      <c r="AO33" s="223"/>
+      <c r="AP33" s="223"/>
+      <c r="AQ33" s="223"/>
+      <c r="AR33" s="224"/>
+      <c r="AS33" s="222"/>
+      <c r="AT33" s="223"/>
+      <c r="AU33" s="223"/>
+      <c r="AV33" s="223"/>
+      <c r="AW33" s="224"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="233"/>
-      <c r="G34" s="233"/>
-      <c r="H34" s="233"/>
-      <c r="I34" s="233"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="235"/>
-      <c r="L34" s="236"/>
-      <c r="M34" s="259"/>
-      <c r="N34" s="260"/>
-      <c r="O34" s="260"/>
-      <c r="P34" s="260"/>
-      <c r="Q34" s="260"/>
-      <c r="R34" s="261"/>
-      <c r="S34" s="231"/>
-      <c r="T34" s="231"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="247"/>
-      <c r="W34" s="248"/>
-      <c r="X34" s="248"/>
-      <c r="Y34" s="248"/>
-      <c r="Z34" s="248"/>
-      <c r="AA34" s="248"/>
-      <c r="AB34" s="248"/>
-      <c r="AC34" s="248"/>
-      <c r="AD34" s="248"/>
-      <c r="AE34" s="248"/>
-      <c r="AF34" s="248"/>
-      <c r="AG34" s="248"/>
-      <c r="AH34" s="248"/>
-      <c r="AI34" s="248"/>
-      <c r="AJ34" s="248"/>
-      <c r="AK34" s="248"/>
-      <c r="AL34" s="248"/>
-      <c r="AM34" s="249"/>
-      <c r="AN34" s="250"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="251"/>
-      <c r="AQ34" s="251"/>
-      <c r="AR34" s="252"/>
-      <c r="AS34" s="250"/>
-      <c r="AT34" s="251"/>
-      <c r="AU34" s="251"/>
-      <c r="AV34" s="251"/>
-      <c r="AW34" s="252"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="229"/>
+      <c r="K34" s="230"/>
+      <c r="L34" s="231"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="233"/>
+      <c r="O34" s="233"/>
+      <c r="P34" s="233"/>
+      <c r="Q34" s="233"/>
+      <c r="R34" s="234"/>
+      <c r="S34" s="235"/>
+      <c r="T34" s="235"/>
+      <c r="U34" s="235"/>
+      <c r="V34" s="236"/>
+      <c r="W34" s="237"/>
+      <c r="X34" s="237"/>
+      <c r="Y34" s="237"/>
+      <c r="Z34" s="237"/>
+      <c r="AA34" s="237"/>
+      <c r="AB34" s="237"/>
+      <c r="AC34" s="237"/>
+      <c r="AD34" s="237"/>
+      <c r="AE34" s="237"/>
+      <c r="AF34" s="237"/>
+      <c r="AG34" s="237"/>
+      <c r="AH34" s="237"/>
+      <c r="AI34" s="237"/>
+      <c r="AJ34" s="237"/>
+      <c r="AK34" s="237"/>
+      <c r="AL34" s="237"/>
+      <c r="AM34" s="238"/>
+      <c r="AN34" s="222"/>
+      <c r="AO34" s="223"/>
+      <c r="AP34" s="223"/>
+      <c r="AQ34" s="223"/>
+      <c r="AR34" s="224"/>
+      <c r="AS34" s="222"/>
+      <c r="AT34" s="223"/>
+      <c r="AU34" s="223"/>
+      <c r="AV34" s="223"/>
+      <c r="AW34" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8900,239 +9133,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9292,11 +9292,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="262"/>
-      <c r="AP2" s="263"/>
-      <c r="AQ2" s="263"/>
-      <c r="AR2" s="263"/>
-      <c r="AS2" s="264"/>
+      <c r="AO2" s="266"/>
+      <c r="AP2" s="267"/>
+      <c r="AQ2" s="267"/>
+      <c r="AR2" s="267"/>
+      <c r="AS2" s="268"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9305,14 +9305,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="265"/>
-      <c r="BA2" s="266"/>
-      <c r="BB2" s="266"/>
-      <c r="BC2" s="266"/>
-      <c r="BD2" s="266"/>
-      <c r="BE2" s="266"/>
-      <c r="BF2" s="266"/>
-      <c r="BG2" s="267"/>
+      <c r="AZ2" s="269"/>
+      <c r="BA2" s="270"/>
+      <c r="BB2" s="270"/>
+      <c r="BC2" s="270"/>
+      <c r="BD2" s="270"/>
+      <c r="BE2" s="270"/>
+      <c r="BF2" s="270"/>
+      <c r="BG2" s="271"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11061,10 +11061,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="268" t="s">
+      <c r="B50" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="269"/>
+      <c r="C50" s="273"/>
       <c r="D50" s="73" t="s">
         <v>84</v>
       </c>
@@ -11147,10 +11147,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="272">
+      <c r="B51" s="262">
         <v>1</v>
       </c>
-      <c r="C51" s="273"/>
+      <c r="C51" s="263"/>
       <c r="D51" s="185" t="s">
         <v>99</v>
       </c>
@@ -11182,16 +11182,16 @@
       <c r="AB51" s="186"/>
       <c r="AC51" s="186"/>
       <c r="AD51" s="187"/>
-      <c r="AE51" s="270" t="s">
+      <c r="AE51" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF51" s="271"/>
-      <c r="AG51" s="270"/>
-      <c r="AH51" s="271"/>
-      <c r="AI51" s="270"/>
-      <c r="AJ51" s="271"/>
-      <c r="AK51" s="270"/>
-      <c r="AL51" s="271"/>
+      <c r="AF51" s="265"/>
+      <c r="AG51" s="264"/>
+      <c r="AH51" s="265"/>
+      <c r="AI51" s="264"/>
+      <c r="AJ51" s="265"/>
+      <c r="AK51" s="264"/>
+      <c r="AL51" s="265"/>
       <c r="AM51" s="188" t="s">
         <v>102</v>
       </c>
@@ -11225,10 +11225,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="272">
+      <c r="B52" s="262">
         <v>2</v>
       </c>
-      <c r="C52" s="273"/>
+      <c r="C52" s="263"/>
       <c r="D52" s="185" t="s">
         <v>99</v>
       </c>
@@ -11260,16 +11260,16 @@
       <c r="AB52" s="186"/>
       <c r="AC52" s="186"/>
       <c r="AD52" s="187"/>
-      <c r="AE52" s="270" t="s">
+      <c r="AE52" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF52" s="271"/>
-      <c r="AG52" s="270"/>
-      <c r="AH52" s="271"/>
-      <c r="AI52" s="270"/>
-      <c r="AJ52" s="271"/>
-      <c r="AK52" s="270"/>
-      <c r="AL52" s="271"/>
+      <c r="AF52" s="265"/>
+      <c r="AG52" s="264"/>
+      <c r="AH52" s="265"/>
+      <c r="AI52" s="264"/>
+      <c r="AJ52" s="265"/>
+      <c r="AK52" s="264"/>
+      <c r="AL52" s="265"/>
       <c r="AM52" s="188" t="s">
         <v>114</v>
       </c>
@@ -11303,10 +11303,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="272">
+      <c r="B53" s="262">
         <v>3</v>
       </c>
-      <c r="C53" s="273"/>
+      <c r="C53" s="263"/>
       <c r="D53" s="185" t="s">
         <v>99</v>
       </c>
@@ -11338,16 +11338,16 @@
       <c r="AB53" s="186"/>
       <c r="AC53" s="186"/>
       <c r="AD53" s="187"/>
-      <c r="AE53" s="270" t="s">
+      <c r="AE53" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF53" s="271"/>
-      <c r="AG53" s="270"/>
-      <c r="AH53" s="271"/>
-      <c r="AI53" s="270"/>
-      <c r="AJ53" s="271"/>
-      <c r="AK53" s="270"/>
-      <c r="AL53" s="271"/>
+      <c r="AF53" s="265"/>
+      <c r="AG53" s="264"/>
+      <c r="AH53" s="265"/>
+      <c r="AI53" s="264"/>
+      <c r="AJ53" s="265"/>
+      <c r="AK53" s="264"/>
+      <c r="AL53" s="265"/>
       <c r="AM53" s="188" t="s">
         <v>103</v>
       </c>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="272">
+      <c r="B54" s="262">
         <v>4</v>
       </c>
-      <c r="C54" s="273"/>
+      <c r="C54" s="263"/>
       <c r="D54" s="185" t="s">
         <v>99</v>
       </c>
@@ -11416,16 +11416,16 @@
       <c r="AB54" s="186"/>
       <c r="AC54" s="186"/>
       <c r="AD54" s="187"/>
-      <c r="AE54" s="270" t="s">
+      <c r="AE54" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF54" s="271"/>
-      <c r="AG54" s="270"/>
-      <c r="AH54" s="271"/>
-      <c r="AI54" s="270"/>
-      <c r="AJ54" s="271"/>
-      <c r="AK54" s="270"/>
-      <c r="AL54" s="271"/>
+      <c r="AF54" s="265"/>
+      <c r="AG54" s="264"/>
+      <c r="AH54" s="265"/>
+      <c r="AI54" s="264"/>
+      <c r="AJ54" s="265"/>
+      <c r="AK54" s="264"/>
+      <c r="AL54" s="265"/>
       <c r="AM54" s="188" t="s">
         <v>104</v>
       </c>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="272">
+      <c r="B55" s="262">
         <v>5</v>
       </c>
-      <c r="C55" s="273"/>
+      <c r="C55" s="263"/>
       <c r="D55" s="185" t="s">
         <v>99</v>
       </c>
@@ -11494,16 +11494,16 @@
       <c r="AB55" s="186"/>
       <c r="AC55" s="186"/>
       <c r="AD55" s="187"/>
-      <c r="AE55" s="270" t="s">
+      <c r="AE55" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF55" s="271"/>
-      <c r="AG55" s="270"/>
-      <c r="AH55" s="271"/>
-      <c r="AI55" s="270"/>
-      <c r="AJ55" s="271"/>
-      <c r="AK55" s="270"/>
-      <c r="AL55" s="271"/>
+      <c r="AF55" s="265"/>
+      <c r="AG55" s="264"/>
+      <c r="AH55" s="265"/>
+      <c r="AI55" s="264"/>
+      <c r="AJ55" s="265"/>
+      <c r="AK55" s="264"/>
+      <c r="AL55" s="265"/>
       <c r="AM55" s="188" t="s">
         <v>323</v>
       </c>
@@ -11537,10 +11537,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="272">
+      <c r="B56" s="262">
         <v>6</v>
       </c>
-      <c r="C56" s="273"/>
+      <c r="C56" s="263"/>
       <c r="D56" s="185" t="s">
         <v>99</v>
       </c>
@@ -11572,16 +11572,16 @@
       <c r="AB56" s="186"/>
       <c r="AC56" s="186"/>
       <c r="AD56" s="187"/>
-      <c r="AE56" s="270" t="s">
+      <c r="AE56" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF56" s="271"/>
-      <c r="AG56" s="270"/>
-      <c r="AH56" s="271"/>
-      <c r="AI56" s="270"/>
-      <c r="AJ56" s="271"/>
-      <c r="AK56" s="270"/>
-      <c r="AL56" s="271"/>
+      <c r="AF56" s="265"/>
+      <c r="AG56" s="264"/>
+      <c r="AH56" s="265"/>
+      <c r="AI56" s="264"/>
+      <c r="AJ56" s="265"/>
+      <c r="AK56" s="264"/>
+      <c r="AL56" s="265"/>
       <c r="AM56" s="188" t="s">
         <v>451</v>
       </c>
@@ -11615,10 +11615,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="272">
+      <c r="B57" s="262">
         <v>7</v>
       </c>
-      <c r="C57" s="273"/>
+      <c r="C57" s="263"/>
       <c r="D57" s="185" t="s">
         <v>100</v>
       </c>
@@ -11650,16 +11650,16 @@
       <c r="AB57" s="186"/>
       <c r="AC57" s="186"/>
       <c r="AD57" s="187"/>
-      <c r="AE57" s="270" t="s">
+      <c r="AE57" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF57" s="271"/>
-      <c r="AG57" s="270"/>
-      <c r="AH57" s="271"/>
-      <c r="AI57" s="270"/>
-      <c r="AJ57" s="271"/>
-      <c r="AK57" s="270"/>
-      <c r="AL57" s="271"/>
+      <c r="AF57" s="265"/>
+      <c r="AG57" s="264"/>
+      <c r="AH57" s="265"/>
+      <c r="AI57" s="264"/>
+      <c r="AJ57" s="265"/>
+      <c r="AK57" s="264"/>
+      <c r="AL57" s="265"/>
       <c r="AM57" s="188" t="s">
         <v>442</v>
       </c>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="272">
+      <c r="B58" s="262">
         <v>8</v>
       </c>
-      <c r="C58" s="273"/>
+      <c r="C58" s="263"/>
       <c r="D58" s="185" t="s">
         <v>100</v>
       </c>
@@ -11728,16 +11728,16 @@
       <c r="AB58" s="186"/>
       <c r="AC58" s="186"/>
       <c r="AD58" s="187"/>
-      <c r="AE58" s="270" t="s">
+      <c r="AE58" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF58" s="271"/>
-      <c r="AG58" s="270"/>
-      <c r="AH58" s="271"/>
-      <c r="AI58" s="270"/>
-      <c r="AJ58" s="271"/>
-      <c r="AK58" s="270"/>
-      <c r="AL58" s="271"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="264"/>
+      <c r="AH58" s="265"/>
+      <c r="AI58" s="264"/>
+      <c r="AJ58" s="265"/>
+      <c r="AK58" s="264"/>
+      <c r="AL58" s="265"/>
       <c r="AM58" s="188" t="s">
         <v>443</v>
       </c>
@@ -11771,10 +11771,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="272">
+      <c r="B59" s="262">
         <v>9</v>
       </c>
-      <c r="C59" s="273"/>
+      <c r="C59" s="263"/>
       <c r="D59" s="185" t="s">
         <v>100</v>
       </c>
@@ -11806,16 +11806,16 @@
       <c r="AB59" s="186"/>
       <c r="AC59" s="186"/>
       <c r="AD59" s="187"/>
-      <c r="AE59" s="270" t="s">
+      <c r="AE59" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF59" s="271"/>
-      <c r="AG59" s="270"/>
-      <c r="AH59" s="271"/>
-      <c r="AI59" s="270"/>
-      <c r="AJ59" s="271"/>
-      <c r="AK59" s="270"/>
-      <c r="AL59" s="271"/>
+      <c r="AF59" s="265"/>
+      <c r="AG59" s="264"/>
+      <c r="AH59" s="265"/>
+      <c r="AI59" s="264"/>
+      <c r="AJ59" s="265"/>
+      <c r="AK59" s="264"/>
+      <c r="AL59" s="265"/>
       <c r="AM59" s="188" t="s">
         <v>445</v>
       </c>
@@ -11849,10 +11849,10 @@
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
-      <c r="B60" s="272">
+      <c r="B60" s="262">
         <v>10</v>
       </c>
-      <c r="C60" s="273"/>
+      <c r="C60" s="263"/>
       <c r="D60" s="185" t="s">
         <v>100</v>
       </c>
@@ -11884,16 +11884,16 @@
       <c r="AB60" s="186"/>
       <c r="AC60" s="186"/>
       <c r="AD60" s="187"/>
-      <c r="AE60" s="270" t="s">
+      <c r="AE60" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AF60" s="271"/>
-      <c r="AG60" s="270"/>
-      <c r="AH60" s="271"/>
-      <c r="AI60" s="270"/>
-      <c r="AJ60" s="271"/>
-      <c r="AK60" s="270"/>
-      <c r="AL60" s="271"/>
+      <c r="AF60" s="265"/>
+      <c r="AG60" s="264"/>
+      <c r="AH60" s="265"/>
+      <c r="AI60" s="264"/>
+      <c r="AJ60" s="265"/>
+      <c r="AK60" s="264"/>
+      <c r="AL60" s="265"/>
       <c r="AM60" s="188" t="s">
         <v>447</v>
       </c>
@@ -11932,46 +11932,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11985,6 +11945,46 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -12130,7 +12130,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="265" t="str">
+      <c r="CU1" s="269" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12261,7 +12261,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="265"/>
+      <c r="CU2" s="269"/>
       <c r="CV2" s="274"/>
       <c r="CW2" s="274"/>
       <c r="CX2" s="274"/>
@@ -12478,22 +12478,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="255" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="283" t="s">
@@ -12502,13 +12502,13 @@
       <c r="J6" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="224" t="s">
+      <c r="K6" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="224" t="s">
+      <c r="L6" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="224" t="s">
+      <c r="M6" s="255" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -12523,17 +12523,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
       <c r="I7" s="283"/>
       <c r="J7" s="283"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="255"/>
       <c r="N7" s="43" t="s">
         <v>68</v>
       </c>
@@ -12744,22 +12744,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="224" t="s">
+      <c r="F14" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="224" t="s">
+      <c r="G14" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="224" t="s">
+      <c r="H14" s="255" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="284" t="s">
@@ -12768,13 +12768,13 @@
       <c r="J14" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="224" t="s">
+      <c r="K14" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="224" t="s">
+      <c r="L14" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="224" t="s">
+      <c r="M14" s="255" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="68" t="s">
@@ -12789,17 +12789,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="255"/>
       <c r="I15" s="285"/>
       <c r="J15" s="283"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
+      <c r="K15" s="255"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="255"/>
       <c r="N15" s="43" t="s">
         <v>68</v>
       </c>
@@ -12922,22 +12922,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="96"/>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="224" t="s">
+      <c r="D21" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="224" t="s">
+      <c r="E21" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="224" t="s">
+      <c r="F21" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="224" t="s">
+      <c r="G21" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="224" t="s">
+      <c r="H21" s="255" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="283" t="s">
@@ -12946,13 +12946,13 @@
       <c r="J21" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="224" t="s">
+      <c r="K21" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="224" t="s">
+      <c r="L21" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="224" t="s">
+      <c r="M21" s="255" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -12966,17 +12966,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="96"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
       <c r="I22" s="283"/>
       <c r="J22" s="283"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="255"/>
       <c r="N22" s="94" t="s">
         <v>68</v>
       </c>
@@ -13964,22 +13964,22 @@
     </row>
     <row r="46" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="96"/>
-      <c r="C46" s="224" t="s">
+      <c r="C46" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="224" t="s">
+      <c r="D46" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="224" t="s">
+      <c r="E46" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="224" t="s">
+      <c r="F46" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="224" t="s">
+      <c r="G46" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="224" t="s">
+      <c r="H46" s="255" t="s">
         <v>29</v>
       </c>
       <c r="I46" s="283" t="s">
@@ -13988,13 +13988,13 @@
       <c r="J46" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="224" t="s">
+      <c r="K46" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="224" t="s">
+      <c r="L46" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="224" t="s">
+      <c r="M46" s="255" t="s">
         <v>33</v>
       </c>
       <c r="N46" s="68" t="s">
@@ -14008,17 +14008,17 @@
     </row>
     <row r="47" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="96"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="224"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="224"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="255"/>
+      <c r="H47" s="255"/>
       <c r="I47" s="283"/>
       <c r="J47" s="283"/>
-      <c r="K47" s="224"/>
-      <c r="L47" s="224"/>
-      <c r="M47" s="224"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="255"/>
+      <c r="M47" s="255"/>
       <c r="N47" s="157" t="s">
         <v>68</v>
       </c>
@@ -14172,28 +14172,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -14202,24 +14198,28 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14291,7 +14291,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="262">
+      <c r="AI1" s="266">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -14307,7 +14307,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="265" t="str">
+      <c r="AT1" s="269" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -14378,7 +14378,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="265"/>
+      <c r="AT2" s="269"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -14910,7 +14910,7 @@
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="K20" s="71"/>
-      <c r="N20" s="17" t="s">
+      <c r="O20" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA20" s="17" t="s">
@@ -14927,7 +14927,7 @@
       <c r="F21" s="71"/>
       <c r="G21" s="70"/>
       <c r="K21" s="71"/>
-      <c r="N21" s="17" t="s">
+      <c r="O21" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA21" s="17" t="s">
@@ -14955,7 +14955,7 @@
       <c r="F23" s="71"/>
       <c r="G23" s="70"/>
       <c r="K23" s="71"/>
-      <c r="N23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>348</v>
       </c>
       <c r="AA23" s="17" t="s">
@@ -14972,7 +14972,7 @@
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
       <c r="K24" s="71"/>
-      <c r="N24" s="17" t="s">
+      <c r="O24" s="17" t="s">
         <v>335</v>
       </c>
       <c r="AA24" s="17" t="s">
@@ -15000,7 +15000,7 @@
       <c r="F26" s="71"/>
       <c r="G26" s="70"/>
       <c r="K26" s="71"/>
-      <c r="N26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA26" s="17" t="s">
@@ -15017,7 +15017,7 @@
       <c r="F27" s="71"/>
       <c r="G27" s="70"/>
       <c r="K27" s="71"/>
-      <c r="N27" s="17" t="s">
+      <c r="O27" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA27" s="17" t="s">
@@ -15045,7 +15045,7 @@
       <c r="F29" s="71"/>
       <c r="G29" s="70"/>
       <c r="K29" s="71"/>
-      <c r="N29" s="17" t="s">
+      <c r="O29" s="17" t="s">
         <v>353</v>
       </c>
       <c r="AA29" s="17" t="s">
@@ -15062,7 +15062,7 @@
       <c r="F30" s="71"/>
       <c r="G30" s="70"/>
       <c r="K30" s="71"/>
-      <c r="N30" s="17" t="s">
+      <c r="O30" s="17" t="s">
         <v>363</v>
       </c>
       <c r="AA30" s="17" t="s">
@@ -15090,7 +15090,7 @@
       <c r="F32" s="217"/>
       <c r="G32" s="216"/>
       <c r="K32" s="217"/>
-      <c r="N32" s="215" t="s">
+      <c r="O32" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA32" s="215" t="s">
@@ -15107,7 +15107,7 @@
       <c r="F33" s="217"/>
       <c r="G33" s="216"/>
       <c r="K33" s="217"/>
-      <c r="N33" s="215" t="s">
+      <c r="O33" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA33" s="215" t="s">
@@ -15124,7 +15124,7 @@
       <c r="F34" s="217"/>
       <c r="G34" s="216"/>
       <c r="K34" s="217"/>
-      <c r="N34" s="215" t="s">
+      <c r="O34" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA34" s="215" t="s">
@@ -15141,7 +15141,7 @@
       <c r="F35" s="217"/>
       <c r="G35" s="216"/>
       <c r="K35" s="217"/>
-      <c r="N35" s="215" t="s">
+      <c r="O35" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA35" s="215" t="s">
@@ -15158,7 +15158,7 @@
       <c r="F36" s="217"/>
       <c r="G36" s="216"/>
       <c r="K36" s="217"/>
-      <c r="N36" s="215" t="s">
+      <c r="O36" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA36" s="215" t="s">
@@ -15568,7 +15568,7 @@
       <c r="F62" s="71"/>
       <c r="G62" s="70"/>
       <c r="K62" s="71"/>
-      <c r="N62" s="17" t="s">
+      <c r="O62" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA62" s="17" t="s">
@@ -15585,7 +15585,7 @@
       <c r="F63" s="71"/>
       <c r="G63" s="70"/>
       <c r="K63" s="71"/>
-      <c r="N63" s="17" t="s">
+      <c r="O63" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA63" s="17" t="s">
@@ -15613,7 +15613,7 @@
       <c r="F65" s="71"/>
       <c r="G65" s="70"/>
       <c r="K65" s="71"/>
-      <c r="N65" s="17" t="s">
+      <c r="O65" s="17" t="s">
         <v>348</v>
       </c>
       <c r="AA65" s="17" t="s">
@@ -15630,7 +15630,7 @@
       <c r="F66" s="71"/>
       <c r="G66" s="70"/>
       <c r="K66" s="71"/>
-      <c r="N66" s="17" t="s">
+      <c r="O66" s="17" t="s">
         <v>335</v>
       </c>
       <c r="AA66" s="17" t="s">
@@ -15658,7 +15658,7 @@
       <c r="F68" s="71"/>
       <c r="G68" s="70"/>
       <c r="K68" s="71"/>
-      <c r="N68" s="17" t="s">
+      <c r="O68" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA68" s="17" t="s">
@@ -15675,7 +15675,7 @@
       <c r="F69" s="71"/>
       <c r="G69" s="70"/>
       <c r="K69" s="71"/>
-      <c r="N69" s="17" t="s">
+      <c r="O69" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA69" s="17" t="s">
@@ -15703,7 +15703,7 @@
       <c r="F71" s="71"/>
       <c r="G71" s="70"/>
       <c r="K71" s="71"/>
-      <c r="N71" s="17" t="s">
+      <c r="O71" s="17" t="s">
         <v>353</v>
       </c>
       <c r="AA71" s="17" t="s">
@@ -15720,7 +15720,7 @@
       <c r="F72" s="71"/>
       <c r="G72" s="70"/>
       <c r="K72" s="71"/>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>363</v>
       </c>
       <c r="AA72" s="17" t="s">
@@ -15748,7 +15748,7 @@
       <c r="F74" s="71"/>
       <c r="G74" s="70"/>
       <c r="K74" s="71"/>
-      <c r="N74" s="17" t="s">
+      <c r="O74" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA74" s="17" t="s">
@@ -15776,7 +15776,7 @@
       <c r="F76" s="71"/>
       <c r="G76" s="70"/>
       <c r="K76" s="71"/>
-      <c r="N76" s="17" t="s">
+      <c r="O76" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA76" s="17" t="s">
@@ -15793,7 +15793,7 @@
       <c r="F77" s="71"/>
       <c r="G77" s="70"/>
       <c r="K77" s="71"/>
-      <c r="N77" s="17" t="s">
+      <c r="O77" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA77" s="17" t="s">
@@ -15810,7 +15810,7 @@
       <c r="F78" s="71"/>
       <c r="G78" s="70"/>
       <c r="K78" s="71"/>
-      <c r="N78" s="17" t="s">
+      <c r="O78" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA78" s="17" t="s">
@@ -15827,7 +15827,7 @@
       <c r="F79" s="71"/>
       <c r="G79" s="70"/>
       <c r="K79" s="71"/>
-      <c r="N79" s="17" t="s">
+      <c r="O79" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA79" s="17" t="s">
@@ -15844,7 +15844,7 @@
       <c r="F80" s="71"/>
       <c r="G80" s="70"/>
       <c r="K80" s="71"/>
-      <c r="N80" s="17" t="s">
+      <c r="O80" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA80" s="17" t="s">
@@ -15872,7 +15872,7 @@
       <c r="F82" s="217"/>
       <c r="G82" s="216"/>
       <c r="K82" s="217"/>
-      <c r="N82" s="215" t="s">
+      <c r="O82" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA82" s="215" t="s">
@@ -15889,7 +15889,7 @@
       <c r="F83" s="217"/>
       <c r="G83" s="216"/>
       <c r="K83" s="217"/>
-      <c r="N83" s="215" t="s">
+      <c r="O83" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA83" s="215" t="s">
@@ -15906,7 +15906,7 @@
       <c r="F84" s="217"/>
       <c r="G84" s="216"/>
       <c r="K84" s="217"/>
-      <c r="N84" s="215" t="s">
+      <c r="O84" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA84" s="215" t="s">
@@ -15923,7 +15923,7 @@
       <c r="F85" s="217"/>
       <c r="G85" s="216"/>
       <c r="K85" s="217"/>
-      <c r="N85" s="215" t="s">
+      <c r="O85" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA85" s="215" t="s">
@@ -15940,7 +15940,7 @@
       <c r="F86" s="217"/>
       <c r="G86" s="216"/>
       <c r="K86" s="217"/>
-      <c r="N86" s="215" t="s">
+      <c r="O86" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA86" s="215" t="s">
@@ -16444,7 +16444,7 @@
       <c r="F117" s="71"/>
       <c r="G117" s="70"/>
       <c r="K117" s="71"/>
-      <c r="N117" s="17" t="s">
+      <c r="O117" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA117" s="17" t="s">
@@ -16461,7 +16461,7 @@
       <c r="F118" s="71"/>
       <c r="G118" s="70"/>
       <c r="K118" s="71"/>
-      <c r="N118" s="17" t="s">
+      <c r="O118" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA118" s="17" t="s">
@@ -16489,7 +16489,7 @@
       <c r="F120" s="71"/>
       <c r="G120" s="70"/>
       <c r="K120" s="71"/>
-      <c r="N120" s="17" t="s">
+      <c r="O120" s="17" t="s">
         <v>348</v>
       </c>
       <c r="AA120" s="17" t="s">
@@ -16506,7 +16506,7 @@
       <c r="F121" s="71"/>
       <c r="G121" s="70"/>
       <c r="K121" s="71"/>
-      <c r="N121" s="17" t="s">
+      <c r="O121" s="17" t="s">
         <v>335</v>
       </c>
       <c r="AA121" s="17" t="s">
@@ -16534,7 +16534,7 @@
       <c r="F123" s="71"/>
       <c r="G123" s="70"/>
       <c r="K123" s="71"/>
-      <c r="N123" s="17" t="s">
+      <c r="O123" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA123" s="17" t="s">
@@ -16551,7 +16551,7 @@
       <c r="F124" s="71"/>
       <c r="G124" s="70"/>
       <c r="K124" s="71"/>
-      <c r="N124" s="17" t="s">
+      <c r="O124" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA124" s="17" t="s">
@@ -16579,7 +16579,7 @@
       <c r="F126" s="71"/>
       <c r="G126" s="70"/>
       <c r="K126" s="71"/>
-      <c r="N126" s="17" t="s">
+      <c r="O126" s="17" t="s">
         <v>353</v>
       </c>
       <c r="AA126" s="17" t="s">
@@ -16596,7 +16596,7 @@
       <c r="F127" s="71"/>
       <c r="G127" s="70"/>
       <c r="K127" s="71"/>
-      <c r="N127" s="17" t="s">
+      <c r="O127" s="17" t="s">
         <v>363</v>
       </c>
       <c r="AA127" s="17" t="s">
@@ -16624,7 +16624,7 @@
       <c r="F129" s="71"/>
       <c r="G129" s="70"/>
       <c r="K129" s="71"/>
-      <c r="N129" s="17" t="s">
+      <c r="O129" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA129" s="17" t="s">
@@ -16652,7 +16652,7 @@
       <c r="F131" s="71"/>
       <c r="G131" s="70"/>
       <c r="K131" s="71"/>
-      <c r="N131" s="17" t="s">
+      <c r="O131" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA131" s="17" t="s">
@@ -16669,7 +16669,7 @@
       <c r="F132" s="71"/>
       <c r="G132" s="70"/>
       <c r="K132" s="71"/>
-      <c r="N132" s="17" t="s">
+      <c r="O132" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA132" s="17" t="s">
@@ -16697,7 +16697,7 @@
       <c r="F134" s="71"/>
       <c r="G134" s="70"/>
       <c r="K134" s="71"/>
-      <c r="N134" s="17" t="s">
+      <c r="O134" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA134" s="17" t="s">
@@ -16714,7 +16714,7 @@
       <c r="F135" s="71"/>
       <c r="G135" s="70"/>
       <c r="K135" s="71"/>
-      <c r="N135" s="17" t="s">
+      <c r="O135" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA135" s="17" t="s">
@@ -16731,7 +16731,7 @@
       <c r="F136" s="71"/>
       <c r="G136" s="70"/>
       <c r="K136" s="71"/>
-      <c r="N136" s="17" t="s">
+      <c r="O136" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA136" s="17" t="s">
@@ -16748,7 +16748,7 @@
       <c r="F137" s="71"/>
       <c r="G137" s="70"/>
       <c r="K137" s="71"/>
-      <c r="N137" s="17" t="s">
+      <c r="O137" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA137" s="17" t="s">
@@ -16765,7 +16765,7 @@
       <c r="F138" s="71"/>
       <c r="G138" s="70"/>
       <c r="K138" s="71"/>
-      <c r="N138" s="17" t="s">
+      <c r="O138" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA138" s="17" t="s">
@@ -16793,7 +16793,7 @@
       <c r="F140" s="217"/>
       <c r="G140" s="216"/>
       <c r="K140" s="217"/>
-      <c r="N140" s="215" t="s">
+      <c r="O140" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA140" s="215" t="s">
@@ -16810,7 +16810,7 @@
       <c r="F141" s="217"/>
       <c r="G141" s="216"/>
       <c r="K141" s="217"/>
-      <c r="N141" s="215" t="s">
+      <c r="O141" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA141" s="215" t="s">
@@ -16827,7 +16827,7 @@
       <c r="F142" s="217"/>
       <c r="G142" s="216"/>
       <c r="K142" s="217"/>
-      <c r="N142" s="215" t="s">
+      <c r="O142" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA142" s="215" t="s">
@@ -16844,7 +16844,7 @@
       <c r="F143" s="217"/>
       <c r="G143" s="216"/>
       <c r="K143" s="217"/>
-      <c r="N143" s="215" t="s">
+      <c r="O143" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA143" s="215" t="s">
@@ -16861,7 +16861,7 @@
       <c r="F144" s="217"/>
       <c r="G144" s="216"/>
       <c r="K144" s="217"/>
-      <c r="N144" s="215" t="s">
+      <c r="O144" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA144" s="215" t="s">
@@ -17300,7 +17300,7 @@
       <c r="F172" s="71"/>
       <c r="G172" s="70"/>
       <c r="K172" s="71"/>
-      <c r="N172" s="17" t="s">
+      <c r="O172" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA172" s="17" t="s">
@@ -17317,7 +17317,7 @@
       <c r="F173" s="71"/>
       <c r="G173" s="70"/>
       <c r="K173" s="71"/>
-      <c r="N173" s="17" t="s">
+      <c r="O173" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA173" s="17" t="s">
@@ -17345,7 +17345,7 @@
       <c r="F175" s="71"/>
       <c r="G175" s="70"/>
       <c r="K175" s="71"/>
-      <c r="N175" s="17" t="s">
+      <c r="O175" s="17" t="s">
         <v>348</v>
       </c>
       <c r="AA175" s="17" t="s">
@@ -17362,7 +17362,7 @@
       <c r="F176" s="71"/>
       <c r="G176" s="70"/>
       <c r="K176" s="71"/>
-      <c r="N176" s="17" t="s">
+      <c r="O176" s="17" t="s">
         <v>335</v>
       </c>
       <c r="AA176" s="17" t="s">
@@ -17390,7 +17390,7 @@
       <c r="F178" s="71"/>
       <c r="G178" s="70"/>
       <c r="K178" s="71"/>
-      <c r="N178" s="17" t="s">
+      <c r="O178" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA178" s="17" t="s">
@@ -17407,7 +17407,7 @@
       <c r="F179" s="71"/>
       <c r="G179" s="70"/>
       <c r="K179" s="71"/>
-      <c r="N179" s="17" t="s">
+      <c r="O179" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA179" s="17" t="s">
@@ -17435,7 +17435,7 @@
       <c r="F181" s="71"/>
       <c r="G181" s="70"/>
       <c r="K181" s="71"/>
-      <c r="N181" s="17" t="s">
+      <c r="O181" s="17" t="s">
         <v>353</v>
       </c>
       <c r="AA181" s="17" t="s">
@@ -17452,7 +17452,7 @@
       <c r="F182" s="71"/>
       <c r="G182" s="70"/>
       <c r="K182" s="71"/>
-      <c r="N182" s="17" t="s">
+      <c r="O182" s="17" t="s">
         <v>363</v>
       </c>
       <c r="AA182" s="17" t="s">
@@ -17480,7 +17480,7 @@
       <c r="F184" s="217"/>
       <c r="G184" s="216"/>
       <c r="K184" s="217"/>
-      <c r="N184" s="215" t="s">
+      <c r="O184" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA184" s="215" t="s">
@@ -17497,7 +17497,7 @@
       <c r="F185" s="217"/>
       <c r="G185" s="216"/>
       <c r="K185" s="217"/>
-      <c r="N185" s="215" t="s">
+      <c r="O185" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA185" s="215" t="s">
@@ -17514,7 +17514,7 @@
       <c r="F186" s="217"/>
       <c r="G186" s="216"/>
       <c r="K186" s="217"/>
-      <c r="N186" s="215" t="s">
+      <c r="O186" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA186" s="215" t="s">
@@ -17531,7 +17531,7 @@
       <c r="F187" s="217"/>
       <c r="G187" s="216"/>
       <c r="K187" s="217"/>
-      <c r="N187" s="215" t="s">
+      <c r="O187" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA187" s="215" t="s">
@@ -17548,7 +17548,7 @@
       <c r="F188" s="217"/>
       <c r="G188" s="216"/>
       <c r="K188" s="217"/>
-      <c r="N188" s="215" t="s">
+      <c r="O188" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA188" s="215" t="s">
@@ -17995,7 +17995,7 @@
       <c r="F211" s="71"/>
       <c r="G211" s="70"/>
       <c r="K211" s="71"/>
-      <c r="N211" s="17" t="s">
+      <c r="O211" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA211" s="17" t="s">
@@ -18012,7 +18012,7 @@
       <c r="F212" s="71"/>
       <c r="G212" s="70"/>
       <c r="K212" s="71"/>
-      <c r="N212" s="17" t="s">
+      <c r="O212" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA212" s="17" t="s">
@@ -18040,7 +18040,7 @@
       <c r="F214" s="71"/>
       <c r="G214" s="70"/>
       <c r="K214" s="71"/>
-      <c r="N214" s="17" t="s">
+      <c r="O214" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA214" s="17" t="s">
@@ -18057,7 +18057,7 @@
       <c r="F215" s="71"/>
       <c r="G215" s="70"/>
       <c r="K215" s="71"/>
-      <c r="N215" s="17" t="s">
+      <c r="O215" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA215" s="17" t="s">
@@ -18085,7 +18085,7 @@
       <c r="F217" s="217"/>
       <c r="G217" s="216"/>
       <c r="K217" s="217"/>
-      <c r="N217" s="215" t="s">
+      <c r="O217" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA217" s="215" t="s">
@@ -18102,7 +18102,7 @@
       <c r="F218" s="217"/>
       <c r="G218" s="216"/>
       <c r="K218" s="217"/>
-      <c r="N218" s="215" t="s">
+      <c r="O218" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA218" s="215" t="s">
@@ -18119,7 +18119,7 @@
       <c r="F219" s="217"/>
       <c r="G219" s="216"/>
       <c r="K219" s="217"/>
-      <c r="N219" s="215" t="s">
+      <c r="O219" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA219" s="215" t="s">
@@ -18136,7 +18136,7 @@
       <c r="F220" s="217"/>
       <c r="G220" s="216"/>
       <c r="K220" s="217"/>
-      <c r="N220" s="215" t="s">
+      <c r="O220" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA220" s="215" t="s">
@@ -18153,7 +18153,7 @@
       <c r="F221" s="217"/>
       <c r="G221" s="216"/>
       <c r="K221" s="217"/>
-      <c r="N221" s="215" t="s">
+      <c r="O221" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA221" s="215" t="s">
@@ -18555,7 +18555,7 @@
       <c r="F244" s="71"/>
       <c r="G244" s="70"/>
       <c r="K244" s="71"/>
-      <c r="N244" s="17" t="s">
+      <c r="O244" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA244" s="17" t="s">
@@ -18572,7 +18572,7 @@
       <c r="F245" s="71"/>
       <c r="G245" s="70"/>
       <c r="K245" s="71"/>
-      <c r="N245" s="17" t="s">
+      <c r="O245" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA245" s="17" t="s">
@@ -18600,7 +18600,7 @@
       <c r="F247" s="71"/>
       <c r="G247" s="70"/>
       <c r="K247" s="71"/>
-      <c r="N247" s="17" t="s">
+      <c r="O247" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA247" s="17" t="s">
@@ -18617,7 +18617,7 @@
       <c r="F248" s="71"/>
       <c r="G248" s="70"/>
       <c r="K248" s="71"/>
-      <c r="N248" s="17" t="s">
+      <c r="O248" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA248" s="17" t="s">
@@ -18645,7 +18645,7 @@
       <c r="F250" s="217"/>
       <c r="G250" s="216"/>
       <c r="K250" s="217"/>
-      <c r="N250" s="215" t="s">
+      <c r="O250" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA250" s="215" t="s">
@@ -18662,7 +18662,7 @@
       <c r="F251" s="217"/>
       <c r="G251" s="216"/>
       <c r="K251" s="217"/>
-      <c r="N251" s="215" t="s">
+      <c r="O251" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA251" s="215" t="s">
@@ -18679,7 +18679,7 @@
       <c r="F252" s="217"/>
       <c r="G252" s="216"/>
       <c r="K252" s="217"/>
-      <c r="N252" s="215" t="s">
+      <c r="O252" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA252" s="215" t="s">
@@ -18696,7 +18696,7 @@
       <c r="F253" s="217"/>
       <c r="G253" s="216"/>
       <c r="K253" s="217"/>
-      <c r="N253" s="215" t="s">
+      <c r="O253" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA253" s="215" t="s">
@@ -18713,7 +18713,7 @@
       <c r="F254" s="217"/>
       <c r="G254" s="216"/>
       <c r="K254" s="217"/>
-      <c r="N254" s="215" t="s">
+      <c r="O254" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA254" s="215" t="s">
@@ -19167,7 +19167,7 @@
       <c r="F280" s="71"/>
       <c r="G280" s="70"/>
       <c r="K280" s="71"/>
-      <c r="N280" s="17" t="s">
+      <c r="O280" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA280" s="17" t="s">
@@ -19184,7 +19184,7 @@
       <c r="F281" s="71"/>
       <c r="G281" s="70"/>
       <c r="K281" s="71"/>
-      <c r="N281" s="17" t="s">
+      <c r="O281" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA281" s="17" t="s">
@@ -19212,7 +19212,7 @@
       <c r="F283" s="71"/>
       <c r="G283" s="70"/>
       <c r="K283" s="71"/>
-      <c r="N283" s="17" t="s">
+      <c r="O283" s="17" t="s">
         <v>411</v>
       </c>
       <c r="AA283" s="17" t="s">
@@ -19229,7 +19229,7 @@
       <c r="F284" s="71"/>
       <c r="G284" s="70"/>
       <c r="K284" s="71"/>
-      <c r="N284" s="17" t="s">
+      <c r="O284" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA284" s="17" t="s">
@@ -19257,7 +19257,7 @@
       <c r="F286" s="71"/>
       <c r="G286" s="70"/>
       <c r="K286" s="71"/>
-      <c r="N286" s="17" t="s">
+      <c r="O286" s="17" t="s">
         <v>412</v>
       </c>
       <c r="AA286" s="17" t="s">
@@ -19285,7 +19285,7 @@
       <c r="F288" s="71"/>
       <c r="G288" s="70"/>
       <c r="K288" s="71"/>
-      <c r="N288" s="17" t="s">
+      <c r="O288" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA288" s="17" t="s">
@@ -19302,7 +19302,7 @@
       <c r="F289" s="71"/>
       <c r="G289" s="70"/>
       <c r="K289" s="71"/>
-      <c r="N289" s="17" t="s">
+      <c r="O289" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA289" s="17" t="s">
@@ -19319,7 +19319,7 @@
       <c r="F290" s="71"/>
       <c r="G290" s="70"/>
       <c r="K290" s="71"/>
-      <c r="N290" s="17" t="s">
+      <c r="O290" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA290" s="17" t="s">
@@ -19336,7 +19336,7 @@
       <c r="F291" s="71"/>
       <c r="G291" s="70"/>
       <c r="K291" s="71"/>
-      <c r="N291" s="17" t="s">
+      <c r="O291" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA291" s="17" t="s">
@@ -19353,7 +19353,7 @@
       <c r="F292" s="71"/>
       <c r="G292" s="70"/>
       <c r="K292" s="71"/>
-      <c r="N292" s="17" t="s">
+      <c r="O292" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA292" s="17" t="s">
@@ -19381,7 +19381,7 @@
       <c r="F294" s="217"/>
       <c r="G294" s="216"/>
       <c r="K294" s="217"/>
-      <c r="N294" s="215" t="s">
+      <c r="O294" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA294" s="215" t="s">
@@ -19398,7 +19398,7 @@
       <c r="F295" s="217"/>
       <c r="G295" s="216"/>
       <c r="K295" s="217"/>
-      <c r="N295" s="215" t="s">
+      <c r="O295" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA295" s="215" t="s">
@@ -19415,7 +19415,7 @@
       <c r="F296" s="217"/>
       <c r="G296" s="216"/>
       <c r="K296" s="217"/>
-      <c r="N296" s="215" t="s">
+      <c r="O296" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA296" s="215" t="s">
@@ -19432,7 +19432,7 @@
       <c r="F297" s="217"/>
       <c r="G297" s="216"/>
       <c r="K297" s="217"/>
-      <c r="N297" s="215" t="s">
+      <c r="O297" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA297" s="215" t="s">
@@ -19449,7 +19449,7 @@
       <c r="F298" s="217"/>
       <c r="G298" s="216"/>
       <c r="K298" s="217"/>
-      <c r="N298" s="215" t="s">
+      <c r="O298" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA298" s="215" t="s">
@@ -19925,7 +19925,7 @@
       <c r="F326" s="71"/>
       <c r="G326" s="70"/>
       <c r="K326" s="71"/>
-      <c r="N326" s="17" t="s">
+      <c r="O326" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA326" s="17" t="s">
@@ -19942,7 +19942,7 @@
       <c r="F327" s="71"/>
       <c r="G327" s="70"/>
       <c r="K327" s="71"/>
-      <c r="N327" s="17" t="s">
+      <c r="O327" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA327" s="17" t="s">
@@ -19970,7 +19970,7 @@
       <c r="F329" s="71"/>
       <c r="G329" s="70"/>
       <c r="K329" s="71"/>
-      <c r="N329" s="17" t="s">
+      <c r="O329" s="17" t="s">
         <v>411</v>
       </c>
       <c r="AA329" s="17" t="s">
@@ -19987,7 +19987,7 @@
       <c r="F330" s="71"/>
       <c r="G330" s="70"/>
       <c r="K330" s="71"/>
-      <c r="N330" s="17" t="s">
+      <c r="O330" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA330" s="17" t="s">
@@ -20015,7 +20015,7 @@
       <c r="F332" s="71"/>
       <c r="G332" s="70"/>
       <c r="K332" s="71"/>
-      <c r="N332" s="17" t="s">
+      <c r="O332" s="17" t="s">
         <v>412</v>
       </c>
       <c r="AA332" s="17" t="s">
@@ -20043,7 +20043,7 @@
       <c r="F334" s="71"/>
       <c r="G334" s="70"/>
       <c r="K334" s="71"/>
-      <c r="N334" s="17" t="s">
+      <c r="O334" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA334" s="17" t="s">
@@ -20060,7 +20060,7 @@
       <c r="F335" s="71"/>
       <c r="G335" s="70"/>
       <c r="K335" s="71"/>
-      <c r="N335" s="17" t="s">
+      <c r="O335" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA335" s="17" t="s">
@@ -20077,7 +20077,7 @@
       <c r="F336" s="71"/>
       <c r="G336" s="70"/>
       <c r="K336" s="71"/>
-      <c r="N336" s="17" t="s">
+      <c r="O336" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA336" s="17" t="s">
@@ -20094,7 +20094,7 @@
       <c r="F337" s="71"/>
       <c r="G337" s="70"/>
       <c r="K337" s="71"/>
-      <c r="N337" s="17" t="s">
+      <c r="O337" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA337" s="17" t="s">
@@ -20111,7 +20111,7 @@
       <c r="F338" s="71"/>
       <c r="G338" s="70"/>
       <c r="K338" s="71"/>
-      <c r="N338" s="17" t="s">
+      <c r="O338" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA338" s="17" t="s">
@@ -20139,7 +20139,7 @@
       <c r="F340" s="217"/>
       <c r="G340" s="216"/>
       <c r="K340" s="217"/>
-      <c r="N340" s="215" t="s">
+      <c r="O340" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA340" s="215" t="s">
@@ -20156,7 +20156,7 @@
       <c r="F341" s="217"/>
       <c r="G341" s="216"/>
       <c r="K341" s="217"/>
-      <c r="N341" s="215" t="s">
+      <c r="O341" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA341" s="215" t="s">
@@ -20173,7 +20173,7 @@
       <c r="F342" s="217"/>
       <c r="G342" s="216"/>
       <c r="K342" s="217"/>
-      <c r="N342" s="215" t="s">
+      <c r="O342" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA342" s="215" t="s">
@@ -20190,7 +20190,7 @@
       <c r="F343" s="217"/>
       <c r="G343" s="216"/>
       <c r="K343" s="217"/>
-      <c r="N343" s="215" t="s">
+      <c r="O343" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA343" s="215" t="s">
@@ -20207,7 +20207,7 @@
       <c r="F344" s="217"/>
       <c r="G344" s="216"/>
       <c r="K344" s="217"/>
-      <c r="N344" s="215" t="s">
+      <c r="O344" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA344" s="215" t="s">
@@ -20691,7 +20691,7 @@
       <c r="F373" s="71"/>
       <c r="G373" s="70"/>
       <c r="K373" s="71"/>
-      <c r="N373" s="17" t="s">
+      <c r="O373" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA373" s="17" t="s">
@@ -20708,7 +20708,7 @@
       <c r="F374" s="71"/>
       <c r="G374" s="70"/>
       <c r="K374" s="71"/>
-      <c r="N374" s="17" t="s">
+      <c r="O374" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA374" s="17" t="s">
@@ -20736,7 +20736,7 @@
       <c r="F376" s="71"/>
       <c r="G376" s="70"/>
       <c r="K376" s="71"/>
-      <c r="N376" s="17" t="s">
+      <c r="O376" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA376" s="17" t="s">
@@ -20753,7 +20753,7 @@
       <c r="F377" s="71"/>
       <c r="G377" s="70"/>
       <c r="K377" s="71"/>
-      <c r="N377" s="17" t="s">
+      <c r="O377" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA377" s="17" t="s">
@@ -20781,7 +20781,7 @@
       <c r="F379" s="217"/>
       <c r="G379" s="216"/>
       <c r="K379" s="217"/>
-      <c r="N379" s="215" t="s">
+      <c r="O379" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA379" s="215" t="s">
@@ -20798,7 +20798,7 @@
       <c r="F380" s="217"/>
       <c r="G380" s="216"/>
       <c r="K380" s="217"/>
-      <c r="N380" s="215" t="s">
+      <c r="O380" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA380" s="215" t="s">
@@ -20815,7 +20815,7 @@
       <c r="F381" s="217"/>
       <c r="G381" s="216"/>
       <c r="K381" s="217"/>
-      <c r="N381" s="215" t="s">
+      <c r="O381" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA381" s="215" t="s">
@@ -20832,7 +20832,7 @@
       <c r="F382" s="217"/>
       <c r="G382" s="216"/>
       <c r="K382" s="217"/>
-      <c r="N382" s="215" t="s">
+      <c r="O382" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA382" s="215" t="s">
@@ -20849,7 +20849,7 @@
       <c r="F383" s="217"/>
       <c r="G383" s="216"/>
       <c r="K383" s="217"/>
-      <c r="N383" s="215" t="s">
+      <c r="O383" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA383" s="215" t="s">
@@ -20877,7 +20877,7 @@
       <c r="F385" s="71"/>
       <c r="G385" s="70"/>
       <c r="K385" s="71"/>
-      <c r="N385" s="17" t="s">
+      <c r="O385" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA385" s="17" t="s">
@@ -20894,7 +20894,7 @@
       <c r="F386" s="71"/>
       <c r="G386" s="70"/>
       <c r="K386" s="71"/>
-      <c r="N386" s="17" t="s">
+      <c r="O386" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA386" s="17" t="s">
@@ -21285,7 +21285,7 @@
       <c r="F410" s="71"/>
       <c r="G410" s="70"/>
       <c r="K410" s="71"/>
-      <c r="N410" s="17" t="s">
+      <c r="O410" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA410" s="17" t="s">
@@ -21302,7 +21302,7 @@
       <c r="F411" s="71"/>
       <c r="G411" s="70"/>
       <c r="K411" s="71"/>
-      <c r="N411" s="17" t="s">
+      <c r="O411" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA411" s="17" t="s">
@@ -21330,7 +21330,7 @@
       <c r="F413" s="71"/>
       <c r="G413" s="70"/>
       <c r="K413" s="71"/>
-      <c r="N413" s="17" t="s">
+      <c r="O413" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA413" s="17" t="s">
@@ -21347,7 +21347,7 @@
       <c r="F414" s="71"/>
       <c r="G414" s="70"/>
       <c r="K414" s="71"/>
-      <c r="N414" s="17" t="s">
+      <c r="O414" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA414" s="17" t="s">
@@ -21375,7 +21375,7 @@
       <c r="F416" s="217"/>
       <c r="G416" s="216"/>
       <c r="K416" s="217"/>
-      <c r="N416" s="215" t="s">
+      <c r="O416" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA416" s="215" t="s">
@@ -21392,7 +21392,7 @@
       <c r="F417" s="217"/>
       <c r="G417" s="216"/>
       <c r="K417" s="217"/>
-      <c r="N417" s="215" t="s">
+      <c r="O417" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA417" s="215" t="s">
@@ -21409,7 +21409,7 @@
       <c r="F418" s="217"/>
       <c r="G418" s="216"/>
       <c r="K418" s="217"/>
-      <c r="N418" s="215" t="s">
+      <c r="O418" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA418" s="215" t="s">
@@ -21426,7 +21426,7 @@
       <c r="F419" s="217"/>
       <c r="G419" s="216"/>
       <c r="K419" s="217"/>
-      <c r="N419" s="215" t="s">
+      <c r="O419" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA419" s="215" t="s">
@@ -21443,7 +21443,7 @@
       <c r="F420" s="217"/>
       <c r="G420" s="216"/>
       <c r="K420" s="217"/>
-      <c r="N420" s="215" t="s">
+      <c r="O420" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA420" s="215" t="s">
@@ -21471,7 +21471,7 @@
       <c r="F422" s="71"/>
       <c r="G422" s="70"/>
       <c r="K422" s="71"/>
-      <c r="N422" s="17" t="s">
+      <c r="O422" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA422" s="17" t="s">
@@ -21488,7 +21488,7 @@
       <c r="F423" s="71"/>
       <c r="G423" s="70"/>
       <c r="K423" s="71"/>
-      <c r="N423" s="17" t="s">
+      <c r="O423" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA423" s="17" t="s">
@@ -21931,7 +21931,7 @@
       <c r="F450" s="71"/>
       <c r="G450" s="70"/>
       <c r="K450" s="71"/>
-      <c r="N450" s="17" t="s">
+      <c r="O450" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA450" s="17" t="s">
@@ -21948,7 +21948,7 @@
       <c r="F451" s="71"/>
       <c r="G451" s="70"/>
       <c r="K451" s="71"/>
-      <c r="N451" s="17" t="s">
+      <c r="O451" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA451" s="17" t="s">
@@ -21976,7 +21976,7 @@
       <c r="F453" s="71"/>
       <c r="G453" s="70"/>
       <c r="K453" s="71"/>
-      <c r="N453" s="17" t="s">
+      <c r="O453" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA453" s="17" t="s">
@@ -21993,7 +21993,7 @@
       <c r="F454" s="71"/>
       <c r="G454" s="70"/>
       <c r="K454" s="71"/>
-      <c r="N454" s="17" t="s">
+      <c r="O454" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA454" s="17" t="s">
@@ -22021,7 +22021,7 @@
       <c r="F456" s="71"/>
       <c r="G456" s="70"/>
       <c r="K456" s="71"/>
-      <c r="N456" s="17" t="s">
+      <c r="O456" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA456" s="17" t="s">
@@ -22049,7 +22049,7 @@
       <c r="F458" s="71"/>
       <c r="G458" s="70"/>
       <c r="K458" s="71"/>
-      <c r="N458" s="17" t="s">
+      <c r="O458" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA458" s="17" t="s">
@@ -22066,7 +22066,7 @@
       <c r="F459" s="71"/>
       <c r="G459" s="70"/>
       <c r="K459" s="71"/>
-      <c r="N459" s="17" t="s">
+      <c r="O459" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA459" s="17" t="s">
@@ -22094,7 +22094,7 @@
       <c r="F461" s="71"/>
       <c r="G461" s="70"/>
       <c r="K461" s="71"/>
-      <c r="N461" s="17" t="s">
+      <c r="O461" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA461" s="17" t="s">
@@ -22111,7 +22111,7 @@
       <c r="F462" s="71"/>
       <c r="G462" s="70"/>
       <c r="K462" s="71"/>
-      <c r="N462" s="17" t="s">
+      <c r="O462" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA462" s="17" t="s">
@@ -22128,7 +22128,7 @@
       <c r="F463" s="71"/>
       <c r="G463" s="70"/>
       <c r="K463" s="71"/>
-      <c r="N463" s="17" t="s">
+      <c r="O463" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA463" s="17" t="s">
@@ -22145,7 +22145,7 @@
       <c r="F464" s="71"/>
       <c r="G464" s="70"/>
       <c r="K464" s="71"/>
-      <c r="N464" s="17" t="s">
+      <c r="O464" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA464" s="17" t="s">
@@ -22162,7 +22162,7 @@
       <c r="F465" s="71"/>
       <c r="G465" s="70"/>
       <c r="K465" s="71"/>
-      <c r="N465" s="17" t="s">
+      <c r="O465" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA465" s="17" t="s">
@@ -22190,7 +22190,7 @@
       <c r="F467" s="217"/>
       <c r="G467" s="216"/>
       <c r="K467" s="217"/>
-      <c r="N467" s="215" t="s">
+      <c r="O467" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA467" s="215" t="s">
@@ -22207,7 +22207,7 @@
       <c r="F468" s="217"/>
       <c r="G468" s="216"/>
       <c r="K468" s="217"/>
-      <c r="N468" s="215" t="s">
+      <c r="O468" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA468" s="215" t="s">
@@ -22224,7 +22224,7 @@
       <c r="F469" s="217"/>
       <c r="G469" s="216"/>
       <c r="K469" s="217"/>
-      <c r="N469" s="215" t="s">
+      <c r="O469" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA469" s="215" t="s">
@@ -22241,7 +22241,7 @@
       <c r="F470" s="217"/>
       <c r="G470" s="216"/>
       <c r="K470" s="217"/>
-      <c r="N470" s="215" t="s">
+      <c r="O470" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA470" s="215" t="s">
@@ -22258,7 +22258,7 @@
       <c r="F471" s="217"/>
       <c r="G471" s="216"/>
       <c r="K471" s="217"/>
-      <c r="N471" s="215" t="s">
+      <c r="O471" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA471" s="215" t="s">
@@ -22757,7 +22757,7 @@
       <c r="F501" s="71"/>
       <c r="G501" s="70"/>
       <c r="K501" s="71"/>
-      <c r="N501" s="17" t="s">
+      <c r="O501" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA501" s="17" t="s">
@@ -22774,7 +22774,7 @@
       <c r="F502" s="71"/>
       <c r="G502" s="70"/>
       <c r="K502" s="71"/>
-      <c r="N502" s="17" t="s">
+      <c r="O502" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA502" s="17" t="s">
@@ -22802,7 +22802,7 @@
       <c r="F504" s="71"/>
       <c r="G504" s="70"/>
       <c r="K504" s="71"/>
-      <c r="N504" s="17" t="s">
+      <c r="O504" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA504" s="17" t="s">
@@ -22819,7 +22819,7 @@
       <c r="F505" s="71"/>
       <c r="G505" s="70"/>
       <c r="K505" s="71"/>
-      <c r="N505" s="17" t="s">
+      <c r="O505" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA505" s="17" t="s">
@@ -22847,7 +22847,7 @@
       <c r="F507" s="71"/>
       <c r="G507" s="70"/>
       <c r="K507" s="71"/>
-      <c r="N507" s="17" t="s">
+      <c r="O507" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA507" s="17" t="s">
@@ -22875,7 +22875,7 @@
       <c r="F509" s="71"/>
       <c r="G509" s="70"/>
       <c r="K509" s="71"/>
-      <c r="N509" s="17" t="s">
+      <c r="O509" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA509" s="17" t="s">
@@ -22892,7 +22892,7 @@
       <c r="F510" s="71"/>
       <c r="G510" s="70"/>
       <c r="K510" s="71"/>
-      <c r="N510" s="17" t="s">
+      <c r="O510" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA510" s="17" t="s">
@@ -22920,7 +22920,7 @@
       <c r="F512" s="71"/>
       <c r="G512" s="70"/>
       <c r="K512" s="71"/>
-      <c r="N512" s="17" t="s">
+      <c r="O512" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA512" s="17" t="s">
@@ -22937,7 +22937,7 @@
       <c r="F513" s="71"/>
       <c r="G513" s="70"/>
       <c r="K513" s="71"/>
-      <c r="N513" s="17" t="s">
+      <c r="O513" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA513" s="17" t="s">
@@ -22954,7 +22954,7 @@
       <c r="F514" s="71"/>
       <c r="G514" s="70"/>
       <c r="K514" s="71"/>
-      <c r="N514" s="17" t="s">
+      <c r="O514" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA514" s="17" t="s">
@@ -22971,7 +22971,7 @@
       <c r="F515" s="71"/>
       <c r="G515" s="70"/>
       <c r="K515" s="71"/>
-      <c r="N515" s="17" t="s">
+      <c r="O515" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA515" s="17" t="s">
@@ -22988,7 +22988,7 @@
       <c r="F516" s="71"/>
       <c r="G516" s="70"/>
       <c r="K516" s="71"/>
-      <c r="N516" s="17" t="s">
+      <c r="O516" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA516" s="17" t="s">
@@ -23016,7 +23016,7 @@
       <c r="F518" s="217"/>
       <c r="G518" s="216"/>
       <c r="K518" s="217"/>
-      <c r="N518" s="215" t="s">
+      <c r="O518" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA518" s="215" t="s">
@@ -23033,7 +23033,7 @@
       <c r="F519" s="217"/>
       <c r="G519" s="216"/>
       <c r="K519" s="217"/>
-      <c r="N519" s="215" t="s">
+      <c r="O519" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA519" s="215" t="s">
@@ -23050,7 +23050,7 @@
       <c r="F520" s="217"/>
       <c r="G520" s="216"/>
       <c r="K520" s="217"/>
-      <c r="N520" s="215" t="s">
+      <c r="O520" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA520" s="215" t="s">
@@ -23067,7 +23067,7 @@
       <c r="F521" s="217"/>
       <c r="G521" s="216"/>
       <c r="K521" s="217"/>
-      <c r="N521" s="215" t="s">
+      <c r="O521" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA521" s="215" t="s">
@@ -23084,7 +23084,7 @@
       <c r="F522" s="217"/>
       <c r="G522" s="216"/>
       <c r="K522" s="217"/>
-      <c r="N522" s="215" t="s">
+      <c r="O522" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA522" s="215" t="s">
@@ -23568,7 +23568,7 @@
       <c r="F551" s="71"/>
       <c r="G551" s="70"/>
       <c r="K551" s="71"/>
-      <c r="N551" s="17" t="s">
+      <c r="O551" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA551" s="17" t="s">
@@ -23585,7 +23585,7 @@
       <c r="F552" s="71"/>
       <c r="G552" s="70"/>
       <c r="K552" s="71"/>
-      <c r="N552" s="17" t="s">
+      <c r="O552" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA552" s="17" t="s">
@@ -23613,7 +23613,7 @@
       <c r="F554" s="71"/>
       <c r="G554" s="70"/>
       <c r="K554" s="71"/>
-      <c r="N554" s="17" t="s">
+      <c r="O554" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA554" s="17" t="s">
@@ -23630,7 +23630,7 @@
       <c r="F555" s="71"/>
       <c r="G555" s="70"/>
       <c r="K555" s="71"/>
-      <c r="N555" s="17" t="s">
+      <c r="O555" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA555" s="17" t="s">
@@ -23658,7 +23658,7 @@
       <c r="F557" s="71"/>
       <c r="G557" s="70"/>
       <c r="K557" s="71"/>
-      <c r="N557" s="17" t="s">
+      <c r="O557" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA557" s="17" t="s">
@@ -23686,7 +23686,7 @@
       <c r="F559" s="71"/>
       <c r="G559" s="70"/>
       <c r="K559" s="71"/>
-      <c r="N559" s="17" t="s">
+      <c r="O559" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA559" s="17" t="s">
@@ -23703,7 +23703,7 @@
       <c r="F560" s="71"/>
       <c r="G560" s="70"/>
       <c r="K560" s="71"/>
-      <c r="N560" s="17" t="s">
+      <c r="O560" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA560" s="17" t="s">
@@ -23731,7 +23731,7 @@
       <c r="F562" s="71"/>
       <c r="G562" s="70"/>
       <c r="K562" s="71"/>
-      <c r="N562" s="17" t="s">
+      <c r="O562" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA562" s="17" t="s">
@@ -23748,7 +23748,7 @@
       <c r="F563" s="71"/>
       <c r="G563" s="70"/>
       <c r="K563" s="71"/>
-      <c r="N563" s="17" t="s">
+      <c r="O563" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA563" s="17" t="s">
@@ -23765,7 +23765,7 @@
       <c r="F564" s="71"/>
       <c r="G564" s="70"/>
       <c r="K564" s="71"/>
-      <c r="N564" s="17" t="s">
+      <c r="O564" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA564" s="17" t="s">
@@ -23782,7 +23782,7 @@
       <c r="F565" s="71"/>
       <c r="G565" s="70"/>
       <c r="K565" s="71"/>
-      <c r="N565" s="17" t="s">
+      <c r="O565" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA565" s="17" t="s">
@@ -23799,7 +23799,7 @@
       <c r="F566" s="71"/>
       <c r="G566" s="70"/>
       <c r="K566" s="71"/>
-      <c r="N566" s="17" t="s">
+      <c r="O566" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA566" s="17" t="s">
@@ -23827,7 +23827,7 @@
       <c r="F568" s="217"/>
       <c r="G568" s="216"/>
       <c r="K568" s="217"/>
-      <c r="N568" s="215" t="s">
+      <c r="O568" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA568" s="215" t="s">
@@ -23844,7 +23844,7 @@
       <c r="F569" s="217"/>
       <c r="G569" s="216"/>
       <c r="K569" s="217"/>
-      <c r="N569" s="215" t="s">
+      <c r="O569" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA569" s="215" t="s">
@@ -23861,7 +23861,7 @@
       <c r="F570" s="217"/>
       <c r="G570" s="216"/>
       <c r="K570" s="217"/>
-      <c r="N570" s="215" t="s">
+      <c r="O570" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA570" s="215" t="s">
@@ -23878,7 +23878,7 @@
       <c r="F571" s="217"/>
       <c r="G571" s="216"/>
       <c r="K571" s="217"/>
-      <c r="N571" s="215" t="s">
+      <c r="O571" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA571" s="215" t="s">
@@ -23895,7 +23895,7 @@
       <c r="F572" s="217"/>
       <c r="G572" s="216"/>
       <c r="K572" s="217"/>
-      <c r="N572" s="215" t="s">
+      <c r="O572" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA572" s="215" t="s">
@@ -24407,7 +24407,7 @@
       <c r="F599" s="71"/>
       <c r="G599" s="70"/>
       <c r="K599" s="71"/>
-      <c r="N599" s="17" t="s">
+      <c r="O599" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA599" s="17" t="s">
@@ -24424,7 +24424,7 @@
       <c r="F600" s="71"/>
       <c r="G600" s="70"/>
       <c r="K600" s="71"/>
-      <c r="N600" s="17" t="s">
+      <c r="O600" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA600" s="17" t="s">
@@ -24452,7 +24452,7 @@
       <c r="F602" s="71"/>
       <c r="G602" s="70"/>
       <c r="K602" s="71"/>
-      <c r="N602" s="17" t="s">
+      <c r="O602" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA602" s="17" t="s">
@@ -24469,7 +24469,7 @@
       <c r="F603" s="71"/>
       <c r="G603" s="70"/>
       <c r="K603" s="71"/>
-      <c r="N603" s="17" t="s">
+      <c r="O603" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA603" s="17" t="s">
@@ -24497,7 +24497,7 @@
       <c r="F605" s="217"/>
       <c r="G605" s="216"/>
       <c r="K605" s="217"/>
-      <c r="N605" s="215" t="s">
+      <c r="O605" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA605" s="215" t="s">
@@ -24514,7 +24514,7 @@
       <c r="F606" s="217"/>
       <c r="G606" s="216"/>
       <c r="K606" s="217"/>
-      <c r="N606" s="215" t="s">
+      <c r="O606" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA606" s="215" t="s">
@@ -24531,7 +24531,7 @@
       <c r="F607" s="217"/>
       <c r="G607" s="216"/>
       <c r="K607" s="217"/>
-      <c r="N607" s="215" t="s">
+      <c r="O607" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA607" s="215" t="s">
@@ -24548,7 +24548,7 @@
       <c r="F608" s="217"/>
       <c r="G608" s="216"/>
       <c r="K608" s="217"/>
-      <c r="N608" s="215" t="s">
+      <c r="O608" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA608" s="215" t="s">
@@ -24565,7 +24565,7 @@
       <c r="F609" s="217"/>
       <c r="G609" s="216"/>
       <c r="K609" s="217"/>
-      <c r="N609" s="215" t="s">
+      <c r="O609" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA609" s="215" t="s">
@@ -24984,7 +24984,7 @@
       <c r="F634" s="71"/>
       <c r="G634" s="70"/>
       <c r="K634" s="71"/>
-      <c r="N634" s="17" t="s">
+      <c r="O634" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA634" s="17" t="s">
@@ -25001,7 +25001,7 @@
       <c r="F635" s="71"/>
       <c r="G635" s="70"/>
       <c r="K635" s="71"/>
-      <c r="N635" s="17" t="s">
+      <c r="O635" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA635" s="17" t="s">
@@ -25029,7 +25029,7 @@
       <c r="F637" s="71"/>
       <c r="G637" s="70"/>
       <c r="K637" s="71"/>
-      <c r="N637" s="17" t="s">
+      <c r="O637" s="17" t="s">
         <v>411</v>
       </c>
       <c r="AA637" s="17" t="s">
@@ -25046,7 +25046,7 @@
       <c r="F638" s="71"/>
       <c r="G638" s="70"/>
       <c r="K638" s="71"/>
-      <c r="N638" s="17" t="s">
+      <c r="O638" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA638" s="17" t="s">
@@ -25074,7 +25074,7 @@
       <c r="F640" s="71"/>
       <c r="G640" s="70"/>
       <c r="K640" s="71"/>
-      <c r="N640" s="17" t="s">
+      <c r="O640" s="17" t="s">
         <v>412</v>
       </c>
       <c r="AA640" s="17" t="s">
@@ -25102,7 +25102,7 @@
       <c r="F642" s="71"/>
       <c r="G642" s="70"/>
       <c r="K642" s="71"/>
-      <c r="N642" s="17" t="s">
+      <c r="O642" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA642" s="17" t="s">
@@ -25119,7 +25119,7 @@
       <c r="F643" s="71"/>
       <c r="G643" s="70"/>
       <c r="K643" s="71"/>
-      <c r="N643" s="17" t="s">
+      <c r="O643" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA643" s="17" t="s">
@@ -25136,7 +25136,7 @@
       <c r="F644" s="71"/>
       <c r="G644" s="70"/>
       <c r="K644" s="71"/>
-      <c r="N644" s="17" t="s">
+      <c r="O644" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA644" s="17" t="s">
@@ -25153,7 +25153,7 @@
       <c r="F645" s="71"/>
       <c r="G645" s="70"/>
       <c r="K645" s="71"/>
-      <c r="N645" s="17" t="s">
+      <c r="O645" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA645" s="17" t="s">
@@ -25170,7 +25170,7 @@
       <c r="F646" s="71"/>
       <c r="G646" s="70"/>
       <c r="K646" s="71"/>
-      <c r="N646" s="17" t="s">
+      <c r="O646" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA646" s="17" t="s">
@@ -25198,7 +25198,7 @@
       <c r="F648" s="217"/>
       <c r="G648" s="216"/>
       <c r="K648" s="217"/>
-      <c r="N648" s="215" t="s">
+      <c r="O648" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA648" s="215" t="s">
@@ -25215,7 +25215,7 @@
       <c r="F649" s="217"/>
       <c r="G649" s="216"/>
       <c r="K649" s="217"/>
-      <c r="N649" s="215" t="s">
+      <c r="O649" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA649" s="215" t="s">
@@ -25232,7 +25232,7 @@
       <c r="F650" s="217"/>
       <c r="G650" s="216"/>
       <c r="K650" s="217"/>
-      <c r="N650" s="215" t="s">
+      <c r="O650" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA650" s="215" t="s">
@@ -25249,7 +25249,7 @@
       <c r="F651" s="217"/>
       <c r="G651" s="216"/>
       <c r="K651" s="217"/>
-      <c r="N651" s="215" t="s">
+      <c r="O651" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA651" s="215" t="s">
@@ -25266,7 +25266,7 @@
       <c r="F652" s="217"/>
       <c r="G652" s="216"/>
       <c r="K652" s="217"/>
-      <c r="N652" s="215" t="s">
+      <c r="O652" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA652" s="215" t="s">
@@ -25737,7 +25737,7 @@
       <c r="F680" s="71"/>
       <c r="G680" s="70"/>
       <c r="K680" s="71"/>
-      <c r="N680" s="17" t="s">
+      <c r="O680" s="17" t="s">
         <v>334</v>
       </c>
       <c r="AA680" s="17" t="s">
@@ -25754,7 +25754,7 @@
       <c r="F681" s="71"/>
       <c r="G681" s="70"/>
       <c r="K681" s="71"/>
-      <c r="N681" s="17" t="s">
+      <c r="O681" s="17" t="s">
         <v>342</v>
       </c>
       <c r="AA681" s="17" t="s">
@@ -25782,7 +25782,7 @@
       <c r="F683" s="71"/>
       <c r="G683" s="70"/>
       <c r="K683" s="71"/>
-      <c r="N683" s="17" t="s">
+      <c r="O683" s="17" t="s">
         <v>337</v>
       </c>
       <c r="AA683" s="17" t="s">
@@ -25799,7 +25799,7 @@
       <c r="F684" s="71"/>
       <c r="G684" s="70"/>
       <c r="K684" s="71"/>
-      <c r="N684" s="17" t="s">
+      <c r="O684" s="17" t="s">
         <v>340</v>
       </c>
       <c r="AA684" s="17" t="s">
@@ -25827,7 +25827,7 @@
       <c r="F686" s="71"/>
       <c r="G686" s="70"/>
       <c r="K686" s="71"/>
-      <c r="N686" s="17" t="s">
+      <c r="O686" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA686" s="17" t="s">
@@ -25855,7 +25855,7 @@
       <c r="F688" s="71"/>
       <c r="G688" s="70"/>
       <c r="K688" s="71"/>
-      <c r="N688" s="17" t="s">
+      <c r="O688" s="17" t="s">
         <v>381</v>
       </c>
       <c r="AA688" s="17" t="s">
@@ -25872,7 +25872,7 @@
       <c r="F689" s="71"/>
       <c r="G689" s="70"/>
       <c r="K689" s="71"/>
-      <c r="N689" s="17" t="s">
+      <c r="O689" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA689" s="17" t="s">
@@ -25900,7 +25900,7 @@
       <c r="F691" s="71"/>
       <c r="G691" s="70"/>
       <c r="K691" s="71"/>
-      <c r="N691" s="17" t="s">
+      <c r="O691" s="17" t="s">
         <v>385</v>
       </c>
       <c r="AA691" s="17" t="s">
@@ -25917,7 +25917,7 @@
       <c r="F692" s="71"/>
       <c r="G692" s="70"/>
       <c r="K692" s="71"/>
-      <c r="N692" s="17" t="s">
+      <c r="O692" s="17" t="s">
         <v>387</v>
       </c>
       <c r="AA692" s="17" t="s">
@@ -25934,7 +25934,7 @@
       <c r="F693" s="71"/>
       <c r="G693" s="70"/>
       <c r="K693" s="71"/>
-      <c r="N693" s="17" t="s">
+      <c r="O693" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA693" s="17" t="s">
@@ -25951,7 +25951,7 @@
       <c r="F694" s="71"/>
       <c r="G694" s="70"/>
       <c r="K694" s="71"/>
-      <c r="N694" s="17" t="s">
+      <c r="O694" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA694" s="17" t="s">
@@ -25968,7 +25968,7 @@
       <c r="F695" s="71"/>
       <c r="G695" s="70"/>
       <c r="K695" s="71"/>
-      <c r="N695" s="17" t="s">
+      <c r="O695" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA695" s="17" t="s">
@@ -25996,7 +25996,7 @@
       <c r="F697" s="217"/>
       <c r="G697" s="216"/>
       <c r="K697" s="217"/>
-      <c r="N697" s="215" t="s">
+      <c r="O697" s="215" t="s">
         <v>385</v>
       </c>
       <c r="AA697" s="215" t="s">
@@ -26013,7 +26013,7 @@
       <c r="F698" s="217"/>
       <c r="G698" s="216"/>
       <c r="K698" s="217"/>
-      <c r="N698" s="215" t="s">
+      <c r="O698" s="215" t="s">
         <v>387</v>
       </c>
       <c r="AA698" s="215" t="s">
@@ -26030,7 +26030,7 @@
       <c r="F699" s="217"/>
       <c r="G699" s="216"/>
       <c r="K699" s="217"/>
-      <c r="N699" s="215" t="s">
+      <c r="O699" s="215" t="s">
         <v>389</v>
       </c>
       <c r="AA699" s="215" t="s">
@@ -26047,7 +26047,7 @@
       <c r="F700" s="217"/>
       <c r="G700" s="216"/>
       <c r="K700" s="217"/>
-      <c r="N700" s="215" t="s">
+      <c r="O700" s="215" t="s">
         <v>391</v>
       </c>
       <c r="AA700" s="215" t="s">
@@ -26064,7 +26064,7 @@
       <c r="F701" s="217"/>
       <c r="G701" s="216"/>
       <c r="K701" s="217"/>
-      <c r="N701" s="215" t="s">
+      <c r="O701" s="215" t="s">
         <v>393</v>
       </c>
       <c r="AA701" s="215" t="s">
@@ -34123,7 +34123,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="262">
+      <c r="AI1" s="266">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -34139,7 +34139,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="265" t="str">
+      <c r="AT1" s="269" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -34210,7 +34210,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="265"/>
+      <c r="AT2" s="269"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -39037,7 +39037,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="262">
+      <c r="AI1" s="266">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -39053,7 +39053,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="265" t="str">
+      <c r="AT1" s="269" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -39124,7 +39124,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="265"/>
+      <c r="AT2" s="269"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -53455,6 +53455,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -53612,22 +53627,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53643,28 +53667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100024EC-8A02-409B-8C1B-70F9A69F8951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50BB51-21DE-42E2-A86A-8D80C552734E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="454">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3179,6 +3179,10 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>複数列選択時は左から順に並び替えの優先度が高い。</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -4507,91 +4511,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4619,17 +4538,90 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4653,6 +4645,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5795,7 +5799,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3487"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3490"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7144,1779 +7148,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="253"/>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="253"/>
-      <c r="AB1" s="253"/>
-      <c r="AC1" s="253"/>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="253"/>
-      <c r="AG1" s="253"/>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="253"/>
-      <c r="AJ1" s="253"/>
-      <c r="AK1" s="253"/>
-      <c r="AL1" s="253"/>
-      <c r="AM1" s="253"/>
-      <c r="AN1" s="253"/>
-      <c r="AO1" s="253"/>
-      <c r="AP1" s="253"/>
-      <c r="AQ1" s="253"/>
-      <c r="AR1" s="253"/>
-      <c r="AS1" s="253"/>
-      <c r="AT1" s="253"/>
-      <c r="AU1" s="253"/>
-      <c r="AV1" s="253"/>
-      <c r="AW1" s="253"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="222"/>
+      <c r="AB1" s="222"/>
+      <c r="AC1" s="222"/>
+      <c r="AD1" s="222"/>
+      <c r="AE1" s="222"/>
+      <c r="AF1" s="222"/>
+      <c r="AG1" s="222"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="222"/>
+      <c r="AJ1" s="222"/>
+      <c r="AK1" s="222"/>
+      <c r="AL1" s="222"/>
+      <c r="AM1" s="222"/>
+      <c r="AN1" s="222"/>
+      <c r="AO1" s="222"/>
+      <c r="AP1" s="222"/>
+      <c r="AQ1" s="222"/>
+      <c r="AR1" s="222"/>
+      <c r="AS1" s="222"/>
+      <c r="AT1" s="222"/>
+      <c r="AU1" s="222"/>
+      <c r="AV1" s="222"/>
+      <c r="AW1" s="222"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="254"/>
-      <c r="AD2" s="254"/>
-      <c r="AE2" s="254"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="254"/>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="254"/>
-      <c r="AJ2" s="254"/>
-      <c r="AK2" s="254"/>
-      <c r="AL2" s="254"/>
-      <c r="AM2" s="254"/>
-      <c r="AN2" s="254"/>
-      <c r="AO2" s="254"/>
-      <c r="AP2" s="254"/>
-      <c r="AQ2" s="254"/>
-      <c r="AR2" s="254"/>
-      <c r="AS2" s="254"/>
-      <c r="AT2" s="254"/>
-      <c r="AU2" s="254"/>
-      <c r="AV2" s="254"/>
-      <c r="AW2" s="254"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="223"/>
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="223"/>
+      <c r="AK2" s="223"/>
+      <c r="AL2" s="223"/>
+      <c r="AM2" s="223"/>
+      <c r="AN2" s="223"/>
+      <c r="AO2" s="223"/>
+      <c r="AP2" s="223"/>
+      <c r="AQ2" s="223"/>
+      <c r="AR2" s="223"/>
+      <c r="AS2" s="223"/>
+      <c r="AT2" s="223"/>
+      <c r="AU2" s="223"/>
+      <c r="AV2" s="223"/>
+      <c r="AW2" s="223"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255" t="s">
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="256" t="s">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="257"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="256" t="s">
+      <c r="K3" s="226"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="257"/>
-      <c r="O3" s="257"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="255" t="s">
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255" t="s">
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="255"/>
-      <c r="AE3" s="255"/>
-      <c r="AF3" s="255"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="255"/>
-      <c r="AI3" s="255"/>
-      <c r="AJ3" s="255"/>
-      <c r="AK3" s="255"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="255"/>
-      <c r="AN3" s="255" t="s">
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="224"/>
+      <c r="AC3" s="224"/>
+      <c r="AD3" s="224"/>
+      <c r="AE3" s="224"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="224"/>
+      <c r="AH3" s="224"/>
+      <c r="AI3" s="224"/>
+      <c r="AJ3" s="224"/>
+      <c r="AK3" s="224"/>
+      <c r="AL3" s="224"/>
+      <c r="AM3" s="224"/>
+      <c r="AN3" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="255"/>
-      <c r="AP3" s="255"/>
-      <c r="AQ3" s="255"/>
-      <c r="AR3" s="255"/>
-      <c r="AS3" s="255" t="s">
+      <c r="AO3" s="224"/>
+      <c r="AP3" s="224"/>
+      <c r="AQ3" s="224"/>
+      <c r="AR3" s="224"/>
+      <c r="AS3" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="255"/>
-      <c r="AU3" s="255"/>
-      <c r="AV3" s="255"/>
-      <c r="AW3" s="255"/>
+      <c r="AT3" s="224"/>
+      <c r="AU3" s="224"/>
+      <c r="AV3" s="224"/>
+      <c r="AW3" s="224"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="255"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="255"/>
-      <c r="Y4" s="255"/>
-      <c r="Z4" s="255"/>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
-      <c r="AE4" s="255"/>
-      <c r="AF4" s="255"/>
-      <c r="AG4" s="255"/>
-      <c r="AH4" s="255"/>
-      <c r="AI4" s="255"/>
-      <c r="AJ4" s="255"/>
-      <c r="AK4" s="255"/>
-      <c r="AL4" s="255"/>
-      <c r="AM4" s="255"/>
-      <c r="AN4" s="255"/>
-      <c r="AO4" s="255"/>
-      <c r="AP4" s="255"/>
-      <c r="AQ4" s="255"/>
-      <c r="AR4" s="255"/>
-      <c r="AS4" s="255"/>
-      <c r="AT4" s="255"/>
-      <c r="AU4" s="255"/>
-      <c r="AV4" s="255"/>
-      <c r="AW4" s="255"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
+      <c r="P4" s="229"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="230"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224"/>
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
+      <c r="AO4" s="224"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="224"/>
+      <c r="AR4" s="224"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="224"/>
+      <c r="AU4" s="224"/>
+      <c r="AV4" s="224"/>
+      <c r="AW4" s="224"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="247">
+      <c r="B5" s="232">
         <v>1</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="228">
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="233">
         <v>43725</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="229" t="s">
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="230"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="229" t="s">
+      <c r="K5" s="235"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="235" t="s">
+      <c r="N5" s="235"/>
+      <c r="O5" s="235"/>
+      <c r="P5" s="235"/>
+      <c r="Q5" s="235"/>
+      <c r="R5" s="236"/>
+      <c r="S5" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="235"/>
-      <c r="U5" s="235"/>
-      <c r="V5" s="246" t="s">
+      <c r="T5" s="231"/>
+      <c r="U5" s="231"/>
+      <c r="V5" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="246"/>
-      <c r="X5" s="246"/>
-      <c r="Y5" s="246"/>
-      <c r="Z5" s="246"/>
-      <c r="AA5" s="246"/>
-      <c r="AB5" s="246"/>
-      <c r="AC5" s="246"/>
-      <c r="AD5" s="246"/>
-      <c r="AE5" s="246"/>
-      <c r="AF5" s="246"/>
-      <c r="AG5" s="246"/>
-      <c r="AH5" s="246"/>
-      <c r="AI5" s="246"/>
-      <c r="AJ5" s="246"/>
-      <c r="AK5" s="246"/>
-      <c r="AL5" s="246"/>
-      <c r="AM5" s="246"/>
-      <c r="AN5" s="235" t="s">
+      <c r="W5" s="240"/>
+      <c r="X5" s="240"/>
+      <c r="Y5" s="240"/>
+      <c r="Z5" s="240"/>
+      <c r="AA5" s="240"/>
+      <c r="AB5" s="240"/>
+      <c r="AC5" s="240"/>
+      <c r="AD5" s="240"/>
+      <c r="AE5" s="240"/>
+      <c r="AF5" s="240"/>
+      <c r="AG5" s="240"/>
+      <c r="AH5" s="240"/>
+      <c r="AI5" s="240"/>
+      <c r="AJ5" s="240"/>
+      <c r="AK5" s="240"/>
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="240"/>
+      <c r="AN5" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="AO5" s="235"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="235"/>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="235"/>
-      <c r="AU5" s="235"/>
-      <c r="AV5" s="235"/>
-      <c r="AW5" s="235"/>
+      <c r="AO5" s="231"/>
+      <c r="AP5" s="231"/>
+      <c r="AQ5" s="231"/>
+      <c r="AR5" s="231"/>
+      <c r="AS5" s="231"/>
+      <c r="AT5" s="231"/>
+      <c r="AU5" s="231"/>
+      <c r="AV5" s="231"/>
+      <c r="AW5" s="231"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="247"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="250"/>
-      <c r="N6" s="251"/>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="246"/>
-      <c r="W6" s="246"/>
-      <c r="X6" s="246"/>
-      <c r="Y6" s="246"/>
-      <c r="Z6" s="246"/>
-      <c r="AA6" s="246"/>
-      <c r="AB6" s="246"/>
-      <c r="AC6" s="246"/>
-      <c r="AD6" s="246"/>
-      <c r="AE6" s="246"/>
-      <c r="AF6" s="246"/>
-      <c r="AG6" s="246"/>
-      <c r="AH6" s="246"/>
-      <c r="AI6" s="246"/>
-      <c r="AJ6" s="246"/>
-      <c r="AK6" s="246"/>
-      <c r="AL6" s="246"/>
-      <c r="AM6" s="246"/>
-      <c r="AN6" s="235"/>
-      <c r="AO6" s="235"/>
-      <c r="AP6" s="235"/>
-      <c r="AQ6" s="235"/>
-      <c r="AR6" s="235"/>
-      <c r="AS6" s="235"/>
-      <c r="AT6" s="235"/>
-      <c r="AU6" s="235"/>
-      <c r="AV6" s="235"/>
-      <c r="AW6" s="235"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="239"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="231"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="231"/>
+      <c r="AO6" s="231"/>
+      <c r="AP6" s="231"/>
+      <c r="AQ6" s="231"/>
+      <c r="AR6" s="231"/>
+      <c r="AS6" s="231"/>
+      <c r="AT6" s="231"/>
+      <c r="AU6" s="231"/>
+      <c r="AV6" s="231"/>
+      <c r="AW6" s="231"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="252"/>
-      <c r="S7" s="235"/>
-      <c r="T7" s="235"/>
-      <c r="U7" s="235"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="246"/>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="246"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="246"/>
-      <c r="AE7" s="246"/>
-      <c r="AF7" s="246"/>
-      <c r="AG7" s="246"/>
-      <c r="AH7" s="246"/>
-      <c r="AI7" s="246"/>
-      <c r="AJ7" s="246"/>
-      <c r="AK7" s="246"/>
-      <c r="AL7" s="246"/>
-      <c r="AM7" s="246"/>
-      <c r="AN7" s="235"/>
-      <c r="AO7" s="235"/>
-      <c r="AP7" s="235"/>
-      <c r="AQ7" s="235"/>
-      <c r="AR7" s="235"/>
-      <c r="AS7" s="235"/>
-      <c r="AT7" s="235"/>
-      <c r="AU7" s="235"/>
-      <c r="AV7" s="235"/>
-      <c r="AW7" s="235"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="238"/>
+      <c r="O7" s="238"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="240"/>
+      <c r="AK7" s="240"/>
+      <c r="AL7" s="240"/>
+      <c r="AM7" s="240"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="231"/>
+      <c r="AQ7" s="231"/>
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="231"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="231"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="231"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="251"/>
-      <c r="O8" s="251"/>
-      <c r="P8" s="251"/>
-      <c r="Q8" s="251"/>
-      <c r="R8" s="252"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="246"/>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="246"/>
-      <c r="AL8" s="246"/>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="235"/>
-      <c r="AO8" s="235"/>
-      <c r="AP8" s="235"/>
-      <c r="AQ8" s="235"/>
-      <c r="AR8" s="235"/>
-      <c r="AS8" s="235"/>
-      <c r="AT8" s="235"/>
-      <c r="AU8" s="235"/>
-      <c r="AV8" s="235"/>
-      <c r="AW8" s="235"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="238"/>
+      <c r="P8" s="238"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="240"/>
+      <c r="W8" s="240"/>
+      <c r="X8" s="240"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="240"/>
+      <c r="AC8" s="240"/>
+      <c r="AD8" s="240"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="240"/>
+      <c r="AH8" s="240"/>
+      <c r="AI8" s="240"/>
+      <c r="AJ8" s="240"/>
+      <c r="AK8" s="240"/>
+      <c r="AL8" s="240"/>
+      <c r="AM8" s="240"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="231"/>
+      <c r="AP8" s="231"/>
+      <c r="AQ8" s="231"/>
+      <c r="AR8" s="231"/>
+      <c r="AS8" s="231"/>
+      <c r="AT8" s="231"/>
+      <c r="AU8" s="231"/>
+      <c r="AV8" s="231"/>
+      <c r="AW8" s="231"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="250"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="251"/>
-      <c r="P9" s="251"/>
-      <c r="Q9" s="251"/>
-      <c r="R9" s="252"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="235"/>
-      <c r="U9" s="235"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="246"/>
-      <c r="AH9" s="246"/>
-      <c r="AI9" s="246"/>
-      <c r="AJ9" s="246"/>
-      <c r="AK9" s="246"/>
-      <c r="AL9" s="246"/>
-      <c r="AM9" s="246"/>
-      <c r="AN9" s="235"/>
-      <c r="AO9" s="235"/>
-      <c r="AP9" s="235"/>
-      <c r="AQ9" s="235"/>
-      <c r="AR9" s="235"/>
-      <c r="AS9" s="235"/>
-      <c r="AT9" s="235"/>
-      <c r="AU9" s="235"/>
-      <c r="AV9" s="235"/>
-      <c r="AW9" s="235"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="238"/>
+      <c r="Q9" s="238"/>
+      <c r="R9" s="239"/>
+      <c r="S9" s="231"/>
+      <c r="T9" s="231"/>
+      <c r="U9" s="231"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="240"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="240"/>
+      <c r="AA9" s="240"/>
+      <c r="AB9" s="240"/>
+      <c r="AC9" s="240"/>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="240"/>
+      <c r="AF9" s="240"/>
+      <c r="AG9" s="240"/>
+      <c r="AH9" s="240"/>
+      <c r="AI9" s="240"/>
+      <c r="AJ9" s="240"/>
+      <c r="AK9" s="240"/>
+      <c r="AL9" s="240"/>
+      <c r="AM9" s="240"/>
+      <c r="AN9" s="231"/>
+      <c r="AO9" s="231"/>
+      <c r="AP9" s="231"/>
+      <c r="AQ9" s="231"/>
+      <c r="AR9" s="231"/>
+      <c r="AS9" s="231"/>
+      <c r="AT9" s="231"/>
+      <c r="AU9" s="231"/>
+      <c r="AV9" s="231"/>
+      <c r="AW9" s="231"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="230"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="250"/>
-      <c r="N10" s="251"/>
-      <c r="O10" s="251"/>
-      <c r="P10" s="251"/>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="252"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="235"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="246"/>
-      <c r="AF10" s="246"/>
-      <c r="AG10" s="246"/>
-      <c r="AH10" s="246"/>
-      <c r="AI10" s="246"/>
-      <c r="AJ10" s="246"/>
-      <c r="AK10" s="246"/>
-      <c r="AL10" s="246"/>
-      <c r="AM10" s="246"/>
-      <c r="AN10" s="235"/>
-      <c r="AO10" s="235"/>
-      <c r="AP10" s="235"/>
-      <c r="AQ10" s="235"/>
-      <c r="AR10" s="235"/>
-      <c r="AS10" s="235"/>
-      <c r="AT10" s="235"/>
-      <c r="AU10" s="235"/>
-      <c r="AV10" s="235"/>
-      <c r="AW10" s="235"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="231"/>
+      <c r="T10" s="231"/>
+      <c r="U10" s="231"/>
+      <c r="V10" s="240"/>
+      <c r="W10" s="240"/>
+      <c r="X10" s="240"/>
+      <c r="Y10" s="240"/>
+      <c r="Z10" s="240"/>
+      <c r="AA10" s="240"/>
+      <c r="AB10" s="240"/>
+      <c r="AC10" s="240"/>
+      <c r="AD10" s="240"/>
+      <c r="AE10" s="240"/>
+      <c r="AF10" s="240"/>
+      <c r="AG10" s="240"/>
+      <c r="AH10" s="240"/>
+      <c r="AI10" s="240"/>
+      <c r="AJ10" s="240"/>
+      <c r="AK10" s="240"/>
+      <c r="AL10" s="240"/>
+      <c r="AM10" s="240"/>
+      <c r="AN10" s="231"/>
+      <c r="AO10" s="231"/>
+      <c r="AP10" s="231"/>
+      <c r="AQ10" s="231"/>
+      <c r="AR10" s="231"/>
+      <c r="AS10" s="231"/>
+      <c r="AT10" s="231"/>
+      <c r="AU10" s="231"/>
+      <c r="AV10" s="231"/>
+      <c r="AW10" s="231"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="230"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="242"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="240"/>
-      <c r="P11" s="240"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="235"/>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="236"/>
-      <c r="W11" s="248"/>
-      <c r="X11" s="248"/>
-      <c r="Y11" s="248"/>
-      <c r="Z11" s="248"/>
-      <c r="AA11" s="248"/>
-      <c r="AB11" s="248"/>
-      <c r="AC11" s="248"/>
-      <c r="AD11" s="248"/>
-      <c r="AE11" s="248"/>
-      <c r="AF11" s="248"/>
-      <c r="AG11" s="248"/>
-      <c r="AH11" s="248"/>
-      <c r="AI11" s="248"/>
-      <c r="AJ11" s="248"/>
-      <c r="AK11" s="248"/>
-      <c r="AL11" s="248"/>
-      <c r="AM11" s="249"/>
-      <c r="AN11" s="235"/>
-      <c r="AO11" s="235"/>
-      <c r="AP11" s="235"/>
-      <c r="AQ11" s="235"/>
-      <c r="AR11" s="235"/>
-      <c r="AS11" s="235"/>
-      <c r="AT11" s="235"/>
-      <c r="AU11" s="235"/>
-      <c r="AV11" s="235"/>
-      <c r="AW11" s="235"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="244"/>
+      <c r="N11" s="245"/>
+      <c r="O11" s="245"/>
+      <c r="P11" s="245"/>
+      <c r="Q11" s="245"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="231"/>
+      <c r="U11" s="231"/>
+      <c r="V11" s="247"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="253"/>
+      <c r="AH11" s="253"/>
+      <c r="AI11" s="253"/>
+      <c r="AJ11" s="253"/>
+      <c r="AK11" s="253"/>
+      <c r="AL11" s="253"/>
+      <c r="AM11" s="254"/>
+      <c r="AN11" s="231"/>
+      <c r="AO11" s="231"/>
+      <c r="AP11" s="231"/>
+      <c r="AQ11" s="231"/>
+      <c r="AR11" s="231"/>
+      <c r="AS11" s="231"/>
+      <c r="AT11" s="231"/>
+      <c r="AU11" s="231"/>
+      <c r="AV11" s="231"/>
+      <c r="AW11" s="231"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="240"/>
-      <c r="O12" s="240"/>
-      <c r="P12" s="240"/>
-      <c r="Q12" s="240"/>
-      <c r="R12" s="241"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="236"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="237"/>
-      <c r="Z12" s="237"/>
-      <c r="AA12" s="237"/>
-      <c r="AB12" s="237"/>
-      <c r="AC12" s="237"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="237"/>
-      <c r="AF12" s="237"/>
-      <c r="AG12" s="237"/>
-      <c r="AH12" s="237"/>
-      <c r="AI12" s="237"/>
-      <c r="AJ12" s="237"/>
-      <c r="AK12" s="237"/>
-      <c r="AL12" s="237"/>
-      <c r="AM12" s="238"/>
-      <c r="AN12" s="222"/>
-      <c r="AO12" s="223"/>
-      <c r="AP12" s="223"/>
-      <c r="AQ12" s="223"/>
-      <c r="AR12" s="224"/>
-      <c r="AS12" s="222"/>
-      <c r="AT12" s="223"/>
-      <c r="AU12" s="223"/>
-      <c r="AV12" s="223"/>
-      <c r="AW12" s="224"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="233"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="244"/>
+      <c r="N12" s="245"/>
+      <c r="O12" s="245"/>
+      <c r="P12" s="245"/>
+      <c r="Q12" s="245"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="231"/>
+      <c r="T12" s="231"/>
+      <c r="U12" s="231"/>
+      <c r="V12" s="247"/>
+      <c r="W12" s="248"/>
+      <c r="X12" s="248"/>
+      <c r="Y12" s="248"/>
+      <c r="Z12" s="248"/>
+      <c r="AA12" s="248"/>
+      <c r="AB12" s="248"/>
+      <c r="AC12" s="248"/>
+      <c r="AD12" s="248"/>
+      <c r="AE12" s="248"/>
+      <c r="AF12" s="248"/>
+      <c r="AG12" s="248"/>
+      <c r="AH12" s="248"/>
+      <c r="AI12" s="248"/>
+      <c r="AJ12" s="248"/>
+      <c r="AK12" s="248"/>
+      <c r="AL12" s="248"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="250"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="251"/>
+      <c r="AQ12" s="251"/>
+      <c r="AR12" s="252"/>
+      <c r="AS12" s="250"/>
+      <c r="AT12" s="251"/>
+      <c r="AU12" s="251"/>
+      <c r="AV12" s="251"/>
+      <c r="AW12" s="252"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="230"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="240"/>
-      <c r="O13" s="240"/>
-      <c r="P13" s="240"/>
-      <c r="Q13" s="240"/>
-      <c r="R13" s="241"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="235"/>
-      <c r="U13" s="235"/>
-      <c r="V13" s="236"/>
-      <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="237"/>
-      <c r="Z13" s="237"/>
-      <c r="AA13" s="237"/>
-      <c r="AB13" s="237"/>
-      <c r="AC13" s="237"/>
-      <c r="AD13" s="237"/>
-      <c r="AE13" s="237"/>
-      <c r="AF13" s="237"/>
-      <c r="AG13" s="237"/>
-      <c r="AH13" s="237"/>
-      <c r="AI13" s="237"/>
-      <c r="AJ13" s="237"/>
-      <c r="AK13" s="237"/>
-      <c r="AL13" s="237"/>
-      <c r="AM13" s="238"/>
-      <c r="AN13" s="222"/>
-      <c r="AO13" s="223"/>
-      <c r="AP13" s="223"/>
-      <c r="AQ13" s="223"/>
-      <c r="AR13" s="224"/>
-      <c r="AS13" s="222"/>
-      <c r="AT13" s="223"/>
-      <c r="AU13" s="223"/>
-      <c r="AV13" s="223"/>
-      <c r="AW13" s="224"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="231"/>
+      <c r="T13" s="231"/>
+      <c r="U13" s="231"/>
+      <c r="V13" s="247"/>
+      <c r="W13" s="248"/>
+      <c r="X13" s="248"/>
+      <c r="Y13" s="248"/>
+      <c r="Z13" s="248"/>
+      <c r="AA13" s="248"/>
+      <c r="AB13" s="248"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="248"/>
+      <c r="AE13" s="248"/>
+      <c r="AF13" s="248"/>
+      <c r="AG13" s="248"/>
+      <c r="AH13" s="248"/>
+      <c r="AI13" s="248"/>
+      <c r="AJ13" s="248"/>
+      <c r="AK13" s="248"/>
+      <c r="AL13" s="248"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="250"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="251"/>
+      <c r="AQ13" s="251"/>
+      <c r="AR13" s="252"/>
+      <c r="AS13" s="250"/>
+      <c r="AT13" s="251"/>
+      <c r="AU13" s="251"/>
+      <c r="AV13" s="251"/>
+      <c r="AW13" s="252"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="240"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="240"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="241"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="235"/>
-      <c r="U14" s="235"/>
-      <c r="V14" s="245"/>
-      <c r="W14" s="246"/>
-      <c r="X14" s="246"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="246"/>
-      <c r="AH14" s="246"/>
-      <c r="AI14" s="246"/>
-      <c r="AJ14" s="246"/>
-      <c r="AK14" s="246"/>
-      <c r="AL14" s="246"/>
-      <c r="AM14" s="246"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235"/>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="222"/>
-      <c r="AT14" s="223"/>
-      <c r="AU14" s="223"/>
-      <c r="AV14" s="223"/>
-      <c r="AW14" s="224"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="245"/>
+      <c r="Q14" s="245"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="231"/>
+      <c r="V14" s="256"/>
+      <c r="W14" s="240"/>
+      <c r="X14" s="240"/>
+      <c r="Y14" s="240"/>
+      <c r="Z14" s="240"/>
+      <c r="AA14" s="240"/>
+      <c r="AB14" s="240"/>
+      <c r="AC14" s="240"/>
+      <c r="AD14" s="240"/>
+      <c r="AE14" s="240"/>
+      <c r="AF14" s="240"/>
+      <c r="AG14" s="240"/>
+      <c r="AH14" s="240"/>
+      <c r="AI14" s="240"/>
+      <c r="AJ14" s="240"/>
+      <c r="AK14" s="240"/>
+      <c r="AL14" s="240"/>
+      <c r="AM14" s="240"/>
+      <c r="AN14" s="231"/>
+      <c r="AO14" s="231"/>
+      <c r="AP14" s="231"/>
+      <c r="AQ14" s="231"/>
+      <c r="AR14" s="231"/>
+      <c r="AS14" s="250"/>
+      <c r="AT14" s="251"/>
+      <c r="AU14" s="251"/>
+      <c r="AV14" s="251"/>
+      <c r="AW14" s="252"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="225"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="230"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="242"/>
-      <c r="N15" s="240"/>
-      <c r="O15" s="240"/>
-      <c r="P15" s="240"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="241"/>
-      <c r="S15" s="235"/>
-      <c r="T15" s="235"/>
-      <c r="U15" s="235"/>
-      <c r="V15" s="236"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="237"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="237"/>
-      <c r="AH15" s="237"/>
-      <c r="AI15" s="237"/>
-      <c r="AJ15" s="237"/>
-      <c r="AK15" s="237"/>
-      <c r="AL15" s="237"/>
-      <c r="AM15" s="238"/>
-      <c r="AN15" s="222"/>
-      <c r="AO15" s="223"/>
-      <c r="AP15" s="223"/>
-      <c r="AQ15" s="223"/>
-      <c r="AR15" s="224"/>
-      <c r="AS15" s="222"/>
-      <c r="AT15" s="223"/>
-      <c r="AU15" s="223"/>
-      <c r="AV15" s="223"/>
-      <c r="AW15" s="224"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="246"/>
+      <c r="S15" s="231"/>
+      <c r="T15" s="231"/>
+      <c r="U15" s="231"/>
+      <c r="V15" s="247"/>
+      <c r="W15" s="248"/>
+      <c r="X15" s="248"/>
+      <c r="Y15" s="248"/>
+      <c r="Z15" s="248"/>
+      <c r="AA15" s="248"/>
+      <c r="AB15" s="248"/>
+      <c r="AC15" s="248"/>
+      <c r="AD15" s="248"/>
+      <c r="AE15" s="248"/>
+      <c r="AF15" s="248"/>
+      <c r="AG15" s="248"/>
+      <c r="AH15" s="248"/>
+      <c r="AI15" s="248"/>
+      <c r="AJ15" s="248"/>
+      <c r="AK15" s="248"/>
+      <c r="AL15" s="248"/>
+      <c r="AM15" s="249"/>
+      <c r="AN15" s="250"/>
+      <c r="AO15" s="251"/>
+      <c r="AP15" s="251"/>
+      <c r="AQ15" s="251"/>
+      <c r="AR15" s="252"/>
+      <c r="AS15" s="250"/>
+      <c r="AT15" s="251"/>
+      <c r="AU15" s="251"/>
+      <c r="AV15" s="251"/>
+      <c r="AW15" s="252"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="225"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="242"/>
-      <c r="N16" s="240"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="240"/>
-      <c r="R16" s="241"/>
-      <c r="S16" s="235"/>
-      <c r="T16" s="235"/>
-      <c r="U16" s="235"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="237"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="237"/>
-      <c r="AH16" s="237"/>
-      <c r="AI16" s="237"/>
-      <c r="AJ16" s="237"/>
-      <c r="AK16" s="237"/>
-      <c r="AL16" s="237"/>
-      <c r="AM16" s="238"/>
-      <c r="AN16" s="222"/>
-      <c r="AO16" s="223"/>
-      <c r="AP16" s="223"/>
-      <c r="AQ16" s="223"/>
-      <c r="AR16" s="224"/>
-      <c r="AS16" s="222"/>
-      <c r="AT16" s="223"/>
-      <c r="AU16" s="223"/>
-      <c r="AV16" s="223"/>
-      <c r="AW16" s="224"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="244"/>
+      <c r="N16" s="245"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="245"/>
+      <c r="Q16" s="245"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="231"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="231"/>
+      <c r="V16" s="247"/>
+      <c r="W16" s="248"/>
+      <c r="X16" s="248"/>
+      <c r="Y16" s="248"/>
+      <c r="Z16" s="248"/>
+      <c r="AA16" s="248"/>
+      <c r="AB16" s="248"/>
+      <c r="AC16" s="248"/>
+      <c r="AD16" s="248"/>
+      <c r="AE16" s="248"/>
+      <c r="AF16" s="248"/>
+      <c r="AG16" s="248"/>
+      <c r="AH16" s="248"/>
+      <c r="AI16" s="248"/>
+      <c r="AJ16" s="248"/>
+      <c r="AK16" s="248"/>
+      <c r="AL16" s="248"/>
+      <c r="AM16" s="249"/>
+      <c r="AN16" s="250"/>
+      <c r="AO16" s="251"/>
+      <c r="AP16" s="251"/>
+      <c r="AQ16" s="251"/>
+      <c r="AR16" s="252"/>
+      <c r="AS16" s="250"/>
+      <c r="AT16" s="251"/>
+      <c r="AU16" s="251"/>
+      <c r="AV16" s="251"/>
+      <c r="AW16" s="252"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="225"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="229"/>
-      <c r="K17" s="230"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="242"/>
-      <c r="N17" s="240"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="243"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="244"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="236"/>
-      <c r="W17" s="237"/>
-      <c r="X17" s="237"/>
-      <c r="Y17" s="237"/>
-      <c r="Z17" s="237"/>
-      <c r="AA17" s="237"/>
-      <c r="AB17" s="237"/>
-      <c r="AC17" s="237"/>
-      <c r="AD17" s="237"/>
-      <c r="AE17" s="237"/>
-      <c r="AF17" s="237"/>
-      <c r="AG17" s="237"/>
-      <c r="AH17" s="237"/>
-      <c r="AI17" s="237"/>
-      <c r="AJ17" s="237"/>
-      <c r="AK17" s="237"/>
-      <c r="AL17" s="237"/>
-      <c r="AM17" s="238"/>
-      <c r="AN17" s="222"/>
-      <c r="AO17" s="223"/>
-      <c r="AP17" s="223"/>
-      <c r="AQ17" s="223"/>
-      <c r="AR17" s="224"/>
-      <c r="AS17" s="222"/>
-      <c r="AT17" s="223"/>
-      <c r="AU17" s="223"/>
-      <c r="AV17" s="223"/>
-      <c r="AW17" s="224"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="236"/>
+      <c r="M17" s="244"/>
+      <c r="N17" s="245"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="257"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="258"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="247"/>
+      <c r="W17" s="248"/>
+      <c r="X17" s="248"/>
+      <c r="Y17" s="248"/>
+      <c r="Z17" s="248"/>
+      <c r="AA17" s="248"/>
+      <c r="AB17" s="248"/>
+      <c r="AC17" s="248"/>
+      <c r="AD17" s="248"/>
+      <c r="AE17" s="248"/>
+      <c r="AF17" s="248"/>
+      <c r="AG17" s="248"/>
+      <c r="AH17" s="248"/>
+      <c r="AI17" s="248"/>
+      <c r="AJ17" s="248"/>
+      <c r="AK17" s="248"/>
+      <c r="AL17" s="248"/>
+      <c r="AM17" s="249"/>
+      <c r="AN17" s="250"/>
+      <c r="AO17" s="251"/>
+      <c r="AP17" s="251"/>
+      <c r="AQ17" s="251"/>
+      <c r="AR17" s="252"/>
+      <c r="AS17" s="250"/>
+      <c r="AT17" s="251"/>
+      <c r="AU17" s="251"/>
+      <c r="AV17" s="251"/>
+      <c r="AW17" s="252"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="225"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="230"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="239"/>
-      <c r="N18" s="240"/>
-      <c r="O18" s="240"/>
-      <c r="P18" s="240"/>
-      <c r="Q18" s="240"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="235"/>
-      <c r="U18" s="235"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="237"/>
-      <c r="X18" s="237"/>
-      <c r="Y18" s="237"/>
-      <c r="Z18" s="237"/>
-      <c r="AA18" s="237"/>
-      <c r="AB18" s="237"/>
-      <c r="AC18" s="237"/>
-      <c r="AD18" s="237"/>
-      <c r="AE18" s="237"/>
-      <c r="AF18" s="237"/>
-      <c r="AG18" s="237"/>
-      <c r="AH18" s="237"/>
-      <c r="AI18" s="237"/>
-      <c r="AJ18" s="237"/>
-      <c r="AK18" s="237"/>
-      <c r="AL18" s="237"/>
-      <c r="AM18" s="238"/>
-      <c r="AN18" s="222"/>
-      <c r="AO18" s="223"/>
-      <c r="AP18" s="223"/>
-      <c r="AQ18" s="223"/>
-      <c r="AR18" s="224"/>
-      <c r="AS18" s="222"/>
-      <c r="AT18" s="223"/>
-      <c r="AU18" s="223"/>
-      <c r="AV18" s="223"/>
-      <c r="AW18" s="224"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="245"/>
+      <c r="Q18" s="245"/>
+      <c r="R18" s="246"/>
+      <c r="S18" s="231"/>
+      <c r="T18" s="231"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="247"/>
+      <c r="W18" s="248"/>
+      <c r="X18" s="248"/>
+      <c r="Y18" s="248"/>
+      <c r="Z18" s="248"/>
+      <c r="AA18" s="248"/>
+      <c r="AB18" s="248"/>
+      <c r="AC18" s="248"/>
+      <c r="AD18" s="248"/>
+      <c r="AE18" s="248"/>
+      <c r="AF18" s="248"/>
+      <c r="AG18" s="248"/>
+      <c r="AH18" s="248"/>
+      <c r="AI18" s="248"/>
+      <c r="AJ18" s="248"/>
+      <c r="AK18" s="248"/>
+      <c r="AL18" s="248"/>
+      <c r="AM18" s="249"/>
+      <c r="AN18" s="250"/>
+      <c r="AO18" s="251"/>
+      <c r="AP18" s="251"/>
+      <c r="AQ18" s="251"/>
+      <c r="AR18" s="252"/>
+      <c r="AS18" s="250"/>
+      <c r="AT18" s="251"/>
+      <c r="AU18" s="251"/>
+      <c r="AV18" s="251"/>
+      <c r="AW18" s="252"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="225"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="241"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="235"/>
-      <c r="U19" s="235"/>
-      <c r="V19" s="236"/>
-      <c r="W19" s="237"/>
-      <c r="X19" s="237"/>
-      <c r="Y19" s="237"/>
-      <c r="Z19" s="237"/>
-      <c r="AA19" s="237"/>
-      <c r="AB19" s="237"/>
-      <c r="AC19" s="237"/>
-      <c r="AD19" s="237"/>
-      <c r="AE19" s="237"/>
-      <c r="AF19" s="237"/>
-      <c r="AG19" s="237"/>
-      <c r="AH19" s="237"/>
-      <c r="AI19" s="237"/>
-      <c r="AJ19" s="237"/>
-      <c r="AK19" s="237"/>
-      <c r="AL19" s="237"/>
-      <c r="AM19" s="238"/>
-      <c r="AN19" s="235"/>
-      <c r="AO19" s="235"/>
-      <c r="AP19" s="235"/>
-      <c r="AQ19" s="235"/>
-      <c r="AR19" s="235"/>
-      <c r="AS19" s="222"/>
-      <c r="AT19" s="223"/>
-      <c r="AU19" s="223"/>
-      <c r="AV19" s="223"/>
-      <c r="AW19" s="224"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="245"/>
+      <c r="O19" s="245"/>
+      <c r="P19" s="245"/>
+      <c r="Q19" s="245"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="231"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="247"/>
+      <c r="W19" s="248"/>
+      <c r="X19" s="248"/>
+      <c r="Y19" s="248"/>
+      <c r="Z19" s="248"/>
+      <c r="AA19" s="248"/>
+      <c r="AB19" s="248"/>
+      <c r="AC19" s="248"/>
+      <c r="AD19" s="248"/>
+      <c r="AE19" s="248"/>
+      <c r="AF19" s="248"/>
+      <c r="AG19" s="248"/>
+      <c r="AH19" s="248"/>
+      <c r="AI19" s="248"/>
+      <c r="AJ19" s="248"/>
+      <c r="AK19" s="248"/>
+      <c r="AL19" s="248"/>
+      <c r="AM19" s="249"/>
+      <c r="AN19" s="231"/>
+      <c r="AO19" s="231"/>
+      <c r="AP19" s="231"/>
+      <c r="AQ19" s="231"/>
+      <c r="AR19" s="231"/>
+      <c r="AS19" s="250"/>
+      <c r="AT19" s="251"/>
+      <c r="AU19" s="251"/>
+      <c r="AV19" s="251"/>
+      <c r="AW19" s="252"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="225"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="242"/>
-      <c r="N20" s="240"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="240"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="223"/>
-      <c r="U20" s="224"/>
-      <c r="V20" s="236"/>
-      <c r="W20" s="237"/>
-      <c r="X20" s="237"/>
-      <c r="Y20" s="237"/>
-      <c r="Z20" s="237"/>
-      <c r="AA20" s="237"/>
-      <c r="AB20" s="237"/>
-      <c r="AC20" s="237"/>
-      <c r="AD20" s="237"/>
-      <c r="AE20" s="237"/>
-      <c r="AF20" s="237"/>
-      <c r="AG20" s="237"/>
-      <c r="AH20" s="237"/>
-      <c r="AI20" s="237"/>
-      <c r="AJ20" s="237"/>
-      <c r="AK20" s="237"/>
-      <c r="AL20" s="237"/>
-      <c r="AM20" s="238"/>
-      <c r="AN20" s="222"/>
-      <c r="AO20" s="223"/>
-      <c r="AP20" s="223"/>
-      <c r="AQ20" s="223"/>
-      <c r="AR20" s="224"/>
-      <c r="AS20" s="222"/>
-      <c r="AT20" s="223"/>
-      <c r="AU20" s="223"/>
-      <c r="AV20" s="223"/>
-      <c r="AW20" s="224"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="250"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="252"/>
+      <c r="V20" s="247"/>
+      <c r="W20" s="248"/>
+      <c r="X20" s="248"/>
+      <c r="Y20" s="248"/>
+      <c r="Z20" s="248"/>
+      <c r="AA20" s="248"/>
+      <c r="AB20" s="248"/>
+      <c r="AC20" s="248"/>
+      <c r="AD20" s="248"/>
+      <c r="AE20" s="248"/>
+      <c r="AF20" s="248"/>
+      <c r="AG20" s="248"/>
+      <c r="AH20" s="248"/>
+      <c r="AI20" s="248"/>
+      <c r="AJ20" s="248"/>
+      <c r="AK20" s="248"/>
+      <c r="AL20" s="248"/>
+      <c r="AM20" s="249"/>
+      <c r="AN20" s="250"/>
+      <c r="AO20" s="251"/>
+      <c r="AP20" s="251"/>
+      <c r="AQ20" s="251"/>
+      <c r="AR20" s="252"/>
+      <c r="AS20" s="250"/>
+      <c r="AT20" s="251"/>
+      <c r="AU20" s="251"/>
+      <c r="AV20" s="251"/>
+      <c r="AW20" s="252"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="225"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="228"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="242"/>
-      <c r="N21" s="240"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="235"/>
-      <c r="U21" s="235"/>
-      <c r="V21" s="236"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="237"/>
-      <c r="Y21" s="237"/>
-      <c r="Z21" s="237"/>
-      <c r="AA21" s="237"/>
-      <c r="AB21" s="237"/>
-      <c r="AC21" s="237"/>
-      <c r="AD21" s="237"/>
-      <c r="AE21" s="237"/>
-      <c r="AF21" s="237"/>
-      <c r="AG21" s="237"/>
-      <c r="AH21" s="237"/>
-      <c r="AI21" s="237"/>
-      <c r="AJ21" s="237"/>
-      <c r="AK21" s="237"/>
-      <c r="AL21" s="237"/>
-      <c r="AM21" s="238"/>
-      <c r="AN21" s="222"/>
-      <c r="AO21" s="223"/>
-      <c r="AP21" s="223"/>
-      <c r="AQ21" s="223"/>
-      <c r="AR21" s="224"/>
-      <c r="AS21" s="222"/>
-      <c r="AT21" s="223"/>
-      <c r="AU21" s="223"/>
-      <c r="AV21" s="223"/>
-      <c r="AW21" s="224"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="244"/>
+      <c r="N21" s="245"/>
+      <c r="O21" s="245"/>
+      <c r="P21" s="245"/>
+      <c r="Q21" s="245"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="231"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="247"/>
+      <c r="W21" s="248"/>
+      <c r="X21" s="248"/>
+      <c r="Y21" s="248"/>
+      <c r="Z21" s="248"/>
+      <c r="AA21" s="248"/>
+      <c r="AB21" s="248"/>
+      <c r="AC21" s="248"/>
+      <c r="AD21" s="248"/>
+      <c r="AE21" s="248"/>
+      <c r="AF21" s="248"/>
+      <c r="AG21" s="248"/>
+      <c r="AH21" s="248"/>
+      <c r="AI21" s="248"/>
+      <c r="AJ21" s="248"/>
+      <c r="AK21" s="248"/>
+      <c r="AL21" s="248"/>
+      <c r="AM21" s="249"/>
+      <c r="AN21" s="250"/>
+      <c r="AO21" s="251"/>
+      <c r="AP21" s="251"/>
+      <c r="AQ21" s="251"/>
+      <c r="AR21" s="252"/>
+      <c r="AS21" s="250"/>
+      <c r="AT21" s="251"/>
+      <c r="AU21" s="251"/>
+      <c r="AV21" s="251"/>
+      <c r="AW21" s="252"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="225"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="240"/>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="240"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="235"/>
-      <c r="U22" s="235"/>
-      <c r="V22" s="236"/>
-      <c r="W22" s="237"/>
-      <c r="X22" s="237"/>
-      <c r="Y22" s="237"/>
-      <c r="Z22" s="237"/>
-      <c r="AA22" s="237"/>
-      <c r="AB22" s="237"/>
-      <c r="AC22" s="237"/>
-      <c r="AD22" s="237"/>
-      <c r="AE22" s="237"/>
-      <c r="AF22" s="237"/>
-      <c r="AG22" s="237"/>
-      <c r="AH22" s="237"/>
-      <c r="AI22" s="237"/>
-      <c r="AJ22" s="237"/>
-      <c r="AK22" s="237"/>
-      <c r="AL22" s="237"/>
-      <c r="AM22" s="238"/>
-      <c r="AN22" s="222"/>
-      <c r="AO22" s="223"/>
-      <c r="AP22" s="223"/>
-      <c r="AQ22" s="223"/>
-      <c r="AR22" s="224"/>
-      <c r="AS22" s="222"/>
-      <c r="AT22" s="223"/>
-      <c r="AU22" s="223"/>
-      <c r="AV22" s="223"/>
-      <c r="AW22" s="224"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="233"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="244"/>
+      <c r="N22" s="245"/>
+      <c r="O22" s="245"/>
+      <c r="P22" s="245"/>
+      <c r="Q22" s="245"/>
+      <c r="R22" s="246"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="247"/>
+      <c r="W22" s="248"/>
+      <c r="X22" s="248"/>
+      <c r="Y22" s="248"/>
+      <c r="Z22" s="248"/>
+      <c r="AA22" s="248"/>
+      <c r="AB22" s="248"/>
+      <c r="AC22" s="248"/>
+      <c r="AD22" s="248"/>
+      <c r="AE22" s="248"/>
+      <c r="AF22" s="248"/>
+      <c r="AG22" s="248"/>
+      <c r="AH22" s="248"/>
+      <c r="AI22" s="248"/>
+      <c r="AJ22" s="248"/>
+      <c r="AK22" s="248"/>
+      <c r="AL22" s="248"/>
+      <c r="AM22" s="249"/>
+      <c r="AN22" s="250"/>
+      <c r="AO22" s="251"/>
+      <c r="AP22" s="251"/>
+      <c r="AQ22" s="251"/>
+      <c r="AR22" s="252"/>
+      <c r="AS22" s="250"/>
+      <c r="AT22" s="251"/>
+      <c r="AU22" s="251"/>
+      <c r="AV22" s="251"/>
+      <c r="AW22" s="252"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="240"/>
-      <c r="O23" s="240"/>
-      <c r="P23" s="240"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="235"/>
-      <c r="U23" s="235"/>
-      <c r="V23" s="236"/>
-      <c r="W23" s="237"/>
-      <c r="X23" s="237"/>
-      <c r="Y23" s="237"/>
-      <c r="Z23" s="237"/>
-      <c r="AA23" s="237"/>
-      <c r="AB23" s="237"/>
-      <c r="AC23" s="237"/>
-      <c r="AD23" s="237"/>
-      <c r="AE23" s="237"/>
-      <c r="AF23" s="237"/>
-      <c r="AG23" s="237"/>
-      <c r="AH23" s="237"/>
-      <c r="AI23" s="237"/>
-      <c r="AJ23" s="237"/>
-      <c r="AK23" s="237"/>
-      <c r="AL23" s="237"/>
-      <c r="AM23" s="238"/>
-      <c r="AN23" s="222"/>
-      <c r="AO23" s="223"/>
-      <c r="AP23" s="223"/>
-      <c r="AQ23" s="223"/>
-      <c r="AR23" s="224"/>
-      <c r="AS23" s="222"/>
-      <c r="AT23" s="223"/>
-      <c r="AU23" s="223"/>
-      <c r="AV23" s="223"/>
-      <c r="AW23" s="224"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="244"/>
+      <c r="N23" s="245"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="245"/>
+      <c r="Q23" s="245"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="247"/>
+      <c r="W23" s="248"/>
+      <c r="X23" s="248"/>
+      <c r="Y23" s="248"/>
+      <c r="Z23" s="248"/>
+      <c r="AA23" s="248"/>
+      <c r="AB23" s="248"/>
+      <c r="AC23" s="248"/>
+      <c r="AD23" s="248"/>
+      <c r="AE23" s="248"/>
+      <c r="AF23" s="248"/>
+      <c r="AG23" s="248"/>
+      <c r="AH23" s="248"/>
+      <c r="AI23" s="248"/>
+      <c r="AJ23" s="248"/>
+      <c r="AK23" s="248"/>
+      <c r="AL23" s="248"/>
+      <c r="AM23" s="249"/>
+      <c r="AN23" s="250"/>
+      <c r="AO23" s="251"/>
+      <c r="AP23" s="251"/>
+      <c r="AQ23" s="251"/>
+      <c r="AR23" s="252"/>
+      <c r="AS23" s="250"/>
+      <c r="AT23" s="251"/>
+      <c r="AU23" s="251"/>
+      <c r="AV23" s="251"/>
+      <c r="AW23" s="252"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="225"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="230"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="240"/>
-      <c r="O24" s="240"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="235"/>
-      <c r="U24" s="235"/>
-      <c r="V24" s="236"/>
-      <c r="W24" s="237"/>
-      <c r="X24" s="237"/>
-      <c r="Y24" s="237"/>
-      <c r="Z24" s="237"/>
-      <c r="AA24" s="237"/>
-      <c r="AB24" s="237"/>
-      <c r="AC24" s="237"/>
-      <c r="AD24" s="237"/>
-      <c r="AE24" s="237"/>
-      <c r="AF24" s="237"/>
-      <c r="AG24" s="237"/>
-      <c r="AH24" s="237"/>
-      <c r="AI24" s="237"/>
-      <c r="AJ24" s="237"/>
-      <c r="AK24" s="237"/>
-      <c r="AL24" s="237"/>
-      <c r="AM24" s="238"/>
-      <c r="AN24" s="222"/>
-      <c r="AO24" s="223"/>
-      <c r="AP24" s="223"/>
-      <c r="AQ24" s="223"/>
-      <c r="AR24" s="224"/>
-      <c r="AS24" s="222"/>
-      <c r="AT24" s="223"/>
-      <c r="AU24" s="223"/>
-      <c r="AV24" s="223"/>
-      <c r="AW24" s="224"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="236"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
+      <c r="Q24" s="245"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="231"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="231"/>
+      <c r="V24" s="247"/>
+      <c r="W24" s="248"/>
+      <c r="X24" s="248"/>
+      <c r="Y24" s="248"/>
+      <c r="Z24" s="248"/>
+      <c r="AA24" s="248"/>
+      <c r="AB24" s="248"/>
+      <c r="AC24" s="248"/>
+      <c r="AD24" s="248"/>
+      <c r="AE24" s="248"/>
+      <c r="AF24" s="248"/>
+      <c r="AG24" s="248"/>
+      <c r="AH24" s="248"/>
+      <c r="AI24" s="248"/>
+      <c r="AJ24" s="248"/>
+      <c r="AK24" s="248"/>
+      <c r="AL24" s="248"/>
+      <c r="AM24" s="249"/>
+      <c r="AN24" s="250"/>
+      <c r="AO24" s="251"/>
+      <c r="AP24" s="251"/>
+      <c r="AQ24" s="251"/>
+      <c r="AR24" s="252"/>
+      <c r="AS24" s="250"/>
+      <c r="AT24" s="251"/>
+      <c r="AU24" s="251"/>
+      <c r="AV24" s="251"/>
+      <c r="AW24" s="252"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="225"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="230"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="239"/>
-      <c r="N25" s="240"/>
-      <c r="O25" s="240"/>
-      <c r="P25" s="240"/>
-      <c r="Q25" s="240"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="235"/>
-      <c r="U25" s="235"/>
-      <c r="V25" s="236"/>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="237"/>
-      <c r="AC25" s="237"/>
-      <c r="AD25" s="237"/>
-      <c r="AE25" s="237"/>
-      <c r="AF25" s="237"/>
-      <c r="AG25" s="237"/>
-      <c r="AH25" s="237"/>
-      <c r="AI25" s="237"/>
-      <c r="AJ25" s="237"/>
-      <c r="AK25" s="237"/>
-      <c r="AL25" s="237"/>
-      <c r="AM25" s="238"/>
-      <c r="AN25" s="222"/>
-      <c r="AO25" s="223"/>
-      <c r="AP25" s="223"/>
-      <c r="AQ25" s="223"/>
-      <c r="AR25" s="224"/>
-      <c r="AS25" s="222"/>
-      <c r="AT25" s="223"/>
-      <c r="AU25" s="223"/>
-      <c r="AV25" s="223"/>
-      <c r="AW25" s="224"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="236"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="245"/>
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="247"/>
+      <c r="W25" s="248"/>
+      <c r="X25" s="248"/>
+      <c r="Y25" s="248"/>
+      <c r="Z25" s="248"/>
+      <c r="AA25" s="248"/>
+      <c r="AB25" s="248"/>
+      <c r="AC25" s="248"/>
+      <c r="AD25" s="248"/>
+      <c r="AE25" s="248"/>
+      <c r="AF25" s="248"/>
+      <c r="AG25" s="248"/>
+      <c r="AH25" s="248"/>
+      <c r="AI25" s="248"/>
+      <c r="AJ25" s="248"/>
+      <c r="AK25" s="248"/>
+      <c r="AL25" s="248"/>
+      <c r="AM25" s="249"/>
+      <c r="AN25" s="250"/>
+      <c r="AO25" s="251"/>
+      <c r="AP25" s="251"/>
+      <c r="AQ25" s="251"/>
+      <c r="AR25" s="252"/>
+      <c r="AS25" s="250"/>
+      <c r="AT25" s="251"/>
+      <c r="AU25" s="251"/>
+      <c r="AV25" s="251"/>
+      <c r="AW25" s="252"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="225"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="230"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="240"/>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="235"/>
-      <c r="U26" s="235"/>
-      <c r="V26" s="236"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="237"/>
-      <c r="Y26" s="237"/>
-      <c r="Z26" s="237"/>
-      <c r="AA26" s="237"/>
-      <c r="AB26" s="237"/>
-      <c r="AC26" s="237"/>
-      <c r="AD26" s="237"/>
-      <c r="AE26" s="237"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="237"/>
-      <c r="AH26" s="237"/>
-      <c r="AI26" s="237"/>
-      <c r="AJ26" s="237"/>
-      <c r="AK26" s="237"/>
-      <c r="AL26" s="237"/>
-      <c r="AM26" s="238"/>
-      <c r="AN26" s="222"/>
-      <c r="AO26" s="223"/>
-      <c r="AP26" s="223"/>
-      <c r="AQ26" s="223"/>
-      <c r="AR26" s="224"/>
-      <c r="AS26" s="222"/>
-      <c r="AT26" s="223"/>
-      <c r="AU26" s="223"/>
-      <c r="AV26" s="223"/>
-      <c r="AW26" s="224"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="236"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="245"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="231"/>
+      <c r="T26" s="231"/>
+      <c r="U26" s="231"/>
+      <c r="V26" s="247"/>
+      <c r="W26" s="248"/>
+      <c r="X26" s="248"/>
+      <c r="Y26" s="248"/>
+      <c r="Z26" s="248"/>
+      <c r="AA26" s="248"/>
+      <c r="AB26" s="248"/>
+      <c r="AC26" s="248"/>
+      <c r="AD26" s="248"/>
+      <c r="AE26" s="248"/>
+      <c r="AF26" s="248"/>
+      <c r="AG26" s="248"/>
+      <c r="AH26" s="248"/>
+      <c r="AI26" s="248"/>
+      <c r="AJ26" s="248"/>
+      <c r="AK26" s="248"/>
+      <c r="AL26" s="248"/>
+      <c r="AM26" s="249"/>
+      <c r="AN26" s="250"/>
+      <c r="AO26" s="251"/>
+      <c r="AP26" s="251"/>
+      <c r="AQ26" s="251"/>
+      <c r="AR26" s="252"/>
+      <c r="AS26" s="250"/>
+      <c r="AT26" s="251"/>
+      <c r="AU26" s="251"/>
+      <c r="AV26" s="251"/>
+      <c r="AW26" s="252"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="230"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="239"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="240"/>
-      <c r="P27" s="240"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="235"/>
-      <c r="T27" s="235"/>
-      <c r="U27" s="235"/>
-      <c r="V27" s="236"/>
-      <c r="W27" s="237"/>
-      <c r="X27" s="237"/>
-      <c r="Y27" s="237"/>
-      <c r="Z27" s="237"/>
-      <c r="AA27" s="237"/>
-      <c r="AB27" s="237"/>
-      <c r="AC27" s="237"/>
-      <c r="AD27" s="237"/>
-      <c r="AE27" s="237"/>
-      <c r="AF27" s="237"/>
-      <c r="AG27" s="237"/>
-      <c r="AH27" s="237"/>
-      <c r="AI27" s="237"/>
-      <c r="AJ27" s="237"/>
-      <c r="AK27" s="237"/>
-      <c r="AL27" s="237"/>
-      <c r="AM27" s="238"/>
-      <c r="AN27" s="222"/>
-      <c r="AO27" s="223"/>
-      <c r="AP27" s="223"/>
-      <c r="AQ27" s="223"/>
-      <c r="AR27" s="224"/>
-      <c r="AS27" s="222"/>
-      <c r="AT27" s="223"/>
-      <c r="AU27" s="223"/>
-      <c r="AV27" s="223"/>
-      <c r="AW27" s="224"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="234"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="236"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="247"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="248"/>
+      <c r="AC27" s="248"/>
+      <c r="AD27" s="248"/>
+      <c r="AE27" s="248"/>
+      <c r="AF27" s="248"/>
+      <c r="AG27" s="248"/>
+      <c r="AH27" s="248"/>
+      <c r="AI27" s="248"/>
+      <c r="AJ27" s="248"/>
+      <c r="AK27" s="248"/>
+      <c r="AL27" s="248"/>
+      <c r="AM27" s="249"/>
+      <c r="AN27" s="250"/>
+      <c r="AO27" s="251"/>
+      <c r="AP27" s="251"/>
+      <c r="AQ27" s="251"/>
+      <c r="AR27" s="252"/>
+      <c r="AS27" s="250"/>
+      <c r="AT27" s="251"/>
+      <c r="AU27" s="251"/>
+      <c r="AV27" s="251"/>
+      <c r="AW27" s="252"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="225"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="242"/>
-      <c r="N28" s="240"/>
-      <c r="O28" s="240"/>
-      <c r="P28" s="240"/>
-      <c r="Q28" s="240"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="235"/>
-      <c r="T28" s="235"/>
-      <c r="U28" s="235"/>
-      <c r="V28" s="236"/>
-      <c r="W28" s="237"/>
-      <c r="X28" s="237"/>
-      <c r="Y28" s="237"/>
-      <c r="Z28" s="237"/>
-      <c r="AA28" s="237"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="237"/>
-      <c r="AD28" s="237"/>
-      <c r="AE28" s="237"/>
-      <c r="AF28" s="237"/>
-      <c r="AG28" s="237"/>
-      <c r="AH28" s="237"/>
-      <c r="AI28" s="237"/>
-      <c r="AJ28" s="237"/>
-      <c r="AK28" s="237"/>
-      <c r="AL28" s="237"/>
-      <c r="AM28" s="238"/>
-      <c r="AN28" s="222"/>
-      <c r="AO28" s="223"/>
-      <c r="AP28" s="223"/>
-      <c r="AQ28" s="223"/>
-      <c r="AR28" s="224"/>
-      <c r="AS28" s="222"/>
-      <c r="AT28" s="223"/>
-      <c r="AU28" s="223"/>
-      <c r="AV28" s="223"/>
-      <c r="AW28" s="224"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="234"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="236"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="245"/>
+      <c r="O28" s="245"/>
+      <c r="P28" s="245"/>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="246"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="247"/>
+      <c r="W28" s="248"/>
+      <c r="X28" s="248"/>
+      <c r="Y28" s="248"/>
+      <c r="Z28" s="248"/>
+      <c r="AA28" s="248"/>
+      <c r="AB28" s="248"/>
+      <c r="AC28" s="248"/>
+      <c r="AD28" s="248"/>
+      <c r="AE28" s="248"/>
+      <c r="AF28" s="248"/>
+      <c r="AG28" s="248"/>
+      <c r="AH28" s="248"/>
+      <c r="AI28" s="248"/>
+      <c r="AJ28" s="248"/>
+      <c r="AK28" s="248"/>
+      <c r="AL28" s="248"/>
+      <c r="AM28" s="249"/>
+      <c r="AN28" s="250"/>
+      <c r="AO28" s="251"/>
+      <c r="AP28" s="251"/>
+      <c r="AQ28" s="251"/>
+      <c r="AR28" s="252"/>
+      <c r="AS28" s="250"/>
+      <c r="AT28" s="251"/>
+      <c r="AU28" s="251"/>
+      <c r="AV28" s="251"/>
+      <c r="AW28" s="252"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="225"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="229"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="242"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="240"/>
-      <c r="P29" s="240"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="241"/>
-      <c r="S29" s="235"/>
-      <c r="T29" s="235"/>
-      <c r="U29" s="235"/>
-      <c r="V29" s="236"/>
-      <c r="W29" s="237"/>
-      <c r="X29" s="237"/>
-      <c r="Y29" s="237"/>
-      <c r="Z29" s="237"/>
-      <c r="AA29" s="237"/>
-      <c r="AB29" s="237"/>
-      <c r="AC29" s="237"/>
-      <c r="AD29" s="237"/>
-      <c r="AE29" s="237"/>
-      <c r="AF29" s="237"/>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="237"/>
-      <c r="AI29" s="237"/>
-      <c r="AJ29" s="237"/>
-      <c r="AK29" s="237"/>
-      <c r="AL29" s="237"/>
-      <c r="AM29" s="238"/>
-      <c r="AN29" s="222"/>
-      <c r="AO29" s="223"/>
-      <c r="AP29" s="223"/>
-      <c r="AQ29" s="223"/>
-      <c r="AR29" s="224"/>
-      <c r="AS29" s="222"/>
-      <c r="AT29" s="223"/>
-      <c r="AU29" s="223"/>
-      <c r="AV29" s="223"/>
-      <c r="AW29" s="224"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="234"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="236"/>
+      <c r="M29" s="244"/>
+      <c r="N29" s="245"/>
+      <c r="O29" s="245"/>
+      <c r="P29" s="245"/>
+      <c r="Q29" s="245"/>
+      <c r="R29" s="246"/>
+      <c r="S29" s="231"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="247"/>
+      <c r="W29" s="248"/>
+      <c r="X29" s="248"/>
+      <c r="Y29" s="248"/>
+      <c r="Z29" s="248"/>
+      <c r="AA29" s="248"/>
+      <c r="AB29" s="248"/>
+      <c r="AC29" s="248"/>
+      <c r="AD29" s="248"/>
+      <c r="AE29" s="248"/>
+      <c r="AF29" s="248"/>
+      <c r="AG29" s="248"/>
+      <c r="AH29" s="248"/>
+      <c r="AI29" s="248"/>
+      <c r="AJ29" s="248"/>
+      <c r="AK29" s="248"/>
+      <c r="AL29" s="248"/>
+      <c r="AM29" s="249"/>
+      <c r="AN29" s="250"/>
+      <c r="AO29" s="251"/>
+      <c r="AP29" s="251"/>
+      <c r="AQ29" s="251"/>
+      <c r="AR29" s="252"/>
+      <c r="AS29" s="250"/>
+      <c r="AT29" s="251"/>
+      <c r="AU29" s="251"/>
+      <c r="AV29" s="251"/>
+      <c r="AW29" s="252"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="225"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="228"/>
-      <c r="J30" s="229"/>
-      <c r="K30" s="230"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="239"/>
-      <c r="N30" s="240"/>
-      <c r="O30" s="240"/>
-      <c r="P30" s="240"/>
-      <c r="Q30" s="240"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
-      <c r="U30" s="235"/>
-      <c r="V30" s="236"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="237"/>
-      <c r="Y30" s="237"/>
-      <c r="Z30" s="237"/>
-      <c r="AA30" s="237"/>
-      <c r="AB30" s="237"/>
-      <c r="AC30" s="237"/>
-      <c r="AD30" s="237"/>
-      <c r="AE30" s="237"/>
-      <c r="AF30" s="237"/>
-      <c r="AG30" s="237"/>
-      <c r="AH30" s="237"/>
-      <c r="AI30" s="237"/>
-      <c r="AJ30" s="237"/>
-      <c r="AK30" s="237"/>
-      <c r="AL30" s="237"/>
-      <c r="AM30" s="238"/>
-      <c r="AN30" s="222"/>
-      <c r="AO30" s="223"/>
-      <c r="AP30" s="223"/>
-      <c r="AQ30" s="223"/>
-      <c r="AR30" s="224"/>
-      <c r="AS30" s="222"/>
-      <c r="AT30" s="223"/>
-      <c r="AU30" s="223"/>
-      <c r="AV30" s="223"/>
-      <c r="AW30" s="224"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="245"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="245"/>
+      <c r="Q30" s="245"/>
+      <c r="R30" s="246"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="247"/>
+      <c r="W30" s="248"/>
+      <c r="X30" s="248"/>
+      <c r="Y30" s="248"/>
+      <c r="Z30" s="248"/>
+      <c r="AA30" s="248"/>
+      <c r="AB30" s="248"/>
+      <c r="AC30" s="248"/>
+      <c r="AD30" s="248"/>
+      <c r="AE30" s="248"/>
+      <c r="AF30" s="248"/>
+      <c r="AG30" s="248"/>
+      <c r="AH30" s="248"/>
+      <c r="AI30" s="248"/>
+      <c r="AJ30" s="248"/>
+      <c r="AK30" s="248"/>
+      <c r="AL30" s="248"/>
+      <c r="AM30" s="249"/>
+      <c r="AN30" s="250"/>
+      <c r="AO30" s="251"/>
+      <c r="AP30" s="251"/>
+      <c r="AQ30" s="251"/>
+      <c r="AR30" s="252"/>
+      <c r="AS30" s="250"/>
+      <c r="AT30" s="251"/>
+      <c r="AU30" s="251"/>
+      <c r="AV30" s="251"/>
+      <c r="AW30" s="252"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="225"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="229"/>
-      <c r="K31" s="230"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="239"/>
-      <c r="N31" s="240"/>
-      <c r="O31" s="240"/>
-      <c r="P31" s="240"/>
-      <c r="Q31" s="240"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="235"/>
-      <c r="T31" s="235"/>
-      <c r="U31" s="235"/>
-      <c r="V31" s="236"/>
-      <c r="W31" s="237"/>
-      <c r="X31" s="237"/>
-      <c r="Y31" s="237"/>
-      <c r="Z31" s="237"/>
-      <c r="AA31" s="237"/>
-      <c r="AB31" s="237"/>
-      <c r="AC31" s="237"/>
-      <c r="AD31" s="237"/>
-      <c r="AE31" s="237"/>
-      <c r="AF31" s="237"/>
-      <c r="AG31" s="237"/>
-      <c r="AH31" s="237"/>
-      <c r="AI31" s="237"/>
-      <c r="AJ31" s="237"/>
-      <c r="AK31" s="237"/>
-      <c r="AL31" s="237"/>
-      <c r="AM31" s="238"/>
-      <c r="AN31" s="222"/>
-      <c r="AO31" s="223"/>
-      <c r="AP31" s="223"/>
-      <c r="AQ31" s="223"/>
-      <c r="AR31" s="224"/>
-      <c r="AS31" s="222"/>
-      <c r="AT31" s="223"/>
-      <c r="AU31" s="223"/>
-      <c r="AV31" s="223"/>
-      <c r="AW31" s="224"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="234"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="236"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="245"/>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="246"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="247"/>
+      <c r="W31" s="248"/>
+      <c r="X31" s="248"/>
+      <c r="Y31" s="248"/>
+      <c r="Z31" s="248"/>
+      <c r="AA31" s="248"/>
+      <c r="AB31" s="248"/>
+      <c r="AC31" s="248"/>
+      <c r="AD31" s="248"/>
+      <c r="AE31" s="248"/>
+      <c r="AF31" s="248"/>
+      <c r="AG31" s="248"/>
+      <c r="AH31" s="248"/>
+      <c r="AI31" s="248"/>
+      <c r="AJ31" s="248"/>
+      <c r="AK31" s="248"/>
+      <c r="AL31" s="248"/>
+      <c r="AM31" s="249"/>
+      <c r="AN31" s="250"/>
+      <c r="AO31" s="251"/>
+      <c r="AP31" s="251"/>
+      <c r="AQ31" s="251"/>
+      <c r="AR31" s="252"/>
+      <c r="AS31" s="250"/>
+      <c r="AT31" s="251"/>
+      <c r="AU31" s="251"/>
+      <c r="AV31" s="251"/>
+      <c r="AW31" s="252"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="225"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="231"/>
-      <c r="M32" s="239"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="235"/>
-      <c r="T32" s="235"/>
-      <c r="U32" s="235"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="237"/>
-      <c r="X32" s="237"/>
-      <c r="Y32" s="237"/>
-      <c r="Z32" s="237"/>
-      <c r="AA32" s="237"/>
-      <c r="AB32" s="237"/>
-      <c r="AC32" s="237"/>
-      <c r="AD32" s="237"/>
-      <c r="AE32" s="237"/>
-      <c r="AF32" s="237"/>
-      <c r="AG32" s="237"/>
-      <c r="AH32" s="237"/>
-      <c r="AI32" s="237"/>
-      <c r="AJ32" s="237"/>
-      <c r="AK32" s="237"/>
-      <c r="AL32" s="237"/>
-      <c r="AM32" s="238"/>
-      <c r="AN32" s="222"/>
-      <c r="AO32" s="223"/>
-      <c r="AP32" s="223"/>
-      <c r="AQ32" s="223"/>
-      <c r="AR32" s="224"/>
-      <c r="AS32" s="222"/>
-      <c r="AT32" s="223"/>
-      <c r="AU32" s="223"/>
-      <c r="AV32" s="223"/>
-      <c r="AW32" s="224"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="233"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="234"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="245"/>
+      <c r="O32" s="245"/>
+      <c r="P32" s="245"/>
+      <c r="Q32" s="245"/>
+      <c r="R32" s="246"/>
+      <c r="S32" s="231"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="247"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="248"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="248"/>
+      <c r="AE32" s="248"/>
+      <c r="AF32" s="248"/>
+      <c r="AG32" s="248"/>
+      <c r="AH32" s="248"/>
+      <c r="AI32" s="248"/>
+      <c r="AJ32" s="248"/>
+      <c r="AK32" s="248"/>
+      <c r="AL32" s="248"/>
+      <c r="AM32" s="249"/>
+      <c r="AN32" s="250"/>
+      <c r="AO32" s="251"/>
+      <c r="AP32" s="251"/>
+      <c r="AQ32" s="251"/>
+      <c r="AR32" s="252"/>
+      <c r="AS32" s="250"/>
+      <c r="AT32" s="251"/>
+      <c r="AU32" s="251"/>
+      <c r="AV32" s="251"/>
+      <c r="AW32" s="252"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="225"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="230"/>
-      <c r="L33" s="231"/>
-      <c r="M33" s="239"/>
-      <c r="N33" s="240"/>
-      <c r="O33" s="240"/>
-      <c r="P33" s="240"/>
-      <c r="Q33" s="240"/>
-      <c r="R33" s="241"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="236"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="237"/>
-      <c r="AF33" s="237"/>
-      <c r="AG33" s="237"/>
-      <c r="AH33" s="237"/>
-      <c r="AI33" s="237"/>
-      <c r="AJ33" s="237"/>
-      <c r="AK33" s="237"/>
-      <c r="AL33" s="237"/>
-      <c r="AM33" s="238"/>
-      <c r="AN33" s="222"/>
-      <c r="AO33" s="223"/>
-      <c r="AP33" s="223"/>
-      <c r="AQ33" s="223"/>
-      <c r="AR33" s="224"/>
-      <c r="AS33" s="222"/>
-      <c r="AT33" s="223"/>
-      <c r="AU33" s="223"/>
-      <c r="AV33" s="223"/>
-      <c r="AW33" s="224"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="245"/>
+      <c r="O33" s="245"/>
+      <c r="P33" s="245"/>
+      <c r="Q33" s="245"/>
+      <c r="R33" s="246"/>
+      <c r="S33" s="231"/>
+      <c r="T33" s="231"/>
+      <c r="U33" s="231"/>
+      <c r="V33" s="247"/>
+      <c r="W33" s="248"/>
+      <c r="X33" s="248"/>
+      <c r="Y33" s="248"/>
+      <c r="Z33" s="248"/>
+      <c r="AA33" s="248"/>
+      <c r="AB33" s="248"/>
+      <c r="AC33" s="248"/>
+      <c r="AD33" s="248"/>
+      <c r="AE33" s="248"/>
+      <c r="AF33" s="248"/>
+      <c r="AG33" s="248"/>
+      <c r="AH33" s="248"/>
+      <c r="AI33" s="248"/>
+      <c r="AJ33" s="248"/>
+      <c r="AK33" s="248"/>
+      <c r="AL33" s="248"/>
+      <c r="AM33" s="249"/>
+      <c r="AN33" s="250"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="251"/>
+      <c r="AR33" s="252"/>
+      <c r="AS33" s="250"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="252"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="225"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="228"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="229"/>
-      <c r="K34" s="230"/>
-      <c r="L34" s="231"/>
-      <c r="M34" s="232"/>
-      <c r="N34" s="233"/>
-      <c r="O34" s="233"/>
-      <c r="P34" s="233"/>
-      <c r="Q34" s="233"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="235"/>
-      <c r="T34" s="235"/>
-      <c r="U34" s="235"/>
-      <c r="V34" s="236"/>
-      <c r="W34" s="237"/>
-      <c r="X34" s="237"/>
-      <c r="Y34" s="237"/>
-      <c r="Z34" s="237"/>
-      <c r="AA34" s="237"/>
-      <c r="AB34" s="237"/>
-      <c r="AC34" s="237"/>
-      <c r="AD34" s="237"/>
-      <c r="AE34" s="237"/>
-      <c r="AF34" s="237"/>
-      <c r="AG34" s="237"/>
-      <c r="AH34" s="237"/>
-      <c r="AI34" s="237"/>
-      <c r="AJ34" s="237"/>
-      <c r="AK34" s="237"/>
-      <c r="AL34" s="237"/>
-      <c r="AM34" s="238"/>
-      <c r="AN34" s="222"/>
-      <c r="AO34" s="223"/>
-      <c r="AP34" s="223"/>
-      <c r="AQ34" s="223"/>
-      <c r="AR34" s="224"/>
-      <c r="AS34" s="222"/>
-      <c r="AT34" s="223"/>
-      <c r="AU34" s="223"/>
-      <c r="AV34" s="223"/>
-      <c r="AW34" s="224"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="236"/>
+      <c r="M34" s="259"/>
+      <c r="N34" s="260"/>
+      <c r="O34" s="260"/>
+      <c r="P34" s="260"/>
+      <c r="Q34" s="260"/>
+      <c r="R34" s="261"/>
+      <c r="S34" s="231"/>
+      <c r="T34" s="231"/>
+      <c r="U34" s="231"/>
+      <c r="V34" s="247"/>
+      <c r="W34" s="248"/>
+      <c r="X34" s="248"/>
+      <c r="Y34" s="248"/>
+      <c r="Z34" s="248"/>
+      <c r="AA34" s="248"/>
+      <c r="AB34" s="248"/>
+      <c r="AC34" s="248"/>
+      <c r="AD34" s="248"/>
+      <c r="AE34" s="248"/>
+      <c r="AF34" s="248"/>
+      <c r="AG34" s="248"/>
+      <c r="AH34" s="248"/>
+      <c r="AI34" s="248"/>
+      <c r="AJ34" s="248"/>
+      <c r="AK34" s="248"/>
+      <c r="AL34" s="248"/>
+      <c r="AM34" s="249"/>
+      <c r="AN34" s="250"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="251"/>
+      <c r="AR34" s="252"/>
+      <c r="AS34" s="250"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8933,230 +9152,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9316,11 +9320,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="267"/>
-      <c r="AQ2" s="267"/>
-      <c r="AR2" s="267"/>
-      <c r="AS2" s="268"/>
+      <c r="AO2" s="262"/>
+      <c r="AP2" s="263"/>
+      <c r="AQ2" s="263"/>
+      <c r="AR2" s="263"/>
+      <c r="AS2" s="264"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9329,14 +9333,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="269"/>
-      <c r="BA2" s="270"/>
-      <c r="BB2" s="270"/>
-      <c r="BC2" s="270"/>
-      <c r="BD2" s="270"/>
-      <c r="BE2" s="270"/>
-      <c r="BF2" s="270"/>
-      <c r="BG2" s="271"/>
+      <c r="AZ2" s="265"/>
+      <c r="BA2" s="266"/>
+      <c r="BB2" s="266"/>
+      <c r="BC2" s="266"/>
+      <c r="BD2" s="266"/>
+      <c r="BE2" s="266"/>
+      <c r="BF2" s="266"/>
+      <c r="BG2" s="267"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11085,10 +11089,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="268" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="273"/>
+      <c r="C50" s="269"/>
       <c r="D50" s="73" t="s">
         <v>84</v>
       </c>
@@ -11171,10 +11175,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="262">
+      <c r="B51" s="272">
         <v>1</v>
       </c>
-      <c r="C51" s="263"/>
+      <c r="C51" s="273"/>
       <c r="D51" s="185" t="s">
         <v>99</v>
       </c>
@@ -11206,16 +11210,16 @@
       <c r="AB51" s="186"/>
       <c r="AC51" s="186"/>
       <c r="AD51" s="187"/>
-      <c r="AE51" s="264" t="s">
+      <c r="AE51" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF51" s="265"/>
-      <c r="AG51" s="264"/>
-      <c r="AH51" s="265"/>
-      <c r="AI51" s="264"/>
-      <c r="AJ51" s="265"/>
-      <c r="AK51" s="264"/>
-      <c r="AL51" s="265"/>
+      <c r="AF51" s="271"/>
+      <c r="AG51" s="270"/>
+      <c r="AH51" s="271"/>
+      <c r="AI51" s="270"/>
+      <c r="AJ51" s="271"/>
+      <c r="AK51" s="270"/>
+      <c r="AL51" s="271"/>
       <c r="AM51" s="188" t="s">
         <v>102</v>
       </c>
@@ -11249,10 +11253,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="262">
+      <c r="B52" s="272">
         <v>2</v>
       </c>
-      <c r="C52" s="263"/>
+      <c r="C52" s="273"/>
       <c r="D52" s="185" t="s">
         <v>99</v>
       </c>
@@ -11284,16 +11288,16 @@
       <c r="AB52" s="186"/>
       <c r="AC52" s="186"/>
       <c r="AD52" s="187"/>
-      <c r="AE52" s="264" t="s">
+      <c r="AE52" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF52" s="265"/>
-      <c r="AG52" s="264"/>
-      <c r="AH52" s="265"/>
-      <c r="AI52" s="264"/>
-      <c r="AJ52" s="265"/>
-      <c r="AK52" s="264"/>
-      <c r="AL52" s="265"/>
+      <c r="AF52" s="271"/>
+      <c r="AG52" s="270"/>
+      <c r="AH52" s="271"/>
+      <c r="AI52" s="270"/>
+      <c r="AJ52" s="271"/>
+      <c r="AK52" s="270"/>
+      <c r="AL52" s="271"/>
       <c r="AM52" s="188" t="s">
         <v>114</v>
       </c>
@@ -11327,10 +11331,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="262">
+      <c r="B53" s="272">
         <v>3</v>
       </c>
-      <c r="C53" s="263"/>
+      <c r="C53" s="273"/>
       <c r="D53" s="185" t="s">
         <v>99</v>
       </c>
@@ -11362,16 +11366,16 @@
       <c r="AB53" s="186"/>
       <c r="AC53" s="186"/>
       <c r="AD53" s="187"/>
-      <c r="AE53" s="264" t="s">
+      <c r="AE53" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF53" s="265"/>
-      <c r="AG53" s="264"/>
-      <c r="AH53" s="265"/>
-      <c r="AI53" s="264"/>
-      <c r="AJ53" s="265"/>
-      <c r="AK53" s="264"/>
-      <c r="AL53" s="265"/>
+      <c r="AF53" s="271"/>
+      <c r="AG53" s="270"/>
+      <c r="AH53" s="271"/>
+      <c r="AI53" s="270"/>
+      <c r="AJ53" s="271"/>
+      <c r="AK53" s="270"/>
+      <c r="AL53" s="271"/>
       <c r="AM53" s="188" t="s">
         <v>103</v>
       </c>
@@ -11405,10 +11409,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="262">
+      <c r="B54" s="272">
         <v>4</v>
       </c>
-      <c r="C54" s="263"/>
+      <c r="C54" s="273"/>
       <c r="D54" s="185" t="s">
         <v>99</v>
       </c>
@@ -11440,16 +11444,16 @@
       <c r="AB54" s="186"/>
       <c r="AC54" s="186"/>
       <c r="AD54" s="187"/>
-      <c r="AE54" s="264" t="s">
+      <c r="AE54" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF54" s="265"/>
-      <c r="AG54" s="264"/>
-      <c r="AH54" s="265"/>
-      <c r="AI54" s="264"/>
-      <c r="AJ54" s="265"/>
-      <c r="AK54" s="264"/>
-      <c r="AL54" s="265"/>
+      <c r="AF54" s="271"/>
+      <c r="AG54" s="270"/>
+      <c r="AH54" s="271"/>
+      <c r="AI54" s="270"/>
+      <c r="AJ54" s="271"/>
+      <c r="AK54" s="270"/>
+      <c r="AL54" s="271"/>
       <c r="AM54" s="188" t="s">
         <v>104</v>
       </c>
@@ -11483,10 +11487,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="262">
+      <c r="B55" s="272">
         <v>5</v>
       </c>
-      <c r="C55" s="263"/>
+      <c r="C55" s="273"/>
       <c r="D55" s="185" t="s">
         <v>99</v>
       </c>
@@ -11518,16 +11522,16 @@
       <c r="AB55" s="186"/>
       <c r="AC55" s="186"/>
       <c r="AD55" s="187"/>
-      <c r="AE55" s="264" t="s">
+      <c r="AE55" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF55" s="265"/>
-      <c r="AG55" s="264"/>
-      <c r="AH55" s="265"/>
-      <c r="AI55" s="264"/>
-      <c r="AJ55" s="265"/>
-      <c r="AK55" s="264"/>
-      <c r="AL55" s="265"/>
+      <c r="AF55" s="271"/>
+      <c r="AG55" s="270"/>
+      <c r="AH55" s="271"/>
+      <c r="AI55" s="270"/>
+      <c r="AJ55" s="271"/>
+      <c r="AK55" s="270"/>
+      <c r="AL55" s="271"/>
       <c r="AM55" s="188" t="s">
         <v>322</v>
       </c>
@@ -11561,10 +11565,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="262">
+      <c r="B56" s="272">
         <v>6</v>
       </c>
-      <c r="C56" s="263"/>
+      <c r="C56" s="273"/>
       <c r="D56" s="185" t="s">
         <v>99</v>
       </c>
@@ -11596,16 +11600,16 @@
       <c r="AB56" s="186"/>
       <c r="AC56" s="186"/>
       <c r="AD56" s="187"/>
-      <c r="AE56" s="264" t="s">
+      <c r="AE56" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF56" s="265"/>
-      <c r="AG56" s="264"/>
-      <c r="AH56" s="265"/>
-      <c r="AI56" s="264"/>
-      <c r="AJ56" s="265"/>
-      <c r="AK56" s="264"/>
-      <c r="AL56" s="265"/>
+      <c r="AF56" s="271"/>
+      <c r="AG56" s="270"/>
+      <c r="AH56" s="271"/>
+      <c r="AI56" s="270"/>
+      <c r="AJ56" s="271"/>
+      <c r="AK56" s="270"/>
+      <c r="AL56" s="271"/>
       <c r="AM56" s="188" t="s">
         <v>449</v>
       </c>
@@ -11639,10 +11643,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="262">
+      <c r="B57" s="272">
         <v>7</v>
       </c>
-      <c r="C57" s="263"/>
+      <c r="C57" s="273"/>
       <c r="D57" s="185" t="s">
         <v>100</v>
       </c>
@@ -11674,16 +11678,16 @@
       <c r="AB57" s="186"/>
       <c r="AC57" s="186"/>
       <c r="AD57" s="187"/>
-      <c r="AE57" s="264" t="s">
+      <c r="AE57" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF57" s="265"/>
-      <c r="AG57" s="264"/>
-      <c r="AH57" s="265"/>
-      <c r="AI57" s="264"/>
-      <c r="AJ57" s="265"/>
-      <c r="AK57" s="264"/>
-      <c r="AL57" s="265"/>
+      <c r="AF57" s="271"/>
+      <c r="AG57" s="270"/>
+      <c r="AH57" s="271"/>
+      <c r="AI57" s="270"/>
+      <c r="AJ57" s="271"/>
+      <c r="AK57" s="270"/>
+      <c r="AL57" s="271"/>
       <c r="AM57" s="188" t="s">
         <v>440</v>
       </c>
@@ -11717,10 +11721,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="262">
+      <c r="B58" s="272">
         <v>8</v>
       </c>
-      <c r="C58" s="263"/>
+      <c r="C58" s="273"/>
       <c r="D58" s="185" t="s">
         <v>100</v>
       </c>
@@ -11752,16 +11756,16 @@
       <c r="AB58" s="186"/>
       <c r="AC58" s="186"/>
       <c r="AD58" s="187"/>
-      <c r="AE58" s="264" t="s">
+      <c r="AE58" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="264"/>
-      <c r="AH58" s="265"/>
-      <c r="AI58" s="264"/>
-      <c r="AJ58" s="265"/>
-      <c r="AK58" s="264"/>
-      <c r="AL58" s="265"/>
+      <c r="AF58" s="271"/>
+      <c r="AG58" s="270"/>
+      <c r="AH58" s="271"/>
+      <c r="AI58" s="270"/>
+      <c r="AJ58" s="271"/>
+      <c r="AK58" s="270"/>
+      <c r="AL58" s="271"/>
       <c r="AM58" s="188" t="s">
         <v>441</v>
       </c>
@@ -11795,10 +11799,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="262">
+      <c r="B59" s="272">
         <v>9</v>
       </c>
-      <c r="C59" s="263"/>
+      <c r="C59" s="273"/>
       <c r="D59" s="185" t="s">
         <v>100</v>
       </c>
@@ -11830,16 +11834,16 @@
       <c r="AB59" s="186"/>
       <c r="AC59" s="186"/>
       <c r="AD59" s="187"/>
-      <c r="AE59" s="264" t="s">
+      <c r="AE59" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF59" s="265"/>
-      <c r="AG59" s="264"/>
-      <c r="AH59" s="265"/>
-      <c r="AI59" s="264"/>
-      <c r="AJ59" s="265"/>
-      <c r="AK59" s="264"/>
-      <c r="AL59" s="265"/>
+      <c r="AF59" s="271"/>
+      <c r="AG59" s="270"/>
+      <c r="AH59" s="271"/>
+      <c r="AI59" s="270"/>
+      <c r="AJ59" s="271"/>
+      <c r="AK59" s="270"/>
+      <c r="AL59" s="271"/>
       <c r="AM59" s="188" t="s">
         <v>443</v>
       </c>
@@ -11873,10 +11877,10 @@
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
-      <c r="B60" s="262">
+      <c r="B60" s="272">
         <v>10</v>
       </c>
-      <c r="C60" s="263"/>
+      <c r="C60" s="273"/>
       <c r="D60" s="185" t="s">
         <v>100</v>
       </c>
@@ -11908,16 +11912,16 @@
       <c r="AB60" s="186"/>
       <c r="AC60" s="186"/>
       <c r="AD60" s="187"/>
-      <c r="AE60" s="264" t="s">
+      <c r="AE60" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="AF60" s="265"/>
-      <c r="AG60" s="264"/>
-      <c r="AH60" s="265"/>
-      <c r="AI60" s="264"/>
-      <c r="AJ60" s="265"/>
-      <c r="AK60" s="264"/>
-      <c r="AL60" s="265"/>
+      <c r="AF60" s="271"/>
+      <c r="AG60" s="270"/>
+      <c r="AH60" s="271"/>
+      <c r="AI60" s="270"/>
+      <c r="AJ60" s="271"/>
+      <c r="AK60" s="270"/>
+      <c r="AL60" s="271"/>
       <c r="AM60" s="188" t="s">
         <v>445</v>
       </c>
@@ -11956,6 +11960,46 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11969,46 +12013,6 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -12154,7 +12158,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="269" t="str">
+      <c r="CU1" s="265" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12285,7 +12289,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="269"/>
+      <c r="CU2" s="265"/>
       <c r="CV2" s="274"/>
       <c r="CW2" s="274"/>
       <c r="CX2" s="274"/>
@@ -12502,22 +12506,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="255" t="s">
+      <c r="C6" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="255" t="s">
+      <c r="D6" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="255" t="s">
+      <c r="E6" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="255" t="s">
+      <c r="F6" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="255" t="s">
+      <c r="G6" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="255" t="s">
+      <c r="H6" s="224" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="283" t="s">
@@ -12526,13 +12530,13 @@
       <c r="J6" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="255" t="s">
+      <c r="K6" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="255" t="s">
+      <c r="L6" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="255" t="s">
+      <c r="M6" s="224" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -12547,17 +12551,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
       <c r="I7" s="283"/>
       <c r="J7" s="283"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
       <c r="N7" s="43" t="s">
         <v>68</v>
       </c>
@@ -12768,22 +12772,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="255" t="s">
+      <c r="C14" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="255" t="s">
+      <c r="D14" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="255" t="s">
+      <c r="E14" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="255" t="s">
+      <c r="F14" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="255" t="s">
+      <c r="G14" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="255" t="s">
+      <c r="H14" s="224" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="284" t="s">
@@ -12792,13 +12796,13 @@
       <c r="J14" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="255" t="s">
+      <c r="K14" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="255" t="s">
+      <c r="L14" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="255" t="s">
+      <c r="M14" s="224" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="68" t="s">
@@ -12813,17 +12817,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
       <c r="I15" s="285"/>
       <c r="J15" s="283"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
       <c r="N15" s="43" t="s">
         <v>68</v>
       </c>
@@ -12946,22 +12950,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="96"/>
-      <c r="C21" s="255" t="s">
+      <c r="C21" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="255" t="s">
+      <c r="D21" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="255" t="s">
+      <c r="E21" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="255" t="s">
+      <c r="F21" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="255" t="s">
+      <c r="G21" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="255" t="s">
+      <c r="H21" s="224" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="283" t="s">
@@ -12970,13 +12974,13 @@
       <c r="J21" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="255" t="s">
+      <c r="K21" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="255" t="s">
+      <c r="L21" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="255" t="s">
+      <c r="M21" s="224" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -12990,17 +12994,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="96"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
       <c r="I22" s="283"/>
       <c r="J22" s="283"/>
-      <c r="K22" s="255"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="255"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
       <c r="N22" s="94" t="s">
         <v>68</v>
       </c>
@@ -13988,22 +13992,22 @@
     </row>
     <row r="46" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="96"/>
-      <c r="C46" s="255" t="s">
+      <c r="C46" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="255" t="s">
+      <c r="D46" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="255" t="s">
+      <c r="E46" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="255" t="s">
+      <c r="F46" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="255" t="s">
+      <c r="G46" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="255" t="s">
+      <c r="H46" s="224" t="s">
         <v>29</v>
       </c>
       <c r="I46" s="283" t="s">
@@ -14012,13 +14016,13 @@
       <c r="J46" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="255" t="s">
+      <c r="K46" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="255" t="s">
+      <c r="L46" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="255" t="s">
+      <c r="M46" s="224" t="s">
         <v>33</v>
       </c>
       <c r="N46" s="68" t="s">
@@ -14032,17 +14036,17 @@
     </row>
     <row r="47" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="96"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="255"/>
-      <c r="F47" s="255"/>
-      <c r="G47" s="255"/>
-      <c r="H47" s="255"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="224"/>
       <c r="I47" s="283"/>
       <c r="J47" s="283"/>
-      <c r="K47" s="255"/>
-      <c r="L47" s="255"/>
-      <c r="M47" s="255"/>
+      <c r="K47" s="224"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="224"/>
       <c r="N47" s="157" t="s">
         <v>68</v>
       </c>
@@ -14196,6 +14200,46 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
@@ -14204,46 +14248,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14315,7 +14319,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="266">
+      <c r="AI1" s="262">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -14331,7 +14335,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="269" t="str">
+      <c r="AT1" s="265" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -14402,7 +14406,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="269"/>
+      <c r="AT2" s="265"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -26592,6 +26596,9 @@
         <v>82</v>
       </c>
       <c r="K721" s="71"/>
+      <c r="L721" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="AV721" s="71"/>
     </row>
     <row r="722" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -26708,6 +26715,9 @@
         <v>82</v>
       </c>
       <c r="K724" s="71"/>
+      <c r="L724" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="AV724" s="71"/>
     </row>
     <row r="725" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -34147,7 +34157,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="266">
+      <c r="AI1" s="262">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -34163,7 +34173,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="269" t="str">
+      <c r="AT1" s="265" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -34234,7 +34244,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="269"/>
+      <c r="AT2" s="265"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -39061,7 +39071,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="266">
+      <c r="AI1" s="262">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -39077,7 +39087,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="269" t="str">
+      <c r="AT1" s="265" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -39148,7 +39158,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="269"/>
+      <c r="AT2" s="265"/>
       <c r="AU2" s="274"/>
       <c r="AV2" s="274"/>
       <c r="AW2" s="274"/>
@@ -53479,18 +53489,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53652,6 +53662,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -53663,14 +53681,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14A_前日以前詳細実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD66206-B01A-4242-A720-3A892EE45B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE71B33-E9B8-4B56-A7E8-FF1C06F1637A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -130,14 +130,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="466">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3205,6 +3203,26 @@
     <t>K-14A</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>成形の場合：</t>
+    <rPh sb="0" eb="2">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>大工程 = '10'の場合</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -4536,6 +4554,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4563,90 +4666,17 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4670,18 +4700,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5824,7 +5842,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3494"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3496"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7173,1770 +7191,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="223"/>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="223"/>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="223"/>
-      <c r="AN1" s="223"/>
-      <c r="AO1" s="223"/>
-      <c r="AP1" s="223"/>
-      <c r="AQ1" s="223"/>
-      <c r="AR1" s="223"/>
-      <c r="AS1" s="223"/>
-      <c r="AT1" s="223"/>
-      <c r="AU1" s="223"/>
-      <c r="AV1" s="223"/>
-      <c r="AW1" s="223"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="254"/>
+      <c r="AO1" s="254"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="254"/>
+      <c r="AS1" s="254"/>
+      <c r="AT1" s="254"/>
+      <c r="AU1" s="254"/>
+      <c r="AV1" s="254"/>
+      <c r="AW1" s="254"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
-      <c r="AO2" s="224"/>
-      <c r="AP2" s="224"/>
-      <c r="AQ2" s="224"/>
-      <c r="AR2" s="224"/>
-      <c r="AS2" s="224"/>
-      <c r="AT2" s="224"/>
-      <c r="AU2" s="224"/>
-      <c r="AV2" s="224"/>
-      <c r="AW2" s="224"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
+      <c r="AC2" s="255"/>
+      <c r="AD2" s="255"/>
+      <c r="AE2" s="255"/>
+      <c r="AF2" s="255"/>
+      <c r="AG2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="255"/>
+      <c r="AJ2" s="255"/>
+      <c r="AK2" s="255"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="255"/>
+      <c r="AN2" s="255"/>
+      <c r="AO2" s="255"/>
+      <c r="AP2" s="255"/>
+      <c r="AQ2" s="255"/>
+      <c r="AR2" s="255"/>
+      <c r="AS2" s="255"/>
+      <c r="AT2" s="255"/>
+      <c r="AU2" s="255"/>
+      <c r="AV2" s="255"/>
+      <c r="AW2" s="255"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225" t="s">
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="226" t="s">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="227"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="226" t="s">
+      <c r="K3" s="258"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="225" t="s">
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225" t="s">
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="225"/>
-      <c r="AD3" s="225"/>
-      <c r="AE3" s="225"/>
-      <c r="AF3" s="225"/>
-      <c r="AG3" s="225"/>
-      <c r="AH3" s="225"/>
-      <c r="AI3" s="225"/>
-      <c r="AJ3" s="225"/>
-      <c r="AK3" s="225"/>
-      <c r="AL3" s="225"/>
-      <c r="AM3" s="225"/>
-      <c r="AN3" s="225" t="s">
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="256"/>
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="256"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="256"/>
+      <c r="AL3" s="256"/>
+      <c r="AM3" s="256"/>
+      <c r="AN3" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="225"/>
-      <c r="AP3" s="225"/>
-      <c r="AQ3" s="225"/>
-      <c r="AR3" s="225"/>
-      <c r="AS3" s="225" t="s">
+      <c r="AO3" s="256"/>
+      <c r="AP3" s="256"/>
+      <c r="AQ3" s="256"/>
+      <c r="AR3" s="256"/>
+      <c r="AS3" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="225"/>
-      <c r="AU3" s="225"/>
-      <c r="AV3" s="225"/>
-      <c r="AW3" s="225"/>
+      <c r="AT3" s="256"/>
+      <c r="AU3" s="256"/>
+      <c r="AV3" s="256"/>
+      <c r="AW3" s="256"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="231"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
-      <c r="W4" s="225"/>
-      <c r="X4" s="225"/>
-      <c r="Y4" s="225"/>
-      <c r="Z4" s="225"/>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="225"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="225"/>
-      <c r="AE4" s="225"/>
-      <c r="AF4" s="225"/>
-      <c r="AG4" s="225"/>
-      <c r="AH4" s="225"/>
-      <c r="AI4" s="225"/>
-      <c r="AJ4" s="225"/>
-      <c r="AK4" s="225"/>
-      <c r="AL4" s="225"/>
-      <c r="AM4" s="225"/>
-      <c r="AN4" s="225"/>
-      <c r="AO4" s="225"/>
-      <c r="AP4" s="225"/>
-      <c r="AQ4" s="225"/>
-      <c r="AR4" s="225"/>
-      <c r="AS4" s="225"/>
-      <c r="AT4" s="225"/>
-      <c r="AU4" s="225"/>
-      <c r="AV4" s="225"/>
-      <c r="AW4" s="225"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
+      <c r="AA4" s="256"/>
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256"/>
+      <c r="AF4" s="256"/>
+      <c r="AG4" s="256"/>
+      <c r="AH4" s="256"/>
+      <c r="AI4" s="256"/>
+      <c r="AJ4" s="256"/>
+      <c r="AK4" s="256"/>
+      <c r="AL4" s="256"/>
+      <c r="AM4" s="256"/>
+      <c r="AN4" s="256"/>
+      <c r="AO4" s="256"/>
+      <c r="AP4" s="256"/>
+      <c r="AQ4" s="256"/>
+      <c r="AR4" s="256"/>
+      <c r="AS4" s="256"/>
+      <c r="AT4" s="256"/>
+      <c r="AU4" s="256"/>
+      <c r="AV4" s="256"/>
+      <c r="AW4" s="256"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="233">
+      <c r="B5" s="248">
         <v>1</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="234">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="229">
         <v>43725</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="235" t="s">
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="236"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="235" t="s">
+      <c r="K5" s="231"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="236"/>
-      <c r="O5" s="236"/>
-      <c r="P5" s="236"/>
-      <c r="Q5" s="236"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="232" t="s">
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="232"/>
+      <c r="S5" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="232"/>
-      <c r="U5" s="232"/>
-      <c r="V5" s="241" t="s">
+      <c r="T5" s="236"/>
+      <c r="U5" s="236"/>
+      <c r="V5" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="241"/>
-      <c r="X5" s="241"/>
-      <c r="Y5" s="241"/>
-      <c r="Z5" s="241"/>
-      <c r="AA5" s="241"/>
-      <c r="AB5" s="241"/>
-      <c r="AC5" s="241"/>
-      <c r="AD5" s="241"/>
-      <c r="AE5" s="241"/>
-      <c r="AF5" s="241"/>
-      <c r="AG5" s="241"/>
-      <c r="AH5" s="241"/>
-      <c r="AI5" s="241"/>
-      <c r="AJ5" s="241"/>
-      <c r="AK5" s="241"/>
-      <c r="AL5" s="241"/>
-      <c r="AM5" s="241"/>
-      <c r="AN5" s="232" t="s">
+      <c r="W5" s="247"/>
+      <c r="X5" s="247"/>
+      <c r="Y5" s="247"/>
+      <c r="Z5" s="247"/>
+      <c r="AA5" s="247"/>
+      <c r="AB5" s="247"/>
+      <c r="AC5" s="247"/>
+      <c r="AD5" s="247"/>
+      <c r="AE5" s="247"/>
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="247"/>
+      <c r="AH5" s="247"/>
+      <c r="AI5" s="247"/>
+      <c r="AJ5" s="247"/>
+      <c r="AK5" s="247"/>
+      <c r="AL5" s="247"/>
+      <c r="AM5" s="247"/>
+      <c r="AN5" s="236" t="s">
         <v>148</v>
       </c>
-      <c r="AO5" s="232"/>
-      <c r="AP5" s="232"/>
-      <c r="AQ5" s="232"/>
-      <c r="AR5" s="232"/>
-      <c r="AS5" s="232"/>
-      <c r="AT5" s="232"/>
-      <c r="AU5" s="232"/>
-      <c r="AV5" s="232"/>
-      <c r="AW5" s="232"/>
+      <c r="AO5" s="236"/>
+      <c r="AP5" s="236"/>
+      <c r="AQ5" s="236"/>
+      <c r="AR5" s="236"/>
+      <c r="AS5" s="236"/>
+      <c r="AT5" s="236"/>
+      <c r="AU5" s="236"/>
+      <c r="AV5" s="236"/>
+      <c r="AW5" s="236"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="232"/>
-      <c r="T6" s="232"/>
-      <c r="U6" s="232"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="232"/>
-      <c r="AO6" s="232"/>
-      <c r="AP6" s="232"/>
-      <c r="AQ6" s="232"/>
-      <c r="AR6" s="232"/>
-      <c r="AS6" s="232"/>
-      <c r="AT6" s="232"/>
-      <c r="AU6" s="232"/>
-      <c r="AV6" s="232"/>
-      <c r="AW6" s="232"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="251"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="253"/>
+      <c r="S6" s="236"/>
+      <c r="T6" s="236"/>
+      <c r="U6" s="236"/>
+      <c r="V6" s="247"/>
+      <c r="W6" s="247"/>
+      <c r="X6" s="247"/>
+      <c r="Y6" s="247"/>
+      <c r="Z6" s="247"/>
+      <c r="AA6" s="247"/>
+      <c r="AB6" s="247"/>
+      <c r="AC6" s="247"/>
+      <c r="AD6" s="247"/>
+      <c r="AE6" s="247"/>
+      <c r="AF6" s="247"/>
+      <c r="AG6" s="247"/>
+      <c r="AH6" s="247"/>
+      <c r="AI6" s="247"/>
+      <c r="AJ6" s="247"/>
+      <c r="AK6" s="247"/>
+      <c r="AL6" s="247"/>
+      <c r="AM6" s="247"/>
+      <c r="AN6" s="236"/>
+      <c r="AO6" s="236"/>
+      <c r="AP6" s="236"/>
+      <c r="AQ6" s="236"/>
+      <c r="AR6" s="236"/>
+      <c r="AS6" s="236"/>
+      <c r="AT6" s="236"/>
+      <c r="AU6" s="236"/>
+      <c r="AV6" s="236"/>
+      <c r="AW6" s="236"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="240"/>
-      <c r="S7" s="232"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="232"/>
-      <c r="V7" s="241"/>
-      <c r="W7" s="241"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="241"/>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="241"/>
-      <c r="AB7" s="241"/>
-      <c r="AC7" s="241"/>
-      <c r="AD7" s="241"/>
-      <c r="AE7" s="241"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="241"/>
-      <c r="AH7" s="241"/>
-      <c r="AI7" s="241"/>
-      <c r="AJ7" s="241"/>
-      <c r="AK7" s="241"/>
-      <c r="AL7" s="241"/>
-      <c r="AM7" s="241"/>
-      <c r="AN7" s="232"/>
-      <c r="AO7" s="232"/>
-      <c r="AP7" s="232"/>
-      <c r="AQ7" s="232"/>
-      <c r="AR7" s="232"/>
-      <c r="AS7" s="232"/>
-      <c r="AT7" s="232"/>
-      <c r="AU7" s="232"/>
-      <c r="AV7" s="232"/>
-      <c r="AW7" s="232"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="236"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
+      <c r="AL7" s="247"/>
+      <c r="AM7" s="247"/>
+      <c r="AN7" s="236"/>
+      <c r="AO7" s="236"/>
+      <c r="AP7" s="236"/>
+      <c r="AQ7" s="236"/>
+      <c r="AR7" s="236"/>
+      <c r="AS7" s="236"/>
+      <c r="AT7" s="236"/>
+      <c r="AU7" s="236"/>
+      <c r="AV7" s="236"/>
+      <c r="AW7" s="236"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="239"/>
-      <c r="P8" s="239"/>
-      <c r="Q8" s="239"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="241"/>
-      <c r="AJ8" s="241"/>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="232"/>
-      <c r="AO8" s="232"/>
-      <c r="AP8" s="232"/>
-      <c r="AQ8" s="232"/>
-      <c r="AR8" s="232"/>
-      <c r="AS8" s="232"/>
-      <c r="AT8" s="232"/>
-      <c r="AU8" s="232"/>
-      <c r="AV8" s="232"/>
-      <c r="AW8" s="232"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="232"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="253"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="247"/>
+      <c r="AJ8" s="247"/>
+      <c r="AK8" s="247"/>
+      <c r="AL8" s="247"/>
+      <c r="AM8" s="247"/>
+      <c r="AN8" s="236"/>
+      <c r="AO8" s="236"/>
+      <c r="AP8" s="236"/>
+      <c r="AQ8" s="236"/>
+      <c r="AR8" s="236"/>
+      <c r="AS8" s="236"/>
+      <c r="AT8" s="236"/>
+      <c r="AU8" s="236"/>
+      <c r="AV8" s="236"/>
+      <c r="AW8" s="236"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="237"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="232"/>
-      <c r="U9" s="232"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="241"/>
-      <c r="AH9" s="241"/>
-      <c r="AI9" s="241"/>
-      <c r="AJ9" s="241"/>
-      <c r="AK9" s="241"/>
-      <c r="AL9" s="241"/>
-      <c r="AM9" s="241"/>
-      <c r="AN9" s="232"/>
-      <c r="AO9" s="232"/>
-      <c r="AP9" s="232"/>
-      <c r="AQ9" s="232"/>
-      <c r="AR9" s="232"/>
-      <c r="AS9" s="232"/>
-      <c r="AT9" s="232"/>
-      <c r="AU9" s="232"/>
-      <c r="AV9" s="232"/>
-      <c r="AW9" s="232"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="232"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="252"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="236"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="247"/>
+      <c r="X9" s="247"/>
+      <c r="Y9" s="247"/>
+      <c r="Z9" s="247"/>
+      <c r="AA9" s="247"/>
+      <c r="AB9" s="247"/>
+      <c r="AC9" s="247"/>
+      <c r="AD9" s="247"/>
+      <c r="AE9" s="247"/>
+      <c r="AF9" s="247"/>
+      <c r="AG9" s="247"/>
+      <c r="AH9" s="247"/>
+      <c r="AI9" s="247"/>
+      <c r="AJ9" s="247"/>
+      <c r="AK9" s="247"/>
+      <c r="AL9" s="247"/>
+      <c r="AM9" s="247"/>
+      <c r="AN9" s="236"/>
+      <c r="AO9" s="236"/>
+      <c r="AP9" s="236"/>
+      <c r="AQ9" s="236"/>
+      <c r="AR9" s="236"/>
+      <c r="AS9" s="236"/>
+      <c r="AT9" s="236"/>
+      <c r="AU9" s="236"/>
+      <c r="AV9" s="236"/>
+      <c r="AW9" s="236"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="240"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="232"/>
-      <c r="V10" s="241"/>
-      <c r="W10" s="241"/>
-      <c r="X10" s="241"/>
-      <c r="Y10" s="241"/>
-      <c r="Z10" s="241"/>
-      <c r="AA10" s="241"/>
-      <c r="AB10" s="241"/>
-      <c r="AC10" s="241"/>
-      <c r="AD10" s="241"/>
-      <c r="AE10" s="241"/>
-      <c r="AF10" s="241"/>
-      <c r="AG10" s="241"/>
-      <c r="AH10" s="241"/>
-      <c r="AI10" s="241"/>
-      <c r="AJ10" s="241"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="241"/>
-      <c r="AN10" s="232"/>
-      <c r="AO10" s="232"/>
-      <c r="AP10" s="232"/>
-      <c r="AQ10" s="232"/>
-      <c r="AR10" s="232"/>
-      <c r="AS10" s="232"/>
-      <c r="AT10" s="232"/>
-      <c r="AU10" s="232"/>
-      <c r="AV10" s="232"/>
-      <c r="AW10" s="232"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="252"/>
+      <c r="R10" s="253"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="247"/>
+      <c r="X10" s="247"/>
+      <c r="Y10" s="247"/>
+      <c r="Z10" s="247"/>
+      <c r="AA10" s="247"/>
+      <c r="AB10" s="247"/>
+      <c r="AC10" s="247"/>
+      <c r="AD10" s="247"/>
+      <c r="AE10" s="247"/>
+      <c r="AF10" s="247"/>
+      <c r="AG10" s="247"/>
+      <c r="AH10" s="247"/>
+      <c r="AI10" s="247"/>
+      <c r="AJ10" s="247"/>
+      <c r="AK10" s="247"/>
+      <c r="AL10" s="247"/>
+      <c r="AM10" s="247"/>
+      <c r="AN10" s="236"/>
+      <c r="AO10" s="236"/>
+      <c r="AP10" s="236"/>
+      <c r="AQ10" s="236"/>
+      <c r="AR10" s="236"/>
+      <c r="AS10" s="236"/>
+      <c r="AT10" s="236"/>
+      <c r="AU10" s="236"/>
+      <c r="AV10" s="236"/>
+      <c r="AW10" s="236"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="236"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="245"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="246"/>
-      <c r="Q11" s="246"/>
-      <c r="R11" s="247"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="232"/>
-      <c r="U11" s="232"/>
-      <c r="V11" s="248"/>
-      <c r="W11" s="254"/>
-      <c r="X11" s="254"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="254"/>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="254"/>
-      <c r="AF11" s="254"/>
-      <c r="AG11" s="254"/>
-      <c r="AH11" s="254"/>
-      <c r="AI11" s="254"/>
-      <c r="AJ11" s="254"/>
-      <c r="AK11" s="254"/>
-      <c r="AL11" s="254"/>
-      <c r="AM11" s="255"/>
-      <c r="AN11" s="232"/>
-      <c r="AO11" s="232"/>
-      <c r="AP11" s="232"/>
-      <c r="AQ11" s="232"/>
-      <c r="AR11" s="232"/>
-      <c r="AS11" s="232"/>
-      <c r="AT11" s="232"/>
-      <c r="AU11" s="232"/>
-      <c r="AV11" s="232"/>
-      <c r="AW11" s="232"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="231"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="243"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="241"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="236"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="236"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="249"/>
+      <c r="X11" s="249"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="249"/>
+      <c r="AA11" s="249"/>
+      <c r="AB11" s="249"/>
+      <c r="AC11" s="249"/>
+      <c r="AD11" s="249"/>
+      <c r="AE11" s="249"/>
+      <c r="AF11" s="249"/>
+      <c r="AG11" s="249"/>
+      <c r="AH11" s="249"/>
+      <c r="AI11" s="249"/>
+      <c r="AJ11" s="249"/>
+      <c r="AK11" s="249"/>
+      <c r="AL11" s="249"/>
+      <c r="AM11" s="250"/>
+      <c r="AN11" s="236"/>
+      <c r="AO11" s="236"/>
+      <c r="AP11" s="236"/>
+      <c r="AQ11" s="236"/>
+      <c r="AR11" s="236"/>
+      <c r="AS11" s="236"/>
+      <c r="AT11" s="236"/>
+      <c r="AU11" s="236"/>
+      <c r="AV11" s="236"/>
+      <c r="AW11" s="236"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="242"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="247"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="248"/>
-      <c r="W12" s="249"/>
-      <c r="X12" s="249"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="249"/>
-      <c r="AC12" s="249"/>
-      <c r="AD12" s="249"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="249"/>
-      <c r="AG12" s="249"/>
-      <c r="AH12" s="249"/>
-      <c r="AI12" s="249"/>
-      <c r="AJ12" s="249"/>
-      <c r="AK12" s="249"/>
-      <c r="AL12" s="249"/>
-      <c r="AM12" s="250"/>
-      <c r="AN12" s="251"/>
-      <c r="AO12" s="252"/>
-      <c r="AP12" s="252"/>
-      <c r="AQ12" s="252"/>
-      <c r="AR12" s="253"/>
-      <c r="AS12" s="251"/>
-      <c r="AT12" s="252"/>
-      <c r="AU12" s="252"/>
-      <c r="AV12" s="252"/>
-      <c r="AW12" s="253"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="231"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="236"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="236"/>
+      <c r="V12" s="237"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="238"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="238"/>
+      <c r="AJ12" s="238"/>
+      <c r="AK12" s="238"/>
+      <c r="AL12" s="238"/>
+      <c r="AM12" s="239"/>
+      <c r="AN12" s="223"/>
+      <c r="AO12" s="224"/>
+      <c r="AP12" s="224"/>
+      <c r="AQ12" s="224"/>
+      <c r="AR12" s="225"/>
+      <c r="AS12" s="223"/>
+      <c r="AT12" s="224"/>
+      <c r="AU12" s="224"/>
+      <c r="AV12" s="224"/>
+      <c r="AW12" s="225"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="247"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="232"/>
-      <c r="V13" s="248"/>
-      <c r="W13" s="249"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="249"/>
-      <c r="AC13" s="249"/>
-      <c r="AD13" s="249"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="249"/>
-      <c r="AK13" s="249"/>
-      <c r="AL13" s="249"/>
-      <c r="AM13" s="250"/>
-      <c r="AN13" s="251"/>
-      <c r="AO13" s="252"/>
-      <c r="AP13" s="252"/>
-      <c r="AQ13" s="252"/>
-      <c r="AR13" s="253"/>
-      <c r="AS13" s="251"/>
-      <c r="AT13" s="252"/>
-      <c r="AU13" s="252"/>
-      <c r="AV13" s="252"/>
-      <c r="AW13" s="253"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="231"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="236"/>
+      <c r="U13" s="236"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="238"/>
+      <c r="AF13" s="238"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="238"/>
+      <c r="AJ13" s="238"/>
+      <c r="AK13" s="238"/>
+      <c r="AL13" s="238"/>
+      <c r="AM13" s="239"/>
+      <c r="AN13" s="223"/>
+      <c r="AO13" s="224"/>
+      <c r="AP13" s="224"/>
+      <c r="AQ13" s="224"/>
+      <c r="AR13" s="225"/>
+      <c r="AS13" s="223"/>
+      <c r="AT13" s="224"/>
+      <c r="AU13" s="224"/>
+      <c r="AV13" s="224"/>
+      <c r="AW13" s="225"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="235"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="247"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="232"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="241"/>
-      <c r="X14" s="241"/>
-      <c r="Y14" s="241"/>
-      <c r="Z14" s="241"/>
-      <c r="AA14" s="241"/>
-      <c r="AB14" s="241"/>
-      <c r="AC14" s="241"/>
-      <c r="AD14" s="241"/>
-      <c r="AE14" s="241"/>
-      <c r="AF14" s="241"/>
-      <c r="AG14" s="241"/>
-      <c r="AH14" s="241"/>
-      <c r="AI14" s="241"/>
-      <c r="AJ14" s="241"/>
-      <c r="AK14" s="241"/>
-      <c r="AL14" s="241"/>
-      <c r="AM14" s="241"/>
-      <c r="AN14" s="232"/>
-      <c r="AO14" s="232"/>
-      <c r="AP14" s="232"/>
-      <c r="AQ14" s="232"/>
-      <c r="AR14" s="232"/>
-      <c r="AS14" s="251"/>
-      <c r="AT14" s="252"/>
-      <c r="AU14" s="252"/>
-      <c r="AV14" s="252"/>
-      <c r="AW14" s="253"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="231"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="241"/>
+      <c r="O14" s="241"/>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="241"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="246"/>
+      <c r="W14" s="247"/>
+      <c r="X14" s="247"/>
+      <c r="Y14" s="247"/>
+      <c r="Z14" s="247"/>
+      <c r="AA14" s="247"/>
+      <c r="AB14" s="247"/>
+      <c r="AC14" s="247"/>
+      <c r="AD14" s="247"/>
+      <c r="AE14" s="247"/>
+      <c r="AF14" s="247"/>
+      <c r="AG14" s="247"/>
+      <c r="AH14" s="247"/>
+      <c r="AI14" s="247"/>
+      <c r="AJ14" s="247"/>
+      <c r="AK14" s="247"/>
+      <c r="AL14" s="247"/>
+      <c r="AM14" s="247"/>
+      <c r="AN14" s="236"/>
+      <c r="AO14" s="236"/>
+      <c r="AP14" s="236"/>
+      <c r="AQ14" s="236"/>
+      <c r="AR14" s="236"/>
+      <c r="AS14" s="223"/>
+      <c r="AT14" s="224"/>
+      <c r="AU14" s="224"/>
+      <c r="AV14" s="224"/>
+      <c r="AW14" s="225"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="242"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="235"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="246"/>
-      <c r="Q15" s="246"/>
-      <c r="R15" s="247"/>
-      <c r="S15" s="232"/>
-      <c r="T15" s="232"/>
-      <c r="U15" s="232"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="249"/>
-      <c r="X15" s="249"/>
-      <c r="Y15" s="249"/>
-      <c r="Z15" s="249"/>
-      <c r="AA15" s="249"/>
-      <c r="AB15" s="249"/>
-      <c r="AC15" s="249"/>
-      <c r="AD15" s="249"/>
-      <c r="AE15" s="249"/>
-      <c r="AF15" s="249"/>
-      <c r="AG15" s="249"/>
-      <c r="AH15" s="249"/>
-      <c r="AI15" s="249"/>
-      <c r="AJ15" s="249"/>
-      <c r="AK15" s="249"/>
-      <c r="AL15" s="249"/>
-      <c r="AM15" s="250"/>
-      <c r="AN15" s="251"/>
-      <c r="AO15" s="252"/>
-      <c r="AP15" s="252"/>
-      <c r="AQ15" s="252"/>
-      <c r="AR15" s="253"/>
-      <c r="AS15" s="251"/>
-      <c r="AT15" s="252"/>
-      <c r="AU15" s="252"/>
-      <c r="AV15" s="252"/>
-      <c r="AW15" s="253"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="243"/>
+      <c r="N15" s="241"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="236"/>
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="237"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="238"/>
+      <c r="Y15" s="238"/>
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="238"/>
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="238"/>
+      <c r="AF15" s="238"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="238"/>
+      <c r="AJ15" s="238"/>
+      <c r="AK15" s="238"/>
+      <c r="AL15" s="238"/>
+      <c r="AM15" s="239"/>
+      <c r="AN15" s="223"/>
+      <c r="AO15" s="224"/>
+      <c r="AP15" s="224"/>
+      <c r="AQ15" s="224"/>
+      <c r="AR15" s="225"/>
+      <c r="AS15" s="223"/>
+      <c r="AT15" s="224"/>
+      <c r="AU15" s="224"/>
+      <c r="AV15" s="224"/>
+      <c r="AW15" s="225"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="243"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="246"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="247"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="232"/>
-      <c r="V16" s="248"/>
-      <c r="W16" s="249"/>
-      <c r="X16" s="249"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
-      <c r="AC16" s="249"/>
-      <c r="AD16" s="249"/>
-      <c r="AE16" s="249"/>
-      <c r="AF16" s="249"/>
-      <c r="AG16" s="249"/>
-      <c r="AH16" s="249"/>
-      <c r="AI16" s="249"/>
-      <c r="AJ16" s="249"/>
-      <c r="AK16" s="249"/>
-      <c r="AL16" s="249"/>
-      <c r="AM16" s="250"/>
-      <c r="AN16" s="251"/>
-      <c r="AO16" s="252"/>
-      <c r="AP16" s="252"/>
-      <c r="AQ16" s="252"/>
-      <c r="AR16" s="253"/>
-      <c r="AS16" s="251"/>
-      <c r="AT16" s="252"/>
-      <c r="AU16" s="252"/>
-      <c r="AV16" s="252"/>
-      <c r="AW16" s="253"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="241"/>
+      <c r="O16" s="241"/>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="241"/>
+      <c r="R16" s="242"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="237"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="238"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="238"/>
+      <c r="AA16" s="238"/>
+      <c r="AB16" s="238"/>
+      <c r="AC16" s="238"/>
+      <c r="AD16" s="238"/>
+      <c r="AE16" s="238"/>
+      <c r="AF16" s="238"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="238"/>
+      <c r="AJ16" s="238"/>
+      <c r="AK16" s="238"/>
+      <c r="AL16" s="238"/>
+      <c r="AM16" s="239"/>
+      <c r="AN16" s="223"/>
+      <c r="AO16" s="224"/>
+      <c r="AP16" s="224"/>
+      <c r="AQ16" s="224"/>
+      <c r="AR16" s="225"/>
+      <c r="AS16" s="223"/>
+      <c r="AT16" s="224"/>
+      <c r="AU16" s="224"/>
+      <c r="AV16" s="224"/>
+      <c r="AW16" s="225"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="236"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="245"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="258"/>
-      <c r="S17" s="259"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="259"/>
-      <c r="V17" s="248"/>
-      <c r="W17" s="249"/>
-      <c r="X17" s="249"/>
-      <c r="Y17" s="249"/>
-      <c r="Z17" s="249"/>
-      <c r="AA17" s="249"/>
-      <c r="AB17" s="249"/>
-      <c r="AC17" s="249"/>
-      <c r="AD17" s="249"/>
-      <c r="AE17" s="249"/>
-      <c r="AF17" s="249"/>
-      <c r="AG17" s="249"/>
-      <c r="AH17" s="249"/>
-      <c r="AI17" s="249"/>
-      <c r="AJ17" s="249"/>
-      <c r="AK17" s="249"/>
-      <c r="AL17" s="249"/>
-      <c r="AM17" s="250"/>
-      <c r="AN17" s="251"/>
-      <c r="AO17" s="252"/>
-      <c r="AP17" s="252"/>
-      <c r="AQ17" s="252"/>
-      <c r="AR17" s="253"/>
-      <c r="AS17" s="251"/>
-      <c r="AT17" s="252"/>
-      <c r="AU17" s="252"/>
-      <c r="AV17" s="252"/>
-      <c r="AW17" s="253"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="241"/>
+      <c r="O17" s="241"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="245"/>
+      <c r="U17" s="245"/>
+      <c r="V17" s="237"/>
+      <c r="W17" s="238"/>
+      <c r="X17" s="238"/>
+      <c r="Y17" s="238"/>
+      <c r="Z17" s="238"/>
+      <c r="AA17" s="238"/>
+      <c r="AB17" s="238"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="238"/>
+      <c r="AE17" s="238"/>
+      <c r="AF17" s="238"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="238"/>
+      <c r="AJ17" s="238"/>
+      <c r="AK17" s="238"/>
+      <c r="AL17" s="238"/>
+      <c r="AM17" s="239"/>
+      <c r="AN17" s="223"/>
+      <c r="AO17" s="224"/>
+      <c r="AP17" s="224"/>
+      <c r="AQ17" s="224"/>
+      <c r="AR17" s="225"/>
+      <c r="AS17" s="223"/>
+      <c r="AT17" s="224"/>
+      <c r="AU17" s="224"/>
+      <c r="AV17" s="224"/>
+      <c r="AW17" s="225"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="246"/>
-      <c r="O18" s="246"/>
-      <c r="P18" s="246"/>
-      <c r="Q18" s="246"/>
-      <c r="R18" s="247"/>
-      <c r="S18" s="232"/>
-      <c r="T18" s="232"/>
-      <c r="U18" s="232"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="249"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
-      <c r="AA18" s="249"/>
-      <c r="AB18" s="249"/>
-      <c r="AC18" s="249"/>
-      <c r="AD18" s="249"/>
-      <c r="AE18" s="249"/>
-      <c r="AF18" s="249"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="250"/>
-      <c r="AN18" s="251"/>
-      <c r="AO18" s="252"/>
-      <c r="AP18" s="252"/>
-      <c r="AQ18" s="252"/>
-      <c r="AR18" s="253"/>
-      <c r="AS18" s="251"/>
-      <c r="AT18" s="252"/>
-      <c r="AU18" s="252"/>
-      <c r="AV18" s="252"/>
-      <c r="AW18" s="253"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="240"/>
+      <c r="N18" s="241"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241"/>
+      <c r="R18" s="242"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="237"/>
+      <c r="W18" s="238"/>
+      <c r="X18" s="238"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="238"/>
+      <c r="AA18" s="238"/>
+      <c r="AB18" s="238"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="238"/>
+      <c r="AE18" s="238"/>
+      <c r="AF18" s="238"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="238"/>
+      <c r="AJ18" s="238"/>
+      <c r="AK18" s="238"/>
+      <c r="AL18" s="238"/>
+      <c r="AM18" s="239"/>
+      <c r="AN18" s="223"/>
+      <c r="AO18" s="224"/>
+      <c r="AP18" s="224"/>
+      <c r="AQ18" s="224"/>
+      <c r="AR18" s="225"/>
+      <c r="AS18" s="223"/>
+      <c r="AT18" s="224"/>
+      <c r="AU18" s="224"/>
+      <c r="AV18" s="224"/>
+      <c r="AW18" s="225"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="245"/>
-      <c r="N19" s="246"/>
-      <c r="O19" s="246"/>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="247"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="232"/>
-      <c r="V19" s="248"/>
-      <c r="W19" s="249"/>
-      <c r="X19" s="249"/>
-      <c r="Y19" s="249"/>
-      <c r="Z19" s="249"/>
-      <c r="AA19" s="249"/>
-      <c r="AB19" s="249"/>
-      <c r="AC19" s="249"/>
-      <c r="AD19" s="249"/>
-      <c r="AE19" s="249"/>
-      <c r="AF19" s="249"/>
-      <c r="AG19" s="249"/>
-      <c r="AH19" s="249"/>
-      <c r="AI19" s="249"/>
-      <c r="AJ19" s="249"/>
-      <c r="AK19" s="249"/>
-      <c r="AL19" s="249"/>
-      <c r="AM19" s="250"/>
-      <c r="AN19" s="232"/>
-      <c r="AO19" s="232"/>
-      <c r="AP19" s="232"/>
-      <c r="AQ19" s="232"/>
-      <c r="AR19" s="232"/>
-      <c r="AS19" s="251"/>
-      <c r="AT19" s="252"/>
-      <c r="AU19" s="252"/>
-      <c r="AV19" s="252"/>
-      <c r="AW19" s="253"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="243"/>
+      <c r="N19" s="241"/>
+      <c r="O19" s="241"/>
+      <c r="P19" s="241"/>
+      <c r="Q19" s="241"/>
+      <c r="R19" s="242"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="237"/>
+      <c r="W19" s="238"/>
+      <c r="X19" s="238"/>
+      <c r="Y19" s="238"/>
+      <c r="Z19" s="238"/>
+      <c r="AA19" s="238"/>
+      <c r="AB19" s="238"/>
+      <c r="AC19" s="238"/>
+      <c r="AD19" s="238"/>
+      <c r="AE19" s="238"/>
+      <c r="AF19" s="238"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="238"/>
+      <c r="AJ19" s="238"/>
+      <c r="AK19" s="238"/>
+      <c r="AL19" s="238"/>
+      <c r="AM19" s="239"/>
+      <c r="AN19" s="236"/>
+      <c r="AO19" s="236"/>
+      <c r="AP19" s="236"/>
+      <c r="AQ19" s="236"/>
+      <c r="AR19" s="236"/>
+      <c r="AS19" s="223"/>
+      <c r="AT19" s="224"/>
+      <c r="AU19" s="224"/>
+      <c r="AV19" s="224"/>
+      <c r="AW19" s="225"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="243"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="245"/>
-      <c r="N20" s="246"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="247"/>
-      <c r="S20" s="251"/>
-      <c r="T20" s="252"/>
-      <c r="U20" s="253"/>
-      <c r="V20" s="248"/>
-      <c r="W20" s="249"/>
-      <c r="X20" s="249"/>
-      <c r="Y20" s="249"/>
-      <c r="Z20" s="249"/>
-      <c r="AA20" s="249"/>
-      <c r="AB20" s="249"/>
-      <c r="AC20" s="249"/>
-      <c r="AD20" s="249"/>
-      <c r="AE20" s="249"/>
-      <c r="AF20" s="249"/>
-      <c r="AG20" s="249"/>
-      <c r="AH20" s="249"/>
-      <c r="AI20" s="249"/>
-      <c r="AJ20" s="249"/>
-      <c r="AK20" s="249"/>
-      <c r="AL20" s="249"/>
-      <c r="AM20" s="250"/>
-      <c r="AN20" s="251"/>
-      <c r="AO20" s="252"/>
-      <c r="AP20" s="252"/>
-      <c r="AQ20" s="252"/>
-      <c r="AR20" s="253"/>
-      <c r="AS20" s="251"/>
-      <c r="AT20" s="252"/>
-      <c r="AU20" s="252"/>
-      <c r="AV20" s="252"/>
-      <c r="AW20" s="253"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="241"/>
+      <c r="O20" s="241"/>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="242"/>
+      <c r="S20" s="223"/>
+      <c r="T20" s="224"/>
+      <c r="U20" s="225"/>
+      <c r="V20" s="237"/>
+      <c r="W20" s="238"/>
+      <c r="X20" s="238"/>
+      <c r="Y20" s="238"/>
+      <c r="Z20" s="238"/>
+      <c r="AA20" s="238"/>
+      <c r="AB20" s="238"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="238"/>
+      <c r="AE20" s="238"/>
+      <c r="AF20" s="238"/>
+      <c r="AG20" s="238"/>
+      <c r="AH20" s="238"/>
+      <c r="AI20" s="238"/>
+      <c r="AJ20" s="238"/>
+      <c r="AK20" s="238"/>
+      <c r="AL20" s="238"/>
+      <c r="AM20" s="239"/>
+      <c r="AN20" s="223"/>
+      <c r="AO20" s="224"/>
+      <c r="AP20" s="224"/>
+      <c r="AQ20" s="224"/>
+      <c r="AR20" s="225"/>
+      <c r="AS20" s="223"/>
+      <c r="AT20" s="224"/>
+      <c r="AU20" s="224"/>
+      <c r="AV20" s="224"/>
+      <c r="AW20" s="225"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="242"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="235"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="245"/>
-      <c r="N21" s="246"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="247"/>
-      <c r="S21" s="232"/>
-      <c r="T21" s="232"/>
-      <c r="U21" s="232"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="249"/>
-      <c r="X21" s="249"/>
-      <c r="Y21" s="249"/>
-      <c r="Z21" s="249"/>
-      <c r="AA21" s="249"/>
-      <c r="AB21" s="249"/>
-      <c r="AC21" s="249"/>
-      <c r="AD21" s="249"/>
-      <c r="AE21" s="249"/>
-      <c r="AF21" s="249"/>
-      <c r="AG21" s="249"/>
-      <c r="AH21" s="249"/>
-      <c r="AI21" s="249"/>
-      <c r="AJ21" s="249"/>
-      <c r="AK21" s="249"/>
-      <c r="AL21" s="249"/>
-      <c r="AM21" s="250"/>
-      <c r="AN21" s="251"/>
-      <c r="AO21" s="252"/>
-      <c r="AP21" s="252"/>
-      <c r="AQ21" s="252"/>
-      <c r="AR21" s="253"/>
-      <c r="AS21" s="251"/>
-      <c r="AT21" s="252"/>
-      <c r="AU21" s="252"/>
-      <c r="AV21" s="252"/>
-      <c r="AW21" s="253"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="243"/>
+      <c r="N21" s="241"/>
+      <c r="O21" s="241"/>
+      <c r="P21" s="241"/>
+      <c r="Q21" s="241"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="238"/>
+      <c r="X21" s="238"/>
+      <c r="Y21" s="238"/>
+      <c r="Z21" s="238"/>
+      <c r="AA21" s="238"/>
+      <c r="AB21" s="238"/>
+      <c r="AC21" s="238"/>
+      <c r="AD21" s="238"/>
+      <c r="AE21" s="238"/>
+      <c r="AF21" s="238"/>
+      <c r="AG21" s="238"/>
+      <c r="AH21" s="238"/>
+      <c r="AI21" s="238"/>
+      <c r="AJ21" s="238"/>
+      <c r="AK21" s="238"/>
+      <c r="AL21" s="238"/>
+      <c r="AM21" s="239"/>
+      <c r="AN21" s="223"/>
+      <c r="AO21" s="224"/>
+      <c r="AP21" s="224"/>
+      <c r="AQ21" s="224"/>
+      <c r="AR21" s="225"/>
+      <c r="AS21" s="223"/>
+      <c r="AT21" s="224"/>
+      <c r="AU21" s="224"/>
+      <c r="AV21" s="224"/>
+      <c r="AW21" s="225"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="242"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="244"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="235"/>
-      <c r="K22" s="236"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="245"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="246"/>
-      <c r="P22" s="246"/>
-      <c r="Q22" s="246"/>
-      <c r="R22" s="247"/>
-      <c r="S22" s="232"/>
-      <c r="T22" s="232"/>
-      <c r="U22" s="232"/>
-      <c r="V22" s="248"/>
-      <c r="W22" s="249"/>
-      <c r="X22" s="249"/>
-      <c r="Y22" s="249"/>
-      <c r="Z22" s="249"/>
-      <c r="AA22" s="249"/>
-      <c r="AB22" s="249"/>
-      <c r="AC22" s="249"/>
-      <c r="AD22" s="249"/>
-      <c r="AE22" s="249"/>
-      <c r="AF22" s="249"/>
-      <c r="AG22" s="249"/>
-      <c r="AH22" s="249"/>
-      <c r="AI22" s="249"/>
-      <c r="AJ22" s="249"/>
-      <c r="AK22" s="249"/>
-      <c r="AL22" s="249"/>
-      <c r="AM22" s="250"/>
-      <c r="AN22" s="251"/>
-      <c r="AO22" s="252"/>
-      <c r="AP22" s="252"/>
-      <c r="AQ22" s="252"/>
-      <c r="AR22" s="253"/>
-      <c r="AS22" s="251"/>
-      <c r="AT22" s="252"/>
-      <c r="AU22" s="252"/>
-      <c r="AV22" s="252"/>
-      <c r="AW22" s="253"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="243"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="237"/>
+      <c r="W22" s="238"/>
+      <c r="X22" s="238"/>
+      <c r="Y22" s="238"/>
+      <c r="Z22" s="238"/>
+      <c r="AA22" s="238"/>
+      <c r="AB22" s="238"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="238"/>
+      <c r="AE22" s="238"/>
+      <c r="AF22" s="238"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="238"/>
+      <c r="AJ22" s="238"/>
+      <c r="AK22" s="238"/>
+      <c r="AL22" s="238"/>
+      <c r="AM22" s="239"/>
+      <c r="AN22" s="223"/>
+      <c r="AO22" s="224"/>
+      <c r="AP22" s="224"/>
+      <c r="AQ22" s="224"/>
+      <c r="AR22" s="225"/>
+      <c r="AS22" s="223"/>
+      <c r="AT22" s="224"/>
+      <c r="AU22" s="224"/>
+      <c r="AV22" s="224"/>
+      <c r="AW22" s="225"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="242"/>
-      <c r="C23" s="243"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="236"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="245"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="247"/>
-      <c r="S23" s="232"/>
-      <c r="T23" s="232"/>
-      <c r="U23" s="232"/>
-      <c r="V23" s="248"/>
-      <c r="W23" s="249"/>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="249"/>
-      <c r="AA23" s="249"/>
-      <c r="AB23" s="249"/>
-      <c r="AC23" s="249"/>
-      <c r="AD23" s="249"/>
-      <c r="AE23" s="249"/>
-      <c r="AF23" s="249"/>
-      <c r="AG23" s="249"/>
-      <c r="AH23" s="249"/>
-      <c r="AI23" s="249"/>
-      <c r="AJ23" s="249"/>
-      <c r="AK23" s="249"/>
-      <c r="AL23" s="249"/>
-      <c r="AM23" s="250"/>
-      <c r="AN23" s="251"/>
-      <c r="AO23" s="252"/>
-      <c r="AP23" s="252"/>
-      <c r="AQ23" s="252"/>
-      <c r="AR23" s="253"/>
-      <c r="AS23" s="251"/>
-      <c r="AT23" s="252"/>
-      <c r="AU23" s="252"/>
-      <c r="AV23" s="252"/>
-      <c r="AW23" s="253"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="237"/>
+      <c r="W23" s="238"/>
+      <c r="X23" s="238"/>
+      <c r="Y23" s="238"/>
+      <c r="Z23" s="238"/>
+      <c r="AA23" s="238"/>
+      <c r="AB23" s="238"/>
+      <c r="AC23" s="238"/>
+      <c r="AD23" s="238"/>
+      <c r="AE23" s="238"/>
+      <c r="AF23" s="238"/>
+      <c r="AG23" s="238"/>
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="238"/>
+      <c r="AJ23" s="238"/>
+      <c r="AK23" s="238"/>
+      <c r="AL23" s="238"/>
+      <c r="AM23" s="239"/>
+      <c r="AN23" s="223"/>
+      <c r="AO23" s="224"/>
+      <c r="AP23" s="224"/>
+      <c r="AQ23" s="224"/>
+      <c r="AR23" s="225"/>
+      <c r="AS23" s="223"/>
+      <c r="AT23" s="224"/>
+      <c r="AU23" s="224"/>
+      <c r="AV23" s="224"/>
+      <c r="AW23" s="225"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="242"/>
-      <c r="C24" s="243"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="236"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="232"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="232"/>
-      <c r="V24" s="248"/>
-      <c r="W24" s="249"/>
-      <c r="X24" s="249"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="249"/>
-      <c r="AA24" s="249"/>
-      <c r="AB24" s="249"/>
-      <c r="AC24" s="249"/>
-      <c r="AD24" s="249"/>
-      <c r="AE24" s="249"/>
-      <c r="AF24" s="249"/>
-      <c r="AG24" s="249"/>
-      <c r="AH24" s="249"/>
-      <c r="AI24" s="249"/>
-      <c r="AJ24" s="249"/>
-      <c r="AK24" s="249"/>
-      <c r="AL24" s="249"/>
-      <c r="AM24" s="250"/>
-      <c r="AN24" s="251"/>
-      <c r="AO24" s="252"/>
-      <c r="AP24" s="252"/>
-      <c r="AQ24" s="252"/>
-      <c r="AR24" s="253"/>
-      <c r="AS24" s="251"/>
-      <c r="AT24" s="252"/>
-      <c r="AU24" s="252"/>
-      <c r="AV24" s="252"/>
-      <c r="AW24" s="253"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="243"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="237"/>
+      <c r="W24" s="238"/>
+      <c r="X24" s="238"/>
+      <c r="Y24" s="238"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="238"/>
+      <c r="AB24" s="238"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="238"/>
+      <c r="AE24" s="238"/>
+      <c r="AF24" s="238"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="238"/>
+      <c r="AJ24" s="238"/>
+      <c r="AK24" s="238"/>
+      <c r="AL24" s="238"/>
+      <c r="AM24" s="239"/>
+      <c r="AN24" s="223"/>
+      <c r="AO24" s="224"/>
+      <c r="AP24" s="224"/>
+      <c r="AQ24" s="224"/>
+      <c r="AR24" s="225"/>
+      <c r="AS24" s="223"/>
+      <c r="AT24" s="224"/>
+      <c r="AU24" s="224"/>
+      <c r="AV24" s="224"/>
+      <c r="AW24" s="225"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="242"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="235"/>
-      <c r="K25" s="236"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="247"/>
-      <c r="S25" s="232"/>
-      <c r="T25" s="232"/>
-      <c r="U25" s="232"/>
-      <c r="V25" s="248"/>
-      <c r="W25" s="249"/>
-      <c r="X25" s="249"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
-      <c r="AA25" s="249"/>
-      <c r="AB25" s="249"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="249"/>
-      <c r="AE25" s="249"/>
-      <c r="AF25" s="249"/>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="249"/>
-      <c r="AJ25" s="249"/>
-      <c r="AK25" s="249"/>
-      <c r="AL25" s="249"/>
-      <c r="AM25" s="250"/>
-      <c r="AN25" s="251"/>
-      <c r="AO25" s="252"/>
-      <c r="AP25" s="252"/>
-      <c r="AQ25" s="252"/>
-      <c r="AR25" s="253"/>
-      <c r="AS25" s="251"/>
-      <c r="AT25" s="252"/>
-      <c r="AU25" s="252"/>
-      <c r="AV25" s="252"/>
-      <c r="AW25" s="253"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="230"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="240"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="242"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="237"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="238"/>
+      <c r="AF25" s="238"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="238"/>
+      <c r="AJ25" s="238"/>
+      <c r="AK25" s="238"/>
+      <c r="AL25" s="238"/>
+      <c r="AM25" s="239"/>
+      <c r="AN25" s="223"/>
+      <c r="AO25" s="224"/>
+      <c r="AP25" s="224"/>
+      <c r="AQ25" s="224"/>
+      <c r="AR25" s="225"/>
+      <c r="AS25" s="223"/>
+      <c r="AT25" s="224"/>
+      <c r="AU25" s="224"/>
+      <c r="AV25" s="224"/>
+      <c r="AW25" s="225"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="242"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="236"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="246"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="247"/>
-      <c r="S26" s="232"/>
-      <c r="T26" s="232"/>
-      <c r="U26" s="232"/>
-      <c r="V26" s="248"/>
-      <c r="W26" s="249"/>
-      <c r="X26" s="249"/>
-      <c r="Y26" s="249"/>
-      <c r="Z26" s="249"/>
-      <c r="AA26" s="249"/>
-      <c r="AB26" s="249"/>
-      <c r="AC26" s="249"/>
-      <c r="AD26" s="249"/>
-      <c r="AE26" s="249"/>
-      <c r="AF26" s="249"/>
-      <c r="AG26" s="249"/>
-      <c r="AH26" s="249"/>
-      <c r="AI26" s="249"/>
-      <c r="AJ26" s="249"/>
-      <c r="AK26" s="249"/>
-      <c r="AL26" s="249"/>
-      <c r="AM26" s="250"/>
-      <c r="AN26" s="251"/>
-      <c r="AO26" s="252"/>
-      <c r="AP26" s="252"/>
-      <c r="AQ26" s="252"/>
-      <c r="AR26" s="253"/>
-      <c r="AS26" s="251"/>
-      <c r="AT26" s="252"/>
-      <c r="AU26" s="252"/>
-      <c r="AV26" s="252"/>
-      <c r="AW26" s="253"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="240"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="237"/>
+      <c r="W26" s="238"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="238"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="238"/>
+      <c r="AE26" s="238"/>
+      <c r="AF26" s="238"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="238"/>
+      <c r="AJ26" s="238"/>
+      <c r="AK26" s="238"/>
+      <c r="AL26" s="238"/>
+      <c r="AM26" s="239"/>
+      <c r="AN26" s="223"/>
+      <c r="AO26" s="224"/>
+      <c r="AP26" s="224"/>
+      <c r="AQ26" s="224"/>
+      <c r="AR26" s="225"/>
+      <c r="AS26" s="223"/>
+      <c r="AT26" s="224"/>
+      <c r="AU26" s="224"/>
+      <c r="AV26" s="224"/>
+      <c r="AW26" s="225"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="236"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="246"/>
-      <c r="P27" s="246"/>
-      <c r="Q27" s="246"/>
-      <c r="R27" s="247"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="232"/>
-      <c r="U27" s="232"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="249"/>
-      <c r="X27" s="249"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="249"/>
-      <c r="AA27" s="249"/>
-      <c r="AB27" s="249"/>
-      <c r="AC27" s="249"/>
-      <c r="AD27" s="249"/>
-      <c r="AE27" s="249"/>
-      <c r="AF27" s="249"/>
-      <c r="AG27" s="249"/>
-      <c r="AH27" s="249"/>
-      <c r="AI27" s="249"/>
-      <c r="AJ27" s="249"/>
-      <c r="AK27" s="249"/>
-      <c r="AL27" s="249"/>
-      <c r="AM27" s="250"/>
-      <c r="AN27" s="251"/>
-      <c r="AO27" s="252"/>
-      <c r="AP27" s="252"/>
-      <c r="AQ27" s="252"/>
-      <c r="AR27" s="253"/>
-      <c r="AS27" s="251"/>
-      <c r="AT27" s="252"/>
-      <c r="AU27" s="252"/>
-      <c r="AV27" s="252"/>
-      <c r="AW27" s="253"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="230"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="240"/>
+      <c r="N27" s="241"/>
+      <c r="O27" s="241"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="242"/>
+      <c r="S27" s="236"/>
+      <c r="T27" s="236"/>
+      <c r="U27" s="236"/>
+      <c r="V27" s="237"/>
+      <c r="W27" s="238"/>
+      <c r="X27" s="238"/>
+      <c r="Y27" s="238"/>
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="238"/>
+      <c r="AB27" s="238"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="238"/>
+      <c r="AF27" s="238"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="238"/>
+      <c r="AJ27" s="238"/>
+      <c r="AK27" s="238"/>
+      <c r="AL27" s="238"/>
+      <c r="AM27" s="239"/>
+      <c r="AN27" s="223"/>
+      <c r="AO27" s="224"/>
+      <c r="AP27" s="224"/>
+      <c r="AQ27" s="224"/>
+      <c r="AR27" s="225"/>
+      <c r="AS27" s="223"/>
+      <c r="AT27" s="224"/>
+      <c r="AU27" s="224"/>
+      <c r="AV27" s="224"/>
+      <c r="AW27" s="225"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="245"/>
-      <c r="N28" s="246"/>
-      <c r="O28" s="246"/>
-      <c r="P28" s="246"/>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="247"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="232"/>
-      <c r="U28" s="232"/>
-      <c r="V28" s="248"/>
-      <c r="W28" s="249"/>
-      <c r="X28" s="249"/>
-      <c r="Y28" s="249"/>
-      <c r="Z28" s="249"/>
-      <c r="AA28" s="249"/>
-      <c r="AB28" s="249"/>
-      <c r="AC28" s="249"/>
-      <c r="AD28" s="249"/>
-      <c r="AE28" s="249"/>
-      <c r="AF28" s="249"/>
-      <c r="AG28" s="249"/>
-      <c r="AH28" s="249"/>
-      <c r="AI28" s="249"/>
-      <c r="AJ28" s="249"/>
-      <c r="AK28" s="249"/>
-      <c r="AL28" s="249"/>
-      <c r="AM28" s="250"/>
-      <c r="AN28" s="251"/>
-      <c r="AO28" s="252"/>
-      <c r="AP28" s="252"/>
-      <c r="AQ28" s="252"/>
-      <c r="AR28" s="253"/>
-      <c r="AS28" s="251"/>
-      <c r="AT28" s="252"/>
-      <c r="AU28" s="252"/>
-      <c r="AV28" s="252"/>
-      <c r="AW28" s="253"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="243"/>
+      <c r="N28" s="241"/>
+      <c r="O28" s="241"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="242"/>
+      <c r="S28" s="236"/>
+      <c r="T28" s="236"/>
+      <c r="U28" s="236"/>
+      <c r="V28" s="237"/>
+      <c r="W28" s="238"/>
+      <c r="X28" s="238"/>
+      <c r="Y28" s="238"/>
+      <c r="Z28" s="238"/>
+      <c r="AA28" s="238"/>
+      <c r="AB28" s="238"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="238"/>
+      <c r="AE28" s="238"/>
+      <c r="AF28" s="238"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="238"/>
+      <c r="AJ28" s="238"/>
+      <c r="AK28" s="238"/>
+      <c r="AL28" s="238"/>
+      <c r="AM28" s="239"/>
+      <c r="AN28" s="223"/>
+      <c r="AO28" s="224"/>
+      <c r="AP28" s="224"/>
+      <c r="AQ28" s="224"/>
+      <c r="AR28" s="225"/>
+      <c r="AS28" s="223"/>
+      <c r="AT28" s="224"/>
+      <c r="AU28" s="224"/>
+      <c r="AV28" s="224"/>
+      <c r="AW28" s="225"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="242"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="245"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="246"/>
-      <c r="P29" s="246"/>
-      <c r="Q29" s="246"/>
-      <c r="R29" s="247"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="248"/>
-      <c r="W29" s="249"/>
-      <c r="X29" s="249"/>
-      <c r="Y29" s="249"/>
-      <c r="Z29" s="249"/>
-      <c r="AA29" s="249"/>
-      <c r="AB29" s="249"/>
-      <c r="AC29" s="249"/>
-      <c r="AD29" s="249"/>
-      <c r="AE29" s="249"/>
-      <c r="AF29" s="249"/>
-      <c r="AG29" s="249"/>
-      <c r="AH29" s="249"/>
-      <c r="AI29" s="249"/>
-      <c r="AJ29" s="249"/>
-      <c r="AK29" s="249"/>
-      <c r="AL29" s="249"/>
-      <c r="AM29" s="250"/>
-      <c r="AN29" s="251"/>
-      <c r="AO29" s="252"/>
-      <c r="AP29" s="252"/>
-      <c r="AQ29" s="252"/>
-      <c r="AR29" s="253"/>
-      <c r="AS29" s="251"/>
-      <c r="AT29" s="252"/>
-      <c r="AU29" s="252"/>
-      <c r="AV29" s="252"/>
-      <c r="AW29" s="253"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="243"/>
+      <c r="N29" s="241"/>
+      <c r="O29" s="241"/>
+      <c r="P29" s="241"/>
+      <c r="Q29" s="241"/>
+      <c r="R29" s="242"/>
+      <c r="S29" s="236"/>
+      <c r="T29" s="236"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="237"/>
+      <c r="W29" s="238"/>
+      <c r="X29" s="238"/>
+      <c r="Y29" s="238"/>
+      <c r="Z29" s="238"/>
+      <c r="AA29" s="238"/>
+      <c r="AB29" s="238"/>
+      <c r="AC29" s="238"/>
+      <c r="AD29" s="238"/>
+      <c r="AE29" s="238"/>
+      <c r="AF29" s="238"/>
+      <c r="AG29" s="238"/>
+      <c r="AH29" s="238"/>
+      <c r="AI29" s="238"/>
+      <c r="AJ29" s="238"/>
+      <c r="AK29" s="238"/>
+      <c r="AL29" s="238"/>
+      <c r="AM29" s="239"/>
+      <c r="AN29" s="223"/>
+      <c r="AO29" s="224"/>
+      <c r="AP29" s="224"/>
+      <c r="AQ29" s="224"/>
+      <c r="AR29" s="225"/>
+      <c r="AS29" s="223"/>
+      <c r="AT29" s="224"/>
+      <c r="AU29" s="224"/>
+      <c r="AV29" s="224"/>
+      <c r="AW29" s="225"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="235"/>
-      <c r="K30" s="236"/>
-      <c r="L30" s="237"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="246"/>
-      <c r="O30" s="246"/>
-      <c r="P30" s="246"/>
-      <c r="Q30" s="246"/>
-      <c r="R30" s="247"/>
-      <c r="S30" s="232"/>
-      <c r="T30" s="232"/>
-      <c r="U30" s="232"/>
-      <c r="V30" s="248"/>
-      <c r="W30" s="249"/>
-      <c r="X30" s="249"/>
-      <c r="Y30" s="249"/>
-      <c r="Z30" s="249"/>
-      <c r="AA30" s="249"/>
-      <c r="AB30" s="249"/>
-      <c r="AC30" s="249"/>
-      <c r="AD30" s="249"/>
-      <c r="AE30" s="249"/>
-      <c r="AF30" s="249"/>
-      <c r="AG30" s="249"/>
-      <c r="AH30" s="249"/>
-      <c r="AI30" s="249"/>
-      <c r="AJ30" s="249"/>
-      <c r="AK30" s="249"/>
-      <c r="AL30" s="249"/>
-      <c r="AM30" s="250"/>
-      <c r="AN30" s="251"/>
-      <c r="AO30" s="252"/>
-      <c r="AP30" s="252"/>
-      <c r="AQ30" s="252"/>
-      <c r="AR30" s="253"/>
-      <c r="AS30" s="251"/>
-      <c r="AT30" s="252"/>
-      <c r="AU30" s="252"/>
-      <c r="AV30" s="252"/>
-      <c r="AW30" s="253"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="230"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="240"/>
+      <c r="N30" s="241"/>
+      <c r="O30" s="241"/>
+      <c r="P30" s="241"/>
+      <c r="Q30" s="241"/>
+      <c r="R30" s="242"/>
+      <c r="S30" s="236"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="237"/>
+      <c r="W30" s="238"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="238"/>
+      <c r="Z30" s="238"/>
+      <c r="AA30" s="238"/>
+      <c r="AB30" s="238"/>
+      <c r="AC30" s="238"/>
+      <c r="AD30" s="238"/>
+      <c r="AE30" s="238"/>
+      <c r="AF30" s="238"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="238"/>
+      <c r="AJ30" s="238"/>
+      <c r="AK30" s="238"/>
+      <c r="AL30" s="238"/>
+      <c r="AM30" s="239"/>
+      <c r="AN30" s="223"/>
+      <c r="AO30" s="224"/>
+      <c r="AP30" s="224"/>
+      <c r="AQ30" s="224"/>
+      <c r="AR30" s="225"/>
+      <c r="AS30" s="223"/>
+      <c r="AT30" s="224"/>
+      <c r="AU30" s="224"/>
+      <c r="AV30" s="224"/>
+      <c r="AW30" s="225"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="242"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="234"/>
-      <c r="J31" s="235"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="256"/>
-      <c r="N31" s="246"/>
-      <c r="O31" s="246"/>
-      <c r="P31" s="246"/>
-      <c r="Q31" s="246"/>
-      <c r="R31" s="247"/>
-      <c r="S31" s="232"/>
-      <c r="T31" s="232"/>
-      <c r="U31" s="232"/>
-      <c r="V31" s="248"/>
-      <c r="W31" s="249"/>
-      <c r="X31" s="249"/>
-      <c r="Y31" s="249"/>
-      <c r="Z31" s="249"/>
-      <c r="AA31" s="249"/>
-      <c r="AB31" s="249"/>
-      <c r="AC31" s="249"/>
-      <c r="AD31" s="249"/>
-      <c r="AE31" s="249"/>
-      <c r="AF31" s="249"/>
-      <c r="AG31" s="249"/>
-      <c r="AH31" s="249"/>
-      <c r="AI31" s="249"/>
-      <c r="AJ31" s="249"/>
-      <c r="AK31" s="249"/>
-      <c r="AL31" s="249"/>
-      <c r="AM31" s="250"/>
-      <c r="AN31" s="251"/>
-      <c r="AO31" s="252"/>
-      <c r="AP31" s="252"/>
-      <c r="AQ31" s="252"/>
-      <c r="AR31" s="253"/>
-      <c r="AS31" s="251"/>
-      <c r="AT31" s="252"/>
-      <c r="AU31" s="252"/>
-      <c r="AV31" s="252"/>
-      <c r="AW31" s="253"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="230"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="240"/>
+      <c r="N31" s="241"/>
+      <c r="O31" s="241"/>
+      <c r="P31" s="241"/>
+      <c r="Q31" s="241"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="236"/>
+      <c r="T31" s="236"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="237"/>
+      <c r="W31" s="238"/>
+      <c r="X31" s="238"/>
+      <c r="Y31" s="238"/>
+      <c r="Z31" s="238"/>
+      <c r="AA31" s="238"/>
+      <c r="AB31" s="238"/>
+      <c r="AC31" s="238"/>
+      <c r="AD31" s="238"/>
+      <c r="AE31" s="238"/>
+      <c r="AF31" s="238"/>
+      <c r="AG31" s="238"/>
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="238"/>
+      <c r="AJ31" s="238"/>
+      <c r="AK31" s="238"/>
+      <c r="AL31" s="238"/>
+      <c r="AM31" s="239"/>
+      <c r="AN31" s="223"/>
+      <c r="AO31" s="224"/>
+      <c r="AP31" s="224"/>
+      <c r="AQ31" s="224"/>
+      <c r="AR31" s="225"/>
+      <c r="AS31" s="223"/>
+      <c r="AT31" s="224"/>
+      <c r="AU31" s="224"/>
+      <c r="AV31" s="224"/>
+      <c r="AW31" s="225"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="242"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="256"/>
-      <c r="N32" s="246"/>
-      <c r="O32" s="246"/>
-      <c r="P32" s="246"/>
-      <c r="Q32" s="246"/>
-      <c r="R32" s="247"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="248"/>
-      <c r="W32" s="249"/>
-      <c r="X32" s="249"/>
-      <c r="Y32" s="249"/>
-      <c r="Z32" s="249"/>
-      <c r="AA32" s="249"/>
-      <c r="AB32" s="249"/>
-      <c r="AC32" s="249"/>
-      <c r="AD32" s="249"/>
-      <c r="AE32" s="249"/>
-      <c r="AF32" s="249"/>
-      <c r="AG32" s="249"/>
-      <c r="AH32" s="249"/>
-      <c r="AI32" s="249"/>
-      <c r="AJ32" s="249"/>
-      <c r="AK32" s="249"/>
-      <c r="AL32" s="249"/>
-      <c r="AM32" s="250"/>
-      <c r="AN32" s="251"/>
-      <c r="AO32" s="252"/>
-      <c r="AP32" s="252"/>
-      <c r="AQ32" s="252"/>
-      <c r="AR32" s="253"/>
-      <c r="AS32" s="251"/>
-      <c r="AT32" s="252"/>
-      <c r="AU32" s="252"/>
-      <c r="AV32" s="252"/>
-      <c r="AW32" s="253"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="241"/>
+      <c r="O32" s="241"/>
+      <c r="P32" s="241"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="242"/>
+      <c r="S32" s="236"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="237"/>
+      <c r="W32" s="238"/>
+      <c r="X32" s="238"/>
+      <c r="Y32" s="238"/>
+      <c r="Z32" s="238"/>
+      <c r="AA32" s="238"/>
+      <c r="AB32" s="238"/>
+      <c r="AC32" s="238"/>
+      <c r="AD32" s="238"/>
+      <c r="AE32" s="238"/>
+      <c r="AF32" s="238"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="238"/>
+      <c r="AJ32" s="238"/>
+      <c r="AK32" s="238"/>
+      <c r="AL32" s="238"/>
+      <c r="AM32" s="239"/>
+      <c r="AN32" s="223"/>
+      <c r="AO32" s="224"/>
+      <c r="AP32" s="224"/>
+      <c r="AQ32" s="224"/>
+      <c r="AR32" s="225"/>
+      <c r="AS32" s="223"/>
+      <c r="AT32" s="224"/>
+      <c r="AU32" s="224"/>
+      <c r="AV32" s="224"/>
+      <c r="AW32" s="225"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="242"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="235"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="256"/>
-      <c r="N33" s="246"/>
-      <c r="O33" s="246"/>
-      <c r="P33" s="246"/>
-      <c r="Q33" s="246"/>
-      <c r="R33" s="247"/>
-      <c r="S33" s="232"/>
-      <c r="T33" s="232"/>
-      <c r="U33" s="232"/>
-      <c r="V33" s="248"/>
-      <c r="W33" s="249"/>
-      <c r="X33" s="249"/>
-      <c r="Y33" s="249"/>
-      <c r="Z33" s="249"/>
-      <c r="AA33" s="249"/>
-      <c r="AB33" s="249"/>
-      <c r="AC33" s="249"/>
-      <c r="AD33" s="249"/>
-      <c r="AE33" s="249"/>
-      <c r="AF33" s="249"/>
-      <c r="AG33" s="249"/>
-      <c r="AH33" s="249"/>
-      <c r="AI33" s="249"/>
-      <c r="AJ33" s="249"/>
-      <c r="AK33" s="249"/>
-      <c r="AL33" s="249"/>
-      <c r="AM33" s="250"/>
-      <c r="AN33" s="251"/>
-      <c r="AO33" s="252"/>
-      <c r="AP33" s="252"/>
-      <c r="AQ33" s="252"/>
-      <c r="AR33" s="253"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="252"/>
-      <c r="AU33" s="252"/>
-      <c r="AV33" s="252"/>
-      <c r="AW33" s="253"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="240"/>
+      <c r="N33" s="241"/>
+      <c r="O33" s="241"/>
+      <c r="P33" s="241"/>
+      <c r="Q33" s="241"/>
+      <c r="R33" s="242"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="238"/>
+      <c r="X33" s="238"/>
+      <c r="Y33" s="238"/>
+      <c r="Z33" s="238"/>
+      <c r="AA33" s="238"/>
+      <c r="AB33" s="238"/>
+      <c r="AC33" s="238"/>
+      <c r="AD33" s="238"/>
+      <c r="AE33" s="238"/>
+      <c r="AF33" s="238"/>
+      <c r="AG33" s="238"/>
+      <c r="AH33" s="238"/>
+      <c r="AI33" s="238"/>
+      <c r="AJ33" s="238"/>
+      <c r="AK33" s="238"/>
+      <c r="AL33" s="238"/>
+      <c r="AM33" s="239"/>
+      <c r="AN33" s="223"/>
+      <c r="AO33" s="224"/>
+      <c r="AP33" s="224"/>
+      <c r="AQ33" s="224"/>
+      <c r="AR33" s="225"/>
+      <c r="AS33" s="223"/>
+      <c r="AT33" s="224"/>
+      <c r="AU33" s="224"/>
+      <c r="AV33" s="224"/>
+      <c r="AW33" s="225"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="242"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="235"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="237"/>
-      <c r="M34" s="260"/>
-      <c r="N34" s="261"/>
-      <c r="O34" s="261"/>
-      <c r="P34" s="261"/>
-      <c r="Q34" s="261"/>
-      <c r="R34" s="262"/>
-      <c r="S34" s="232"/>
-      <c r="T34" s="232"/>
-      <c r="U34" s="232"/>
-      <c r="V34" s="248"/>
-      <c r="W34" s="249"/>
-      <c r="X34" s="249"/>
-      <c r="Y34" s="249"/>
-      <c r="Z34" s="249"/>
-      <c r="AA34" s="249"/>
-      <c r="AB34" s="249"/>
-      <c r="AC34" s="249"/>
-      <c r="AD34" s="249"/>
-      <c r="AE34" s="249"/>
-      <c r="AF34" s="249"/>
-      <c r="AG34" s="249"/>
-      <c r="AH34" s="249"/>
-      <c r="AI34" s="249"/>
-      <c r="AJ34" s="249"/>
-      <c r="AK34" s="249"/>
-      <c r="AL34" s="249"/>
-      <c r="AM34" s="250"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="252"/>
-      <c r="AP34" s="252"/>
-      <c r="AQ34" s="252"/>
-      <c r="AR34" s="253"/>
-      <c r="AS34" s="251"/>
-      <c r="AT34" s="252"/>
-      <c r="AU34" s="252"/>
-      <c r="AV34" s="252"/>
-      <c r="AW34" s="253"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="231"/>
+      <c r="L34" s="232"/>
+      <c r="M34" s="233"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="236"/>
+      <c r="T34" s="236"/>
+      <c r="U34" s="236"/>
+      <c r="V34" s="237"/>
+      <c r="W34" s="238"/>
+      <c r="X34" s="238"/>
+      <c r="Y34" s="238"/>
+      <c r="Z34" s="238"/>
+      <c r="AA34" s="238"/>
+      <c r="AB34" s="238"/>
+      <c r="AC34" s="238"/>
+      <c r="AD34" s="238"/>
+      <c r="AE34" s="238"/>
+      <c r="AF34" s="238"/>
+      <c r="AG34" s="238"/>
+      <c r="AH34" s="238"/>
+      <c r="AI34" s="238"/>
+      <c r="AJ34" s="238"/>
+      <c r="AK34" s="238"/>
+      <c r="AL34" s="238"/>
+      <c r="AM34" s="239"/>
+      <c r="AN34" s="223"/>
+      <c r="AO34" s="224"/>
+      <c r="AP34" s="224"/>
+      <c r="AQ34" s="224"/>
+      <c r="AR34" s="225"/>
+      <c r="AS34" s="223"/>
+      <c r="AT34" s="224"/>
+      <c r="AU34" s="224"/>
+      <c r="AV34" s="224"/>
+      <c r="AW34" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8953,239 +9204,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9345,11 +9363,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="263"/>
-      <c r="AP2" s="264"/>
-      <c r="AQ2" s="264"/>
-      <c r="AR2" s="264"/>
-      <c r="AS2" s="265"/>
+      <c r="AO2" s="267"/>
+      <c r="AP2" s="268"/>
+      <c r="AQ2" s="268"/>
+      <c r="AR2" s="268"/>
+      <c r="AS2" s="269"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9358,14 +9376,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="267"/>
-      <c r="BB2" s="267"/>
-      <c r="BC2" s="267"/>
-      <c r="BD2" s="267"/>
-      <c r="BE2" s="267"/>
-      <c r="BF2" s="267"/>
-      <c r="BG2" s="268"/>
+      <c r="AZ2" s="270"/>
+      <c r="BA2" s="271"/>
+      <c r="BB2" s="271"/>
+      <c r="BC2" s="271"/>
+      <c r="BD2" s="271"/>
+      <c r="BE2" s="271"/>
+      <c r="BF2" s="271"/>
+      <c r="BG2" s="272"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11114,10 +11132,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="269" t="s">
+      <c r="B50" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="270"/>
+      <c r="C50" s="274"/>
       <c r="D50" s="73" t="s">
         <v>84</v>
       </c>
@@ -11200,10 +11218,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="273">
+      <c r="B51" s="263">
         <v>1</v>
       </c>
-      <c r="C51" s="274"/>
+      <c r="C51" s="264"/>
       <c r="D51" s="185" t="s">
         <v>99</v>
       </c>
@@ -11235,16 +11253,16 @@
       <c r="AB51" s="186"/>
       <c r="AC51" s="186"/>
       <c r="AD51" s="187"/>
-      <c r="AE51" s="271" t="s">
+      <c r="AE51" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF51" s="272"/>
-      <c r="AG51" s="271"/>
-      <c r="AH51" s="272"/>
-      <c r="AI51" s="271"/>
-      <c r="AJ51" s="272"/>
-      <c r="AK51" s="271"/>
-      <c r="AL51" s="272"/>
+      <c r="AF51" s="266"/>
+      <c r="AG51" s="265"/>
+      <c r="AH51" s="266"/>
+      <c r="AI51" s="265"/>
+      <c r="AJ51" s="266"/>
+      <c r="AK51" s="265"/>
+      <c r="AL51" s="266"/>
       <c r="AM51" s="188" t="s">
         <v>102</v>
       </c>
@@ -11278,10 +11296,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="273">
+      <c r="B52" s="263">
         <v>2</v>
       </c>
-      <c r="C52" s="274"/>
+      <c r="C52" s="264"/>
       <c r="D52" s="185" t="s">
         <v>99</v>
       </c>
@@ -11313,16 +11331,16 @@
       <c r="AB52" s="186"/>
       <c r="AC52" s="186"/>
       <c r="AD52" s="187"/>
-      <c r="AE52" s="271" t="s">
+      <c r="AE52" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF52" s="272"/>
-      <c r="AG52" s="271"/>
-      <c r="AH52" s="272"/>
-      <c r="AI52" s="271"/>
-      <c r="AJ52" s="272"/>
-      <c r="AK52" s="271"/>
-      <c r="AL52" s="272"/>
+      <c r="AF52" s="266"/>
+      <c r="AG52" s="265"/>
+      <c r="AH52" s="266"/>
+      <c r="AI52" s="265"/>
+      <c r="AJ52" s="266"/>
+      <c r="AK52" s="265"/>
+      <c r="AL52" s="266"/>
       <c r="AM52" s="188" t="s">
         <v>114</v>
       </c>
@@ -11356,10 +11374,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="273">
+      <c r="B53" s="263">
         <v>3</v>
       </c>
-      <c r="C53" s="274"/>
+      <c r="C53" s="264"/>
       <c r="D53" s="185" t="s">
         <v>99</v>
       </c>
@@ -11391,16 +11409,16 @@
       <c r="AB53" s="186"/>
       <c r="AC53" s="186"/>
       <c r="AD53" s="187"/>
-      <c r="AE53" s="271" t="s">
+      <c r="AE53" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF53" s="272"/>
-      <c r="AG53" s="271"/>
-      <c r="AH53" s="272"/>
-      <c r="AI53" s="271"/>
-      <c r="AJ53" s="272"/>
-      <c r="AK53" s="271"/>
-      <c r="AL53" s="272"/>
+      <c r="AF53" s="266"/>
+      <c r="AG53" s="265"/>
+      <c r="AH53" s="266"/>
+      <c r="AI53" s="265"/>
+      <c r="AJ53" s="266"/>
+      <c r="AK53" s="265"/>
+      <c r="AL53" s="266"/>
       <c r="AM53" s="188" t="s">
         <v>103</v>
       </c>
@@ -11434,10 +11452,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="273">
+      <c r="B54" s="263">
         <v>4</v>
       </c>
-      <c r="C54" s="274"/>
+      <c r="C54" s="264"/>
       <c r="D54" s="185" t="s">
         <v>99</v>
       </c>
@@ -11469,16 +11487,16 @@
       <c r="AB54" s="186"/>
       <c r="AC54" s="186"/>
       <c r="AD54" s="187"/>
-      <c r="AE54" s="271" t="s">
+      <c r="AE54" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF54" s="272"/>
-      <c r="AG54" s="271"/>
-      <c r="AH54" s="272"/>
-      <c r="AI54" s="271"/>
-      <c r="AJ54" s="272"/>
-      <c r="AK54" s="271"/>
-      <c r="AL54" s="272"/>
+      <c r="AF54" s="266"/>
+      <c r="AG54" s="265"/>
+      <c r="AH54" s="266"/>
+      <c r="AI54" s="265"/>
+      <c r="AJ54" s="266"/>
+      <c r="AK54" s="265"/>
+      <c r="AL54" s="266"/>
       <c r="AM54" s="188" t="s">
         <v>104</v>
       </c>
@@ -11512,10 +11530,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="273">
+      <c r="B55" s="263">
         <v>5</v>
       </c>
-      <c r="C55" s="274"/>
+      <c r="C55" s="264"/>
       <c r="D55" s="185" t="s">
         <v>99</v>
       </c>
@@ -11547,16 +11565,16 @@
       <c r="AB55" s="186"/>
       <c r="AC55" s="186"/>
       <c r="AD55" s="187"/>
-      <c r="AE55" s="271" t="s">
+      <c r="AE55" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF55" s="272"/>
-      <c r="AG55" s="271"/>
-      <c r="AH55" s="272"/>
-      <c r="AI55" s="271"/>
-      <c r="AJ55" s="272"/>
-      <c r="AK55" s="271"/>
-      <c r="AL55" s="272"/>
+      <c r="AF55" s="266"/>
+      <c r="AG55" s="265"/>
+      <c r="AH55" s="266"/>
+      <c r="AI55" s="265"/>
+      <c r="AJ55" s="266"/>
+      <c r="AK55" s="265"/>
+      <c r="AL55" s="266"/>
       <c r="AM55" s="188" t="s">
         <v>321</v>
       </c>
@@ -11590,10 +11608,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="273">
+      <c r="B56" s="263">
         <v>6</v>
       </c>
-      <c r="C56" s="274"/>
+      <c r="C56" s="264"/>
       <c r="D56" s="185" t="s">
         <v>99</v>
       </c>
@@ -11625,16 +11643,16 @@
       <c r="AB56" s="186"/>
       <c r="AC56" s="186"/>
       <c r="AD56" s="187"/>
-      <c r="AE56" s="271" t="s">
+      <c r="AE56" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF56" s="272"/>
-      <c r="AG56" s="271"/>
-      <c r="AH56" s="272"/>
-      <c r="AI56" s="271"/>
-      <c r="AJ56" s="272"/>
-      <c r="AK56" s="271"/>
-      <c r="AL56" s="272"/>
+      <c r="AF56" s="266"/>
+      <c r="AG56" s="265"/>
+      <c r="AH56" s="266"/>
+      <c r="AI56" s="265"/>
+      <c r="AJ56" s="266"/>
+      <c r="AK56" s="265"/>
+      <c r="AL56" s="266"/>
       <c r="AM56" s="188" t="s">
         <v>446</v>
       </c>
@@ -11668,10 +11686,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="273">
+      <c r="B57" s="263">
         <v>7</v>
       </c>
-      <c r="C57" s="274"/>
+      <c r="C57" s="264"/>
       <c r="D57" s="185" t="s">
         <v>100</v>
       </c>
@@ -11703,16 +11721,16 @@
       <c r="AB57" s="186"/>
       <c r="AC57" s="186"/>
       <c r="AD57" s="187"/>
-      <c r="AE57" s="271" t="s">
+      <c r="AE57" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF57" s="272"/>
-      <c r="AG57" s="271"/>
-      <c r="AH57" s="272"/>
-      <c r="AI57" s="271"/>
-      <c r="AJ57" s="272"/>
-      <c r="AK57" s="271"/>
-      <c r="AL57" s="272"/>
+      <c r="AF57" s="266"/>
+      <c r="AG57" s="265"/>
+      <c r="AH57" s="266"/>
+      <c r="AI57" s="265"/>
+      <c r="AJ57" s="266"/>
+      <c r="AK57" s="265"/>
+      <c r="AL57" s="266"/>
       <c r="AM57" s="188" t="s">
         <v>437</v>
       </c>
@@ -11746,10 +11764,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="273">
+      <c r="B58" s="263">
         <v>8</v>
       </c>
-      <c r="C58" s="274"/>
+      <c r="C58" s="264"/>
       <c r="D58" s="185" t="s">
         <v>100</v>
       </c>
@@ -11781,16 +11799,16 @@
       <c r="AB58" s="186"/>
       <c r="AC58" s="186"/>
       <c r="AD58" s="187"/>
-      <c r="AE58" s="271" t="s">
+      <c r="AE58" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF58" s="272"/>
-      <c r="AG58" s="271"/>
-      <c r="AH58" s="272"/>
-      <c r="AI58" s="271"/>
-      <c r="AJ58" s="272"/>
-      <c r="AK58" s="271"/>
-      <c r="AL58" s="272"/>
+      <c r="AF58" s="266"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="266"/>
+      <c r="AI58" s="265"/>
+      <c r="AJ58" s="266"/>
+      <c r="AK58" s="265"/>
+      <c r="AL58" s="266"/>
       <c r="AM58" s="188" t="s">
         <v>438</v>
       </c>
@@ -11824,10 +11842,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="273">
+      <c r="B59" s="263">
         <v>9</v>
       </c>
-      <c r="C59" s="274"/>
+      <c r="C59" s="264"/>
       <c r="D59" s="185" t="s">
         <v>100</v>
       </c>
@@ -11859,16 +11877,16 @@
       <c r="AB59" s="186"/>
       <c r="AC59" s="186"/>
       <c r="AD59" s="187"/>
-      <c r="AE59" s="271" t="s">
+      <c r="AE59" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF59" s="272"/>
-      <c r="AG59" s="271"/>
-      <c r="AH59" s="272"/>
-      <c r="AI59" s="271"/>
-      <c r="AJ59" s="272"/>
-      <c r="AK59" s="271"/>
-      <c r="AL59" s="272"/>
+      <c r="AF59" s="266"/>
+      <c r="AG59" s="265"/>
+      <c r="AH59" s="266"/>
+      <c r="AI59" s="265"/>
+      <c r="AJ59" s="266"/>
+      <c r="AK59" s="265"/>
+      <c r="AL59" s="266"/>
       <c r="AM59" s="188" t="s">
         <v>440</v>
       </c>
@@ -11902,10 +11920,10 @@
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
-      <c r="B60" s="273">
+      <c r="B60" s="263">
         <v>10</v>
       </c>
-      <c r="C60" s="274"/>
+      <c r="C60" s="264"/>
       <c r="D60" s="185" t="s">
         <v>100</v>
       </c>
@@ -11937,16 +11955,16 @@
       <c r="AB60" s="186"/>
       <c r="AC60" s="186"/>
       <c r="AD60" s="187"/>
-      <c r="AE60" s="271" t="s">
+      <c r="AE60" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="AF60" s="272"/>
-      <c r="AG60" s="271"/>
-      <c r="AH60" s="272"/>
-      <c r="AI60" s="271"/>
-      <c r="AJ60" s="272"/>
-      <c r="AK60" s="271"/>
-      <c r="AL60" s="272"/>
+      <c r="AF60" s="266"/>
+      <c r="AG60" s="265"/>
+      <c r="AH60" s="266"/>
+      <c r="AI60" s="265"/>
+      <c r="AJ60" s="266"/>
+      <c r="AK60" s="265"/>
+      <c r="AL60" s="266"/>
       <c r="AM60" s="188" t="s">
         <v>442</v>
       </c>
@@ -11985,46 +12003,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -12038,11 +12016,51 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -12183,7 +12201,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="266" t="str">
+      <c r="CU1" s="270" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12314,7 +12332,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="266"/>
+      <c r="CU2" s="270"/>
       <c r="CV2" s="275"/>
       <c r="CW2" s="275"/>
       <c r="CX2" s="275"/>
@@ -12531,22 +12549,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="225" t="s">
+      <c r="F6" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="225" t="s">
+      <c r="G6" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="225" t="s">
+      <c r="H6" s="256" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="284" t="s">
@@ -12555,13 +12573,13 @@
       <c r="J6" s="284" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="225" t="s">
+      <c r="L6" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="225" t="s">
+      <c r="M6" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -12576,17 +12594,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
       <c r="I7" s="284"/>
       <c r="J7" s="284"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="225"/>
-      <c r="M7" s="225"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
       <c r="N7" s="43" t="s">
         <v>68</v>
       </c>
@@ -12797,22 +12815,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="225" t="s">
+      <c r="D14" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="225" t="s">
+      <c r="F14" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="225" t="s">
+      <c r="G14" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="225" t="s">
+      <c r="H14" s="256" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="285" t="s">
@@ -12821,13 +12839,13 @@
       <c r="J14" s="284" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="225" t="s">
+      <c r="K14" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="225" t="s">
+      <c r="L14" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="225" t="s">
+      <c r="M14" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="68" t="s">
@@ -12842,17 +12860,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
       <c r="I15" s="286"/>
       <c r="J15" s="284"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
       <c r="N15" s="43" t="s">
         <v>68</v>
       </c>
@@ -12975,22 +12993,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="96"/>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="225" t="s">
+      <c r="D21" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="225" t="s">
+      <c r="E21" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="225" t="s">
+      <c r="F21" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="225" t="s">
+      <c r="G21" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="225" t="s">
+      <c r="H21" s="256" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="284" t="s">
@@ -12999,13 +13017,13 @@
       <c r="J21" s="284" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="225" t="s">
+      <c r="K21" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="225" t="s">
+      <c r="L21" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="225" t="s">
+      <c r="M21" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -13019,17 +13037,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="96"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
+      <c r="C22" s="256"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
       <c r="I22" s="284"/>
       <c r="J22" s="284"/>
-      <c r="K22" s="225"/>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="256"/>
       <c r="N22" s="94" t="s">
         <v>68</v>
       </c>
@@ -14017,22 +14035,22 @@
     </row>
     <row r="46" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="96"/>
-      <c r="C46" s="225" t="s">
+      <c r="C46" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="225" t="s">
+      <c r="D46" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="225" t="s">
+      <c r="E46" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="225" t="s">
+      <c r="F46" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="225" t="s">
+      <c r="G46" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="225" t="s">
+      <c r="H46" s="256" t="s">
         <v>29</v>
       </c>
       <c r="I46" s="284" t="s">
@@ -14041,13 +14059,13 @@
       <c r="J46" s="284" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="225" t="s">
+      <c r="K46" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="225" t="s">
+      <c r="L46" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="225" t="s">
+      <c r="M46" s="256" t="s">
         <v>33</v>
       </c>
       <c r="N46" s="68" t="s">
@@ -14061,17 +14079,17 @@
     </row>
     <row r="47" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="96"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="256"/>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
       <c r="I47" s="284"/>
       <c r="J47" s="284"/>
-      <c r="K47" s="225"/>
-      <c r="L47" s="225"/>
-      <c r="M47" s="225"/>
+      <c r="K47" s="256"/>
+      <c r="L47" s="256"/>
+      <c r="M47" s="256"/>
       <c r="N47" s="157" t="s">
         <v>68</v>
       </c>
@@ -14225,28 +14243,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -14255,24 +14269,28 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14344,7 +14362,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="263">
+      <c r="AI1" s="267">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -14360,7 +14378,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="266" t="str">
+      <c r="AT1" s="270" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -14431,7 +14449,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="266"/>
+      <c r="AT2" s="270"/>
       <c r="AU2" s="275"/>
       <c r="AV2" s="275"/>
       <c r="AW2" s="275"/>
@@ -14775,7 +14793,7 @@
       <c r="C11" s="70"/>
       <c r="F11" s="71"/>
       <c r="G11" s="21" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -14826,7 +14844,7 @@
       <c r="C12" s="70"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="K12" s="71"/>
       <c r="M12" s="17" t="s">
@@ -14865,7 +14883,9 @@
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="70" t="s">
+        <v>329</v>
+      </c>
       <c r="K13" s="71"/>
       <c r="N13" s="17" t="s">
         <v>344</v>
@@ -14876,7 +14896,9 @@
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
+      <c r="G14" s="70" t="s">
+        <v>330</v>
+      </c>
       <c r="K14" s="71"/>
       <c r="N14" s="17" t="s">
         <v>361</v>
@@ -35546,7 +35568,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="263">
+      <c r="AI1" s="267">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -35562,7 +35584,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="266" t="str">
+      <c r="AT1" s="270" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -35633,7 +35655,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="266"/>
+      <c r="AT2" s="270"/>
       <c r="AU2" s="275"/>
       <c r="AV2" s="275"/>
       <c r="AW2" s="275"/>
@@ -40460,7 +40482,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="263">
+      <c r="AI1" s="267">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -40476,7 +40498,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="266" t="str">
+      <c r="AT1" s="270" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -40547,7 +40569,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="266"/>
+      <c r="AT2" s="270"/>
       <c r="AU2" s="275"/>
       <c r="AV2" s="275"/>
       <c r="AW2" s="275"/>
@@ -54884,6 +54906,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -55041,15 +55072,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -55067,6 +55089,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55082,12 +55112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>